--- a/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
+++ b/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
@@ -60,36 +60,36 @@
     <t>LHPolicy_DSPZOFFSET</t>
   </si>
   <si>
+    <t>LHPolicy_CAN_MSA</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX_VOLUME</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX_RATE</t>
+  </si>
+  <si>
+    <t>LHPolicy_ASPSPEED</t>
+  </si>
+  <si>
+    <t>LHPolicy_DSPSPEED</t>
+  </si>
+  <si>
+    <t>LHPolicy_CAN_MULTI</t>
+  </si>
+  <si>
+    <t>LHPolicy_CAN_SDD</t>
+  </si>
+  <si>
+    <t>LHPolicy_DSPREFERENCE</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX</t>
+  </si>
+  <si>
     <t>LHPolicy_NO_AIR_DISPENSE</t>
   </si>
   <si>
-    <t>LHPolicy_CAN_SDD</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX_VOLUME</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX_RATE</t>
-  </si>
-  <si>
-    <t>LHPolicy_ASPSPEED</t>
-  </si>
-  <si>
-    <t>LHPolicy_DSPSPEED</t>
-  </si>
-  <si>
-    <t>LHPolicy_CAN_MULTI</t>
-  </si>
-  <si>
-    <t>LHPolicy_CAN_MSA</t>
-  </si>
-  <si>
-    <t>LHPolicy_DSPREFERENCE</t>
-  </si>
-  <si>
     <t>LHPolicy_TIP_REUSE_LIMIT</t>
   </si>
   <si>
@@ -102,514 +102,514 @@
     <t>1</t>
   </si>
   <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>PostMix</t>
+  </si>
+  <si>
+    <t>greiner384_riser</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>1.000 ul</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>2.000 ul</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>5.000 ul</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>7.500 ul</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>10.000ul</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
     <t>N4</t>
   </si>
   <si>
-    <t>PostMix</t>
-  </si>
-  <si>
-    <t>greiner384_riser</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>25.000ul</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>30.000ul</t>
+  </si>
+  <si>
+    <t>F14</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>O14</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>N12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>D7</t>
   </si>
   <si>
     <t>J12</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>1.000 ul</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>M10</t>
+    <t>35.000ul</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>40.000ul</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>45.000ul</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>H6</t>
   </si>
   <si>
     <t>L11</t>
   </si>
   <si>
-    <t>B7</t>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>50.000ul</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>L8</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>2.000 ul</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>O15</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>N10</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O16</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>5.000 ul</t>
-  </si>
-  <si>
-    <t>N8</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
-    <t>O12</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>7.500 ul</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>N11</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F15</t>
   </si>
   <si>
     <t>I5</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>10.000ul</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>25.000ul</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>30.000ul</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K12</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
     <t>I13</t>
-  </si>
-  <si>
-    <t>35.000ul</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>M15</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>40.000ul</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>N9</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>N15</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>45.000ul</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>O13</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>50.000ul</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>N14</t>
-  </si>
-  <si>
-    <t>N13</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>K10</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>K8</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>J7</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1139,32 +1139,32 @@
       <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
-        <v>32</v>
+      <c r="P2">
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S2">
         <v>3.74</v>
       </c>
-      <c r="T2">
-        <v>3.74</v>
-      </c>
-      <c r="U2">
-        <v>3.74</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1216,32 +1216,32 @@
       <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
-        <v>32</v>
+      <c r="P3">
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S3">
         <v>3.74</v>
       </c>
-      <c r="T3">
-        <v>3.74</v>
-      </c>
-      <c r="U3">
-        <v>3.74</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1293,32 +1293,32 @@
       <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
-        <v>32</v>
+      <c r="P4">
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S4">
         <v>3.74</v>
       </c>
-      <c r="T4">
-        <v>3.74</v>
-      </c>
-      <c r="U4">
-        <v>3.74</v>
-      </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -1370,32 +1370,32 @@
       <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
-        <v>32</v>
+      <c r="P5">
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S5">
         <v>3.74</v>
       </c>
-      <c r="T5">
-        <v>3.74</v>
-      </c>
-      <c r="U5">
-        <v>3.74</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="H6">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -1447,32 +1447,32 @@
       <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
-        <v>32</v>
+      <c r="P6">
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S6">
         <v>3.74</v>
       </c>
-      <c r="T6">
-        <v>3.74</v>
-      </c>
-      <c r="U6">
-        <v>3.74</v>
-      </c>
-      <c r="V6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1524,32 +1524,32 @@
       <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
-        <v>32</v>
+      <c r="P7">
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S7">
         <v>3.74</v>
       </c>
-      <c r="T7">
-        <v>3.74</v>
-      </c>
-      <c r="U7">
-        <v>3.74</v>
-      </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>32</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1601,32 +1601,32 @@
       <c r="O8" t="s">
         <v>31</v>
       </c>
-      <c r="P8" t="s">
-        <v>32</v>
+      <c r="P8">
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S8">
         <v>3.74</v>
       </c>
-      <c r="T8">
-        <v>3.74</v>
-      </c>
-      <c r="U8">
-        <v>3.74</v>
-      </c>
-      <c r="V8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>32</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -1678,32 +1678,32 @@
       <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" t="s">
-        <v>32</v>
+      <c r="P9">
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S9">
         <v>3.74</v>
       </c>
-      <c r="T9">
-        <v>3.74</v>
-      </c>
-      <c r="U9">
-        <v>3.74</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1755,32 +1755,32 @@
       <c r="O10" t="s">
         <v>31</v>
       </c>
-      <c r="P10" t="s">
-        <v>32</v>
+      <c r="P10">
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S10">
         <v>3.74</v>
       </c>
-      <c r="T10">
-        <v>3.74</v>
-      </c>
-      <c r="U10">
-        <v>3.74</v>
-      </c>
-      <c r="V10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1832,32 +1832,32 @@
       <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="P11" t="s">
-        <v>32</v>
+      <c r="P11">
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S11">
         <v>3.74</v>
       </c>
-      <c r="T11">
-        <v>3.74</v>
-      </c>
-      <c r="U11">
-        <v>3.74</v>
-      </c>
-      <c r="V11" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>32</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1909,32 +1909,32 @@
       <c r="O12" t="s">
         <v>31</v>
       </c>
-      <c r="P12" t="s">
-        <v>32</v>
+      <c r="P12">
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S12">
         <v>3.74</v>
       </c>
-      <c r="T12">
-        <v>3.74</v>
-      </c>
-      <c r="U12">
-        <v>3.74</v>
-      </c>
-      <c r="V12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
+      <c r="T12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12" t="s">
+        <v>32</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -1986,32 +1986,32 @@
       <c r="O13" t="s">
         <v>31</v>
       </c>
-      <c r="P13" t="s">
-        <v>32</v>
+      <c r="P13">
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S13">
         <v>3.74</v>
       </c>
-      <c r="T13">
-        <v>3.74</v>
-      </c>
-      <c r="U13">
-        <v>3.74</v>
-      </c>
-      <c r="V13" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13" t="s">
+        <v>32</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -2063,32 +2063,32 @@
       <c r="O14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" t="s">
-        <v>32</v>
+      <c r="P14">
+        <v>10</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S14">
         <v>3.74</v>
       </c>
-      <c r="T14">
-        <v>3.74</v>
-      </c>
-      <c r="U14">
-        <v>3.74</v>
-      </c>
-      <c r="V14" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
+      <c r="T14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>32</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="H15">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -2140,32 +2140,32 @@
       <c r="O15" t="s">
         <v>31</v>
       </c>
-      <c r="P15" t="s">
-        <v>32</v>
+      <c r="P15">
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S15">
         <v>3.74</v>
       </c>
-      <c r="T15">
-        <v>3.74</v>
-      </c>
-      <c r="U15">
-        <v>3.74</v>
-      </c>
-      <c r="V15" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+      <c r="T15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>32</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="H16">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -2217,32 +2217,32 @@
       <c r="O16" t="s">
         <v>31</v>
       </c>
-      <c r="P16" t="s">
-        <v>32</v>
+      <c r="P16">
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S16">
         <v>3.74</v>
       </c>
-      <c r="T16">
-        <v>3.74</v>
-      </c>
-      <c r="U16">
-        <v>3.74</v>
-      </c>
-      <c r="V16" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
+      <c r="T16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16" t="s">
+        <v>32</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>14</v>
@@ -2294,32 +2294,32 @@
       <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="P17" t="s">
-        <v>32</v>
+      <c r="P17">
+        <v>10</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S17">
         <v>3.74</v>
       </c>
-      <c r="T17">
-        <v>3.74</v>
-      </c>
-      <c r="U17">
-        <v>3.74</v>
-      </c>
-      <c r="V17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W17" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>32</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <v>14</v>
@@ -2371,32 +2371,32 @@
       <c r="O18" t="s">
         <v>31</v>
       </c>
-      <c r="P18" t="s">
-        <v>32</v>
+      <c r="P18">
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S18">
         <v>3.74</v>
       </c>
-      <c r="T18">
-        <v>3.74</v>
-      </c>
-      <c r="U18">
-        <v>3.74</v>
-      </c>
-      <c r="V18" t="s">
-        <v>32</v>
-      </c>
-      <c r="W18" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>32</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I19">
         <v>14</v>
@@ -2448,32 +2448,32 @@
       <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="P19" t="s">
-        <v>32</v>
+      <c r="P19">
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S19">
         <v>3.74</v>
       </c>
-      <c r="T19">
-        <v>3.74</v>
-      </c>
-      <c r="U19">
-        <v>3.74</v>
-      </c>
-      <c r="V19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19" t="s">
+        <v>32</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="H20">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I20">
         <v>14</v>
@@ -2525,32 +2525,32 @@
       <c r="O20" t="s">
         <v>31</v>
       </c>
-      <c r="P20" t="s">
-        <v>32</v>
+      <c r="P20">
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S20">
         <v>3.74</v>
       </c>
-      <c r="T20">
-        <v>3.74</v>
-      </c>
-      <c r="U20">
-        <v>3.74</v>
-      </c>
-      <c r="V20" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20" t="s">
+        <v>32</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I21">
         <v>14</v>
@@ -2602,32 +2602,32 @@
       <c r="O21" t="s">
         <v>31</v>
       </c>
-      <c r="P21" t="s">
-        <v>32</v>
+      <c r="P21">
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S21">
         <v>3.74</v>
       </c>
-      <c r="T21">
-        <v>3.74</v>
-      </c>
-      <c r="U21">
-        <v>3.74</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21" t="s">
+        <v>32</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="H22">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>14</v>
@@ -2679,32 +2679,32 @@
       <c r="O22" t="s">
         <v>31</v>
       </c>
-      <c r="P22" t="s">
-        <v>32</v>
+      <c r="P22">
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S22">
         <v>3.74</v>
       </c>
-      <c r="T22">
-        <v>3.74</v>
-      </c>
-      <c r="U22">
-        <v>3.74</v>
-      </c>
-      <c r="V22" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+      <c r="T22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>32</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I23">
         <v>14</v>
@@ -2756,32 +2756,32 @@
       <c r="O23" t="s">
         <v>31</v>
       </c>
-      <c r="P23" t="s">
-        <v>32</v>
+      <c r="P23">
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S23">
         <v>3.74</v>
       </c>
-      <c r="T23">
-        <v>3.74</v>
-      </c>
-      <c r="U23">
-        <v>3.74</v>
-      </c>
-      <c r="V23" t="s">
-        <v>32</v>
-      </c>
-      <c r="W23" t="s">
-        <v>32</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23" t="s">
+        <v>32</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2833,32 +2833,32 @@
       <c r="O24" t="s">
         <v>31</v>
       </c>
-      <c r="P24" t="s">
-        <v>32</v>
+      <c r="P24">
+        <v>10</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S24">
         <v>3.74</v>
       </c>
-      <c r="T24">
-        <v>3.74</v>
-      </c>
-      <c r="U24">
-        <v>3.74</v>
-      </c>
-      <c r="V24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>32</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>14</v>
@@ -2910,32 +2910,32 @@
       <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="P25" t="s">
-        <v>32</v>
+      <c r="P25">
+        <v>10</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S25">
         <v>3.74</v>
       </c>
-      <c r="T25">
-        <v>3.74</v>
-      </c>
-      <c r="U25">
-        <v>3.74</v>
-      </c>
-      <c r="V25" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25" t="s">
+        <v>32</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I26">
         <v>14</v>
@@ -2987,32 +2987,32 @@
       <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="P26" t="s">
-        <v>32</v>
+      <c r="P26">
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S26">
         <v>3.74</v>
       </c>
-      <c r="T26">
-        <v>3.74</v>
-      </c>
-      <c r="U26">
-        <v>3.74</v>
-      </c>
-      <c r="V26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" t="s">
-        <v>32</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26" t="s">
+        <v>32</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="H27">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -3064,32 +3064,32 @@
       <c r="O27" t="s">
         <v>31</v>
       </c>
-      <c r="P27" t="s">
-        <v>32</v>
+      <c r="P27">
+        <v>10</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S27">
         <v>3.74</v>
       </c>
-      <c r="T27">
-        <v>3.74</v>
-      </c>
-      <c r="U27">
-        <v>3.74</v>
-      </c>
-      <c r="V27" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27" t="s">
+        <v>32</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I28">
         <v>14</v>
@@ -3141,32 +3141,32 @@
       <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="P28" t="s">
-        <v>32</v>
+      <c r="P28">
+        <v>10</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S28">
         <v>3.74</v>
       </c>
-      <c r="T28">
-        <v>3.74</v>
-      </c>
-      <c r="U28">
-        <v>3.74</v>
-      </c>
-      <c r="V28" t="s">
-        <v>32</v>
-      </c>
-      <c r="W28" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28" t="s">
+        <v>32</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="H29">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I29">
         <v>14</v>
@@ -3218,32 +3218,32 @@
       <c r="O29" t="s">
         <v>31</v>
       </c>
-      <c r="P29" t="s">
-        <v>32</v>
+      <c r="P29">
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S29">
         <v>3.74</v>
       </c>
-      <c r="T29">
-        <v>3.74</v>
-      </c>
-      <c r="U29">
-        <v>3.74</v>
-      </c>
-      <c r="V29" t="s">
-        <v>32</v>
-      </c>
-      <c r="W29" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
+      <c r="T29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29" t="s">
+        <v>32</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="H30">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>14</v>
@@ -3295,32 +3295,32 @@
       <c r="O30" t="s">
         <v>31</v>
       </c>
-      <c r="P30" t="s">
-        <v>32</v>
+      <c r="P30">
+        <v>10</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S30">
         <v>3.74</v>
       </c>
-      <c r="T30">
-        <v>3.74</v>
-      </c>
-      <c r="U30">
-        <v>3.74</v>
-      </c>
-      <c r="V30" t="s">
-        <v>32</v>
-      </c>
-      <c r="W30" t="s">
-        <v>32</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30" t="s">
+        <v>32</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <v>14</v>
@@ -3372,32 +3372,32 @@
       <c r="O31" t="s">
         <v>31</v>
       </c>
-      <c r="P31" t="s">
-        <v>32</v>
+      <c r="P31">
+        <v>10</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S31">
         <v>3.74</v>
       </c>
-      <c r="T31">
-        <v>3.74</v>
-      </c>
-      <c r="U31">
-        <v>3.74</v>
-      </c>
-      <c r="V31" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+      <c r="T31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31" t="s">
+        <v>32</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>30</v>
       </c>
       <c r="H32">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I32">
         <v>14</v>
@@ -3449,32 +3449,32 @@
       <c r="O32" t="s">
         <v>31</v>
       </c>
-      <c r="P32" t="s">
-        <v>32</v>
+      <c r="P32">
+        <v>10</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S32">
         <v>3.74</v>
       </c>
-      <c r="T32">
-        <v>3.74</v>
-      </c>
-      <c r="U32">
-        <v>3.74</v>
-      </c>
-      <c r="V32" t="s">
-        <v>32</v>
-      </c>
-      <c r="W32" t="s">
-        <v>32</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
+      <c r="T32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32" t="s">
+        <v>32</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>14</v>
@@ -3526,32 +3526,32 @@
       <c r="O33" t="s">
         <v>31</v>
       </c>
-      <c r="P33" t="s">
-        <v>32</v>
+      <c r="P33">
+        <v>10</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R33">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S33">
         <v>3.74</v>
       </c>
-      <c r="T33">
-        <v>3.74</v>
-      </c>
-      <c r="U33">
-        <v>3.74</v>
-      </c>
-      <c r="V33" t="s">
-        <v>32</v>
-      </c>
-      <c r="W33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
+      <c r="T33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33" t="s">
+        <v>32</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="H34">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -3603,32 +3603,32 @@
       <c r="O34" t="s">
         <v>31</v>
       </c>
-      <c r="P34" t="s">
-        <v>32</v>
+      <c r="P34">
+        <v>10</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S34">
         <v>3.74</v>
       </c>
-      <c r="T34">
-        <v>3.74</v>
-      </c>
-      <c r="U34">
-        <v>3.74</v>
-      </c>
-      <c r="V34" t="s">
-        <v>32</v>
-      </c>
-      <c r="W34" t="s">
-        <v>32</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34" t="s">
+        <v>32</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="H35">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>14</v>
@@ -3680,32 +3680,32 @@
       <c r="O35" t="s">
         <v>31</v>
       </c>
-      <c r="P35" t="s">
-        <v>32</v>
+      <c r="P35">
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R35">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S35">
         <v>3.74</v>
       </c>
-      <c r="T35">
-        <v>3.74</v>
-      </c>
-      <c r="U35">
-        <v>3.74</v>
-      </c>
-      <c r="V35" t="s">
-        <v>32</v>
-      </c>
-      <c r="W35" t="s">
-        <v>32</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35" t="s">
+        <v>32</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I36">
         <v>14</v>
@@ -3757,32 +3757,32 @@
       <c r="O36" t="s">
         <v>31</v>
       </c>
-      <c r="P36" t="s">
-        <v>32</v>
+      <c r="P36">
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R36">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S36">
         <v>3.74</v>
       </c>
-      <c r="T36">
-        <v>3.74</v>
-      </c>
-      <c r="U36">
-        <v>3.74</v>
-      </c>
-      <c r="V36" t="s">
-        <v>32</v>
-      </c>
-      <c r="W36" t="s">
-        <v>32</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
+      <c r="T36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36" t="s">
+        <v>32</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>30</v>
       </c>
       <c r="H37">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I37">
         <v>14</v>
@@ -3834,32 +3834,32 @@
       <c r="O37" t="s">
         <v>31</v>
       </c>
-      <c r="P37" t="s">
-        <v>32</v>
+      <c r="P37">
+        <v>10</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S37">
         <v>3.74</v>
       </c>
-      <c r="T37">
-        <v>3.74</v>
-      </c>
-      <c r="U37">
-        <v>3.74</v>
-      </c>
-      <c r="V37" t="s">
-        <v>32</v>
-      </c>
-      <c r="W37" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="X37" t="s">
+        <v>32</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>14</v>
@@ -3911,32 +3911,32 @@
       <c r="O38" t="s">
         <v>31</v>
       </c>
-      <c r="P38" t="s">
-        <v>32</v>
+      <c r="P38">
+        <v>10</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S38">
         <v>3.74</v>
       </c>
-      <c r="T38">
-        <v>3.74</v>
-      </c>
-      <c r="U38">
-        <v>3.74</v>
-      </c>
-      <c r="V38" t="s">
-        <v>32</v>
-      </c>
-      <c r="W38" t="s">
-        <v>32</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
+      <c r="T38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38" t="s">
+        <v>32</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>30</v>
       </c>
       <c r="H39">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I39">
         <v>14</v>
@@ -3988,32 +3988,32 @@
       <c r="O39" t="s">
         <v>31</v>
       </c>
-      <c r="P39" t="s">
-        <v>32</v>
+      <c r="P39">
+        <v>10</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S39">
         <v>3.74</v>
       </c>
-      <c r="T39">
-        <v>3.74</v>
-      </c>
-      <c r="U39">
-        <v>3.74</v>
-      </c>
-      <c r="V39" t="s">
-        <v>32</v>
-      </c>
-      <c r="W39" t="s">
-        <v>32</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
+      <c r="T39" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39" t="s">
+        <v>32</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="H40">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I40">
         <v>14</v>
@@ -4065,32 +4065,32 @@
       <c r="O40" t="s">
         <v>31</v>
       </c>
-      <c r="P40" t="s">
-        <v>32</v>
+      <c r="P40">
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R40">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S40">
         <v>3.74</v>
       </c>
-      <c r="T40">
-        <v>3.74</v>
-      </c>
-      <c r="U40">
-        <v>3.74</v>
-      </c>
-      <c r="V40" t="s">
-        <v>32</v>
-      </c>
-      <c r="W40" t="s">
-        <v>32</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40" t="s">
+        <v>32</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>30</v>
       </c>
       <c r="H41">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I41">
         <v>14</v>
@@ -4142,32 +4142,32 @@
       <c r="O41" t="s">
         <v>31</v>
       </c>
-      <c r="P41" t="s">
-        <v>32</v>
+      <c r="P41">
+        <v>10</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R41">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S41">
         <v>3.74</v>
       </c>
-      <c r="T41">
-        <v>3.74</v>
-      </c>
-      <c r="U41">
-        <v>3.74</v>
-      </c>
-      <c r="V41" t="s">
-        <v>32</v>
-      </c>
-      <c r="W41" t="s">
-        <v>32</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
+      <c r="T41" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41" t="s">
+        <v>32</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="H42">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -4219,32 +4219,32 @@
       <c r="O42" t="s">
         <v>31</v>
       </c>
-      <c r="P42" t="s">
-        <v>32</v>
+      <c r="P42">
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R42">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S42">
         <v>3.74</v>
       </c>
-      <c r="T42">
-        <v>3.74</v>
-      </c>
-      <c r="U42">
-        <v>3.74</v>
-      </c>
-      <c r="V42" t="s">
-        <v>32</v>
-      </c>
-      <c r="W42" t="s">
-        <v>32</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
+      <c r="T42" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42" t="s">
+        <v>32</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <v>14</v>
@@ -4296,32 +4296,32 @@
       <c r="O43" t="s">
         <v>31</v>
       </c>
-      <c r="P43" t="s">
-        <v>32</v>
+      <c r="P43">
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R43">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S43">
         <v>3.74</v>
       </c>
-      <c r="T43">
-        <v>3.74</v>
-      </c>
-      <c r="U43">
-        <v>3.74</v>
-      </c>
-      <c r="V43" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" t="s">
-        <v>32</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
+      <c r="T43" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43" t="s">
+        <v>32</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="H44">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I44">
         <v>14</v>
@@ -4373,32 +4373,32 @@
       <c r="O44" t="s">
         <v>31</v>
       </c>
-      <c r="P44" t="s">
-        <v>32</v>
+      <c r="P44">
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R44">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S44">
         <v>3.74</v>
       </c>
-      <c r="T44">
-        <v>3.74</v>
-      </c>
-      <c r="U44">
-        <v>3.74</v>
-      </c>
-      <c r="V44" t="s">
-        <v>32</v>
-      </c>
-      <c r="W44" t="s">
-        <v>32</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
+      <c r="T44" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="X44" t="s">
+        <v>32</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I45">
         <v>14</v>
@@ -4450,32 +4450,32 @@
       <c r="O45" t="s">
         <v>31</v>
       </c>
-      <c r="P45" t="s">
-        <v>32</v>
+      <c r="P45">
+        <v>10</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R45">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S45">
         <v>3.74</v>
       </c>
-      <c r="T45">
-        <v>3.74</v>
-      </c>
-      <c r="U45">
-        <v>3.74</v>
-      </c>
-      <c r="V45" t="s">
-        <v>32</v>
-      </c>
-      <c r="W45" t="s">
-        <v>32</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
+      <c r="T45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45" t="s">
+        <v>32</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>30</v>
       </c>
       <c r="H46">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I46">
         <v>14</v>
@@ -4527,32 +4527,32 @@
       <c r="O46" t="s">
         <v>31</v>
       </c>
-      <c r="P46" t="s">
-        <v>32</v>
+      <c r="P46">
+        <v>10</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R46">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S46">
         <v>3.74</v>
       </c>
-      <c r="T46">
-        <v>3.74</v>
-      </c>
-      <c r="U46">
-        <v>3.74</v>
-      </c>
-      <c r="V46" t="s">
-        <v>32</v>
-      </c>
-      <c r="W46" t="s">
-        <v>32</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
+      <c r="T46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" t="s">
+        <v>31</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46" t="s">
+        <v>32</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>30</v>
       </c>
       <c r="H47">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I47">
         <v>14</v>
@@ -4604,32 +4604,32 @@
       <c r="O47" t="s">
         <v>31</v>
       </c>
-      <c r="P47" t="s">
-        <v>32</v>
+      <c r="P47">
+        <v>10</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R47">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S47">
         <v>3.74</v>
       </c>
-      <c r="T47">
-        <v>3.74</v>
-      </c>
-      <c r="U47">
-        <v>3.74</v>
-      </c>
-      <c r="V47" t="s">
-        <v>32</v>
-      </c>
-      <c r="W47" t="s">
-        <v>32</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
+      <c r="T47" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47" t="s">
+        <v>32</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I48">
         <v>14</v>
@@ -4681,32 +4681,32 @@
       <c r="O48" t="s">
         <v>31</v>
       </c>
-      <c r="P48" t="s">
-        <v>32</v>
+      <c r="P48">
+        <v>10</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R48">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S48">
         <v>3.74</v>
       </c>
-      <c r="T48">
-        <v>3.74</v>
-      </c>
-      <c r="U48">
-        <v>3.74</v>
-      </c>
-      <c r="V48" t="s">
-        <v>32</v>
-      </c>
-      <c r="W48" t="s">
-        <v>32</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
+      <c r="T48" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48" t="s">
+        <v>32</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>30</v>
       </c>
       <c r="H49">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I49">
         <v>14</v>
@@ -4758,32 +4758,32 @@
       <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="P49" t="s">
-        <v>32</v>
+      <c r="P49">
+        <v>10</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S49">
         <v>3.74</v>
       </c>
-      <c r="T49">
-        <v>3.74</v>
-      </c>
-      <c r="U49">
-        <v>3.74</v>
-      </c>
-      <c r="V49" t="s">
-        <v>32</v>
-      </c>
-      <c r="W49" t="s">
-        <v>32</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
+      <c r="T49" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" t="s">
+        <v>31</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49" t="s">
+        <v>32</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I50">
         <v>14</v>
@@ -4835,32 +4835,32 @@
       <c r="O50" t="s">
         <v>31</v>
       </c>
-      <c r="P50" t="s">
-        <v>32</v>
+      <c r="P50">
+        <v>10</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R50">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S50">
         <v>3.74</v>
       </c>
-      <c r="T50">
-        <v>3.74</v>
-      </c>
-      <c r="U50">
-        <v>3.74</v>
-      </c>
-      <c r="V50" t="s">
-        <v>32</v>
-      </c>
-      <c r="W50" t="s">
-        <v>32</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
+      <c r="T50" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="X50" t="s">
+        <v>32</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>30</v>
       </c>
       <c r="H51">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>14</v>
@@ -4912,32 +4912,32 @@
       <c r="O51" t="s">
         <v>31</v>
       </c>
-      <c r="P51" t="s">
-        <v>32</v>
+      <c r="P51">
+        <v>10</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R51">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S51">
         <v>3.74</v>
       </c>
-      <c r="T51">
-        <v>3.74</v>
-      </c>
-      <c r="U51">
-        <v>3.74</v>
-      </c>
-      <c r="V51" t="s">
-        <v>32</v>
-      </c>
-      <c r="W51" t="s">
-        <v>32</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
+      <c r="T51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" t="s">
+        <v>31</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="X51" t="s">
+        <v>32</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>30</v>
       </c>
       <c r="H52">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>14</v>
@@ -4989,32 +4989,32 @@
       <c r="O52" t="s">
         <v>31</v>
       </c>
-      <c r="P52" t="s">
-        <v>32</v>
+      <c r="P52">
+        <v>10</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S52">
         <v>3.74</v>
       </c>
-      <c r="T52">
-        <v>3.74</v>
-      </c>
-      <c r="U52">
-        <v>3.74</v>
-      </c>
-      <c r="V52" t="s">
-        <v>32</v>
-      </c>
-      <c r="W52" t="s">
-        <v>32</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
+      <c r="T52" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" t="s">
+        <v>31</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="X52" t="s">
+        <v>32</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>30</v>
       </c>
       <c r="H53">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I53">
         <v>14</v>
@@ -5066,32 +5066,32 @@
       <c r="O53" t="s">
         <v>31</v>
       </c>
-      <c r="P53" t="s">
-        <v>32</v>
+      <c r="P53">
+        <v>10</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R53">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S53">
         <v>3.74</v>
       </c>
-      <c r="T53">
-        <v>3.74</v>
-      </c>
-      <c r="U53">
-        <v>3.74</v>
-      </c>
-      <c r="V53" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" t="s">
-        <v>32</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
+      <c r="T53" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53" t="s">
+        <v>32</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>30</v>
       </c>
       <c r="H54">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I54">
         <v>14</v>
@@ -5143,32 +5143,32 @@
       <c r="O54" t="s">
         <v>31</v>
       </c>
-      <c r="P54" t="s">
-        <v>32</v>
+      <c r="P54">
+        <v>10</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R54">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S54">
         <v>3.74</v>
       </c>
-      <c r="T54">
-        <v>3.74</v>
-      </c>
-      <c r="U54">
-        <v>3.74</v>
-      </c>
-      <c r="V54" t="s">
-        <v>32</v>
-      </c>
-      <c r="W54" t="s">
-        <v>32</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
+      <c r="T54" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" t="s">
+        <v>31</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54" t="s">
+        <v>32</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I55">
         <v>14</v>
@@ -5220,32 +5220,32 @@
       <c r="O55" t="s">
         <v>31</v>
       </c>
-      <c r="P55" t="s">
-        <v>32</v>
+      <c r="P55">
+        <v>10</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R55">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S55">
         <v>3.74</v>
       </c>
-      <c r="T55">
-        <v>3.74</v>
-      </c>
-      <c r="U55">
-        <v>3.74</v>
-      </c>
-      <c r="V55" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" t="s">
-        <v>32</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
+      <c r="T55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55" t="s">
+        <v>32</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>30</v>
       </c>
       <c r="H56">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I56">
         <v>14</v>
@@ -5297,32 +5297,32 @@
       <c r="O56" t="s">
         <v>31</v>
       </c>
-      <c r="P56" t="s">
-        <v>32</v>
+      <c r="P56">
+        <v>10</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R56">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S56">
         <v>3.74</v>
       </c>
-      <c r="T56">
-        <v>3.74</v>
-      </c>
-      <c r="U56">
-        <v>3.74</v>
-      </c>
-      <c r="V56" t="s">
-        <v>32</v>
-      </c>
-      <c r="W56" t="s">
-        <v>32</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
+      <c r="T56" t="s">
+        <v>31</v>
+      </c>
+      <c r="U56" t="s">
+        <v>31</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>3</v>
+      </c>
+      <c r="X56" t="s">
+        <v>32</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I57">
         <v>14</v>
@@ -5374,32 +5374,32 @@
       <c r="O57" t="s">
         <v>31</v>
       </c>
-      <c r="P57" t="s">
-        <v>32</v>
+      <c r="P57">
+        <v>10</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R57">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S57">
         <v>3.74</v>
       </c>
-      <c r="T57">
-        <v>3.74</v>
-      </c>
-      <c r="U57">
-        <v>3.74</v>
-      </c>
-      <c r="V57" t="s">
-        <v>32</v>
-      </c>
-      <c r="W57" t="s">
-        <v>32</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
+      <c r="T57" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+      <c r="X57" t="s">
+        <v>32</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>30</v>
       </c>
       <c r="H58">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -5451,32 +5451,32 @@
       <c r="O58" t="s">
         <v>31</v>
       </c>
-      <c r="P58" t="s">
-        <v>32</v>
+      <c r="P58">
+        <v>10</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R58">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S58">
         <v>3.74</v>
       </c>
-      <c r="T58">
-        <v>3.74</v>
-      </c>
-      <c r="U58">
-        <v>3.74</v>
-      </c>
-      <c r="V58" t="s">
-        <v>32</v>
-      </c>
-      <c r="W58" t="s">
-        <v>32</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
+      <c r="T58" t="s">
+        <v>31</v>
+      </c>
+      <c r="U58" t="s">
+        <v>31</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>3</v>
+      </c>
+      <c r="X58" t="s">
+        <v>32</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I59">
         <v>14</v>
@@ -5528,32 +5528,32 @@
       <c r="O59" t="s">
         <v>31</v>
       </c>
-      <c r="P59" t="s">
-        <v>32</v>
+      <c r="P59">
+        <v>10</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R59">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S59">
         <v>3.74</v>
       </c>
-      <c r="T59">
-        <v>3.74</v>
-      </c>
-      <c r="U59">
-        <v>3.74</v>
-      </c>
-      <c r="V59" t="s">
-        <v>32</v>
-      </c>
-      <c r="W59" t="s">
-        <v>32</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
+      <c r="T59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>3</v>
+      </c>
+      <c r="X59" t="s">
+        <v>32</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I60">
         <v>14</v>
@@ -5605,32 +5605,32 @@
       <c r="O60" t="s">
         <v>31</v>
       </c>
-      <c r="P60" t="s">
-        <v>32</v>
+      <c r="P60">
+        <v>10</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R60">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S60">
         <v>3.74</v>
       </c>
-      <c r="T60">
-        <v>3.74</v>
-      </c>
-      <c r="U60">
-        <v>3.74</v>
-      </c>
-      <c r="V60" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" t="s">
-        <v>32</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
+      <c r="T60" t="s">
+        <v>31</v>
+      </c>
+      <c r="U60" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>3</v>
+      </c>
+      <c r="X60" t="s">
+        <v>32</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>30</v>
       </c>
       <c r="H61">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I61">
         <v>14</v>
@@ -5682,32 +5682,32 @@
       <c r="O61" t="s">
         <v>31</v>
       </c>
-      <c r="P61" t="s">
-        <v>32</v>
+      <c r="P61">
+        <v>10</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R61">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S61">
         <v>3.74</v>
       </c>
-      <c r="T61">
-        <v>3.74</v>
-      </c>
-      <c r="U61">
-        <v>3.74</v>
-      </c>
-      <c r="V61" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61" t="s">
-        <v>32</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
+      <c r="T61" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" t="s">
+        <v>31</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>3</v>
+      </c>
+      <c r="X61" t="s">
+        <v>32</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I62">
         <v>14</v>
@@ -5759,32 +5759,32 @@
       <c r="O62" t="s">
         <v>31</v>
       </c>
-      <c r="P62" t="s">
-        <v>32</v>
+      <c r="P62">
+        <v>10</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R62">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S62">
         <v>3.74</v>
       </c>
-      <c r="T62">
-        <v>3.74</v>
-      </c>
-      <c r="U62">
-        <v>3.74</v>
-      </c>
-      <c r="V62" t="s">
-        <v>32</v>
-      </c>
-      <c r="W62" t="s">
-        <v>32</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
+      <c r="T62" t="s">
+        <v>31</v>
+      </c>
+      <c r="U62" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="X62" t="s">
+        <v>32</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I63">
         <v>14</v>
@@ -5836,32 +5836,32 @@
       <c r="O63" t="s">
         <v>31</v>
       </c>
-      <c r="P63" t="s">
-        <v>32</v>
+      <c r="P63">
+        <v>10</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R63">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S63">
         <v>3.74</v>
       </c>
-      <c r="T63">
-        <v>3.74</v>
-      </c>
-      <c r="U63">
-        <v>3.74</v>
-      </c>
-      <c r="V63" t="s">
-        <v>32</v>
-      </c>
-      <c r="W63" t="s">
-        <v>32</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
+      <c r="T63" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>3</v>
+      </c>
+      <c r="X63" t="s">
+        <v>32</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>30</v>
       </c>
       <c r="H64">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I64">
         <v>14</v>
@@ -5913,32 +5913,32 @@
       <c r="O64" t="s">
         <v>31</v>
       </c>
-      <c r="P64" t="s">
-        <v>32</v>
+      <c r="P64">
+        <v>10</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R64">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S64">
         <v>3.74</v>
       </c>
-      <c r="T64">
-        <v>3.74</v>
-      </c>
-      <c r="U64">
-        <v>3.74</v>
-      </c>
-      <c r="V64" t="s">
-        <v>32</v>
-      </c>
-      <c r="W64" t="s">
-        <v>32</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
+      <c r="T64" t="s">
+        <v>31</v>
+      </c>
+      <c r="U64" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>3</v>
+      </c>
+      <c r="X64" t="s">
+        <v>32</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>30</v>
       </c>
       <c r="H65">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I65">
         <v>14</v>
@@ -5990,32 +5990,32 @@
       <c r="O65" t="s">
         <v>31</v>
       </c>
-      <c r="P65" t="s">
-        <v>32</v>
+      <c r="P65">
+        <v>10</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S65">
         <v>3.74</v>
       </c>
-      <c r="T65">
-        <v>3.74</v>
-      </c>
-      <c r="U65">
-        <v>3.74</v>
-      </c>
-      <c r="V65" t="s">
-        <v>32</v>
-      </c>
-      <c r="W65" t="s">
-        <v>32</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
+      <c r="T65" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>3</v>
+      </c>
+      <c r="X65" t="s">
+        <v>32</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I66">
         <v>14</v>
@@ -6067,32 +6067,32 @@
       <c r="O66" t="s">
         <v>31</v>
       </c>
-      <c r="P66" t="s">
-        <v>32</v>
+      <c r="P66">
+        <v>10</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R66">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S66">
         <v>3.74</v>
       </c>
-      <c r="T66">
-        <v>3.74</v>
-      </c>
-      <c r="U66">
-        <v>3.74</v>
-      </c>
-      <c r="V66" t="s">
-        <v>32</v>
-      </c>
-      <c r="W66" t="s">
-        <v>32</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
+      <c r="T66" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66" t="s">
+        <v>32</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I67">
         <v>14</v>
@@ -6144,32 +6144,32 @@
       <c r="O67" t="s">
         <v>31</v>
       </c>
-      <c r="P67" t="s">
-        <v>32</v>
+      <c r="P67">
+        <v>10</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R67">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S67">
         <v>3.74</v>
       </c>
-      <c r="T67">
-        <v>3.74</v>
-      </c>
-      <c r="U67">
-        <v>3.74</v>
-      </c>
-      <c r="V67" t="s">
-        <v>32</v>
-      </c>
-      <c r="W67" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
+      <c r="T67" t="s">
+        <v>31</v>
+      </c>
+      <c r="U67" t="s">
+        <v>31</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>3</v>
+      </c>
+      <c r="X67" t="s">
+        <v>32</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>30</v>
       </c>
       <c r="H68">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I68">
         <v>14</v>
@@ -6221,32 +6221,32 @@
       <c r="O68" t="s">
         <v>31</v>
       </c>
-      <c r="P68" t="s">
-        <v>32</v>
+      <c r="P68">
+        <v>10</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R68">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S68">
         <v>3.74</v>
       </c>
-      <c r="T68">
-        <v>3.74</v>
-      </c>
-      <c r="U68">
-        <v>3.74</v>
-      </c>
-      <c r="V68" t="s">
-        <v>32</v>
-      </c>
-      <c r="W68" t="s">
-        <v>32</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
+      <c r="T68" t="s">
+        <v>31</v>
+      </c>
+      <c r="U68" t="s">
+        <v>31</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68" t="s">
+        <v>32</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I69">
         <v>14</v>
@@ -6298,32 +6298,32 @@
       <c r="O69" t="s">
         <v>31</v>
       </c>
-      <c r="P69" t="s">
-        <v>32</v>
+      <c r="P69">
+        <v>10</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R69">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S69">
         <v>3.74</v>
       </c>
-      <c r="T69">
-        <v>3.74</v>
-      </c>
-      <c r="U69">
-        <v>3.74</v>
-      </c>
-      <c r="V69" t="s">
-        <v>32</v>
-      </c>
-      <c r="W69" t="s">
-        <v>32</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
+      <c r="T69" t="s">
+        <v>31</v>
+      </c>
+      <c r="U69" t="s">
+        <v>31</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="X69" t="s">
+        <v>32</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>30</v>
       </c>
       <c r="H70">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I70">
         <v>14</v>
@@ -6375,32 +6375,32 @@
       <c r="O70" t="s">
         <v>31</v>
       </c>
-      <c r="P70" t="s">
-        <v>32</v>
+      <c r="P70">
+        <v>10</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R70">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S70">
         <v>3.74</v>
       </c>
-      <c r="T70">
-        <v>3.74</v>
-      </c>
-      <c r="U70">
-        <v>3.74</v>
-      </c>
-      <c r="V70" t="s">
-        <v>32</v>
-      </c>
-      <c r="W70" t="s">
-        <v>32</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
+      <c r="T70" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>3</v>
+      </c>
+      <c r="X70" t="s">
+        <v>32</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>30</v>
       </c>
       <c r="H71">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I71">
         <v>14</v>
@@ -6452,32 +6452,32 @@
       <c r="O71" t="s">
         <v>31</v>
       </c>
-      <c r="P71" t="s">
-        <v>32</v>
+      <c r="P71">
+        <v>10</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R71">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S71">
         <v>3.74</v>
       </c>
-      <c r="T71">
-        <v>3.74</v>
-      </c>
-      <c r="U71">
-        <v>3.74</v>
-      </c>
-      <c r="V71" t="s">
-        <v>32</v>
-      </c>
-      <c r="W71" t="s">
-        <v>32</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
+      <c r="T71" t="s">
+        <v>31</v>
+      </c>
+      <c r="U71" t="s">
+        <v>31</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>3</v>
+      </c>
+      <c r="X71" t="s">
+        <v>32</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I72">
         <v>14</v>
@@ -6529,32 +6529,32 @@
       <c r="O72" t="s">
         <v>31</v>
       </c>
-      <c r="P72" t="s">
-        <v>32</v>
+      <c r="P72">
+        <v>10</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S72">
         <v>3.74</v>
       </c>
-      <c r="T72">
-        <v>3.74</v>
-      </c>
-      <c r="U72">
-        <v>3.74</v>
-      </c>
-      <c r="V72" t="s">
-        <v>32</v>
-      </c>
-      <c r="W72" t="s">
-        <v>32</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
+      <c r="T72" t="s">
+        <v>31</v>
+      </c>
+      <c r="U72" t="s">
+        <v>31</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>3</v>
+      </c>
+      <c r="X72" t="s">
+        <v>32</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I73">
         <v>14</v>
@@ -6606,32 +6606,32 @@
       <c r="O73" t="s">
         <v>31</v>
       </c>
-      <c r="P73" t="s">
-        <v>32</v>
+      <c r="P73">
+        <v>10</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R73">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S73">
         <v>3.74</v>
       </c>
-      <c r="T73">
-        <v>3.74</v>
-      </c>
-      <c r="U73">
-        <v>3.74</v>
-      </c>
-      <c r="V73" t="s">
-        <v>32</v>
-      </c>
-      <c r="W73" t="s">
-        <v>32</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
+      <c r="T73" t="s">
+        <v>31</v>
+      </c>
+      <c r="U73" t="s">
+        <v>31</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>3</v>
+      </c>
+      <c r="X73" t="s">
+        <v>32</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I74">
         <v>14</v>
@@ -6683,32 +6683,32 @@
       <c r="O74" t="s">
         <v>31</v>
       </c>
-      <c r="P74" t="s">
-        <v>32</v>
+      <c r="P74">
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R74">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S74">
         <v>3.74</v>
       </c>
-      <c r="T74">
-        <v>3.74</v>
-      </c>
-      <c r="U74">
-        <v>3.74</v>
-      </c>
-      <c r="V74" t="s">
-        <v>32</v>
-      </c>
-      <c r="W74" t="s">
-        <v>32</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
+      <c r="T74" t="s">
+        <v>31</v>
+      </c>
+      <c r="U74" t="s">
+        <v>31</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>3</v>
+      </c>
+      <c r="X74" t="s">
+        <v>32</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>30</v>
       </c>
       <c r="H75">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I75">
         <v>14</v>
@@ -6760,32 +6760,32 @@
       <c r="O75" t="s">
         <v>31</v>
       </c>
-      <c r="P75" t="s">
-        <v>32</v>
+      <c r="P75">
+        <v>10</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R75">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S75">
         <v>3.74</v>
       </c>
-      <c r="T75">
-        <v>3.74</v>
-      </c>
-      <c r="U75">
-        <v>3.74</v>
-      </c>
-      <c r="V75" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" t="s">
-        <v>32</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
+      <c r="T75" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>3</v>
+      </c>
+      <c r="X75" t="s">
+        <v>32</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>30</v>
       </c>
       <c r="H76">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I76">
         <v>14</v>
@@ -6837,32 +6837,32 @@
       <c r="O76" t="s">
         <v>31</v>
       </c>
-      <c r="P76" t="s">
-        <v>32</v>
+      <c r="P76">
+        <v>10</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R76">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S76">
         <v>3.74</v>
       </c>
-      <c r="T76">
-        <v>3.74</v>
-      </c>
-      <c r="U76">
-        <v>3.74</v>
-      </c>
-      <c r="V76" t="s">
-        <v>32</v>
-      </c>
-      <c r="W76" t="s">
-        <v>32</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
+      <c r="T76" t="s">
+        <v>31</v>
+      </c>
+      <c r="U76" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>3</v>
+      </c>
+      <c r="X76" t="s">
+        <v>32</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>30</v>
       </c>
       <c r="H77">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I77">
         <v>14</v>
@@ -6914,32 +6914,32 @@
       <c r="O77" t="s">
         <v>31</v>
       </c>
-      <c r="P77" t="s">
-        <v>32</v>
+      <c r="P77">
+        <v>10</v>
       </c>
       <c r="Q77">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R77">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S77">
         <v>3.74</v>
       </c>
-      <c r="T77">
-        <v>3.74</v>
-      </c>
-      <c r="U77">
-        <v>3.74</v>
-      </c>
-      <c r="V77" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" t="s">
-        <v>32</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
+      <c r="T77" t="s">
+        <v>31</v>
+      </c>
+      <c r="U77" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77" t="s">
+        <v>32</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>30</v>
       </c>
       <c r="H78">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I78">
         <v>14</v>
@@ -6991,32 +6991,32 @@
       <c r="O78" t="s">
         <v>31</v>
       </c>
-      <c r="P78" t="s">
-        <v>32</v>
+      <c r="P78">
+        <v>10</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R78">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S78">
         <v>3.74</v>
       </c>
-      <c r="T78">
-        <v>3.74</v>
-      </c>
-      <c r="U78">
-        <v>3.74</v>
-      </c>
-      <c r="V78" t="s">
-        <v>32</v>
-      </c>
-      <c r="W78" t="s">
-        <v>32</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
+      <c r="T78" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
+      <c r="X78" t="s">
+        <v>32</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I79">
         <v>14</v>
@@ -7068,32 +7068,32 @@
       <c r="O79" t="s">
         <v>31</v>
       </c>
-      <c r="P79" t="s">
-        <v>32</v>
+      <c r="P79">
+        <v>10</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R79">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S79">
         <v>3.74</v>
       </c>
-      <c r="T79">
-        <v>3.74</v>
-      </c>
-      <c r="U79">
-        <v>3.74</v>
-      </c>
-      <c r="V79" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" t="s">
-        <v>32</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
+      <c r="T79" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>3</v>
+      </c>
+      <c r="X79" t="s">
+        <v>32</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>30</v>
       </c>
       <c r="H80">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I80">
         <v>14</v>
@@ -7145,32 +7145,32 @@
       <c r="O80" t="s">
         <v>31</v>
       </c>
-      <c r="P80" t="s">
-        <v>32</v>
+      <c r="P80">
+        <v>10</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R80">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S80">
         <v>3.74</v>
       </c>
-      <c r="T80">
-        <v>3.74</v>
-      </c>
-      <c r="U80">
-        <v>3.74</v>
-      </c>
-      <c r="V80" t="s">
-        <v>32</v>
-      </c>
-      <c r="W80" t="s">
-        <v>32</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
+      <c r="T80" t="s">
+        <v>31</v>
+      </c>
+      <c r="U80" t="s">
+        <v>31</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>3</v>
+      </c>
+      <c r="X80" t="s">
+        <v>32</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -7222,32 +7222,32 @@
       <c r="O81" t="s">
         <v>31</v>
       </c>
-      <c r="P81" t="s">
-        <v>32</v>
+      <c r="P81">
+        <v>10</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R81">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S81">
         <v>3.74</v>
       </c>
-      <c r="T81">
-        <v>3.74</v>
-      </c>
-      <c r="U81">
-        <v>3.74</v>
-      </c>
-      <c r="V81" t="s">
-        <v>32</v>
-      </c>
-      <c r="W81" t="s">
-        <v>32</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
+      <c r="T81" t="s">
+        <v>31</v>
+      </c>
+      <c r="U81" t="s">
+        <v>31</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>3</v>
+      </c>
+      <c r="X81" t="s">
+        <v>32</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>30</v>
       </c>
       <c r="H82">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I82">
         <v>14</v>
@@ -7299,32 +7299,32 @@
       <c r="O82" t="s">
         <v>31</v>
       </c>
-      <c r="P82" t="s">
-        <v>32</v>
+      <c r="P82">
+        <v>10</v>
       </c>
       <c r="Q82">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R82">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S82">
         <v>3.74</v>
       </c>
-      <c r="T82">
-        <v>3.74</v>
-      </c>
-      <c r="U82">
-        <v>3.74</v>
-      </c>
-      <c r="V82" t="s">
-        <v>32</v>
-      </c>
-      <c r="W82" t="s">
-        <v>32</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
+      <c r="T82" t="s">
+        <v>31</v>
+      </c>
+      <c r="U82" t="s">
+        <v>31</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="X82" t="s">
+        <v>32</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>30</v>
       </c>
       <c r="H83">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I83">
         <v>14</v>
@@ -7376,32 +7376,32 @@
       <c r="O83" t="s">
         <v>31</v>
       </c>
-      <c r="P83" t="s">
-        <v>32</v>
+      <c r="P83">
+        <v>10</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R83">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S83">
         <v>3.74</v>
       </c>
-      <c r="T83">
-        <v>3.74</v>
-      </c>
-      <c r="U83">
-        <v>3.74</v>
-      </c>
-      <c r="V83" t="s">
-        <v>32</v>
-      </c>
-      <c r="W83" t="s">
-        <v>32</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
+      <c r="T83" t="s">
+        <v>31</v>
+      </c>
+      <c r="U83" t="s">
+        <v>31</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>3</v>
+      </c>
+      <c r="X83" t="s">
+        <v>32</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I84">
         <v>14</v>
@@ -7453,32 +7453,32 @@
       <c r="O84" t="s">
         <v>31</v>
       </c>
-      <c r="P84" t="s">
-        <v>32</v>
+      <c r="P84">
+        <v>10</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S84">
         <v>3.74</v>
       </c>
-      <c r="T84">
-        <v>3.74</v>
-      </c>
-      <c r="U84">
-        <v>3.74</v>
-      </c>
-      <c r="V84" t="s">
-        <v>32</v>
-      </c>
-      <c r="W84" t="s">
-        <v>32</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
+      <c r="T84" t="s">
+        <v>31</v>
+      </c>
+      <c r="U84" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>3</v>
+      </c>
+      <c r="X84" t="s">
+        <v>32</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         <v>30</v>
       </c>
       <c r="H85">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I85">
         <v>14</v>
@@ -7530,32 +7530,32 @@
       <c r="O85" t="s">
         <v>31</v>
       </c>
-      <c r="P85" t="s">
-        <v>32</v>
+      <c r="P85">
+        <v>10</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R85">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S85">
         <v>3.74</v>
       </c>
-      <c r="T85">
-        <v>3.74</v>
-      </c>
-      <c r="U85">
-        <v>3.74</v>
-      </c>
-      <c r="V85" t="s">
-        <v>32</v>
-      </c>
-      <c r="W85" t="s">
-        <v>32</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
+      <c r="T85" t="s">
+        <v>31</v>
+      </c>
+      <c r="U85" t="s">
+        <v>31</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>3</v>
+      </c>
+      <c r="X85" t="s">
+        <v>32</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I86">
         <v>14</v>
@@ -7607,32 +7607,32 @@
       <c r="O86" t="s">
         <v>31</v>
       </c>
-      <c r="P86" t="s">
-        <v>32</v>
+      <c r="P86">
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R86">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S86">
         <v>3.74</v>
       </c>
-      <c r="T86">
-        <v>3.74</v>
-      </c>
-      <c r="U86">
-        <v>3.74</v>
-      </c>
-      <c r="V86" t="s">
-        <v>32</v>
-      </c>
-      <c r="W86" t="s">
-        <v>32</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
+      <c r="T86" t="s">
+        <v>31</v>
+      </c>
+      <c r="U86" t="s">
+        <v>31</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>3</v>
+      </c>
+      <c r="X86" t="s">
+        <v>32</v>
       </c>
       <c r="Y86">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I87">
         <v>14</v>
@@ -7684,32 +7684,32 @@
       <c r="O87" t="s">
         <v>31</v>
       </c>
-      <c r="P87" t="s">
-        <v>32</v>
+      <c r="P87">
+        <v>10</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R87">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S87">
         <v>3.74</v>
       </c>
-      <c r="T87">
-        <v>3.74</v>
-      </c>
-      <c r="U87">
-        <v>3.74</v>
-      </c>
-      <c r="V87" t="s">
-        <v>32</v>
-      </c>
-      <c r="W87" t="s">
-        <v>32</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
+      <c r="T87" t="s">
+        <v>31</v>
+      </c>
+      <c r="U87" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>3</v>
+      </c>
+      <c r="X87" t="s">
+        <v>32</v>
       </c>
       <c r="Y87">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I88">
         <v>14</v>
@@ -7761,32 +7761,32 @@
       <c r="O88" t="s">
         <v>31</v>
       </c>
-      <c r="P88" t="s">
-        <v>32</v>
+      <c r="P88">
+        <v>10</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R88">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S88">
         <v>3.74</v>
       </c>
-      <c r="T88">
-        <v>3.74</v>
-      </c>
-      <c r="U88">
-        <v>3.74</v>
-      </c>
-      <c r="V88" t="s">
-        <v>32</v>
-      </c>
-      <c r="W88" t="s">
-        <v>32</v>
-      </c>
-      <c r="X88">
-        <v>0</v>
+      <c r="T88" t="s">
+        <v>31</v>
+      </c>
+      <c r="U88" t="s">
+        <v>31</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>3</v>
+      </c>
+      <c r="X88" t="s">
+        <v>32</v>
       </c>
       <c r="Y88">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>30</v>
       </c>
       <c r="H89">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I89">
         <v>14</v>
@@ -7838,32 +7838,32 @@
       <c r="O89" t="s">
         <v>31</v>
       </c>
-      <c r="P89" t="s">
-        <v>32</v>
+      <c r="P89">
+        <v>10</v>
       </c>
       <c r="Q89">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R89">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S89">
         <v>3.74</v>
       </c>
-      <c r="T89">
-        <v>3.74</v>
-      </c>
-      <c r="U89">
-        <v>3.74</v>
-      </c>
-      <c r="V89" t="s">
-        <v>32</v>
-      </c>
-      <c r="W89" t="s">
-        <v>32</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
+      <c r="T89" t="s">
+        <v>31</v>
+      </c>
+      <c r="U89" t="s">
+        <v>31</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>3</v>
+      </c>
+      <c r="X89" t="s">
+        <v>32</v>
       </c>
       <c r="Y89">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>30</v>
       </c>
       <c r="H90">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I90">
         <v>14</v>
@@ -7915,32 +7915,32 @@
       <c r="O90" t="s">
         <v>31</v>
       </c>
-      <c r="P90" t="s">
-        <v>32</v>
+      <c r="P90">
+        <v>10</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R90">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S90">
         <v>3.74</v>
       </c>
-      <c r="T90">
-        <v>3.74</v>
-      </c>
-      <c r="U90">
-        <v>3.74</v>
-      </c>
-      <c r="V90" t="s">
-        <v>32</v>
-      </c>
-      <c r="W90" t="s">
-        <v>32</v>
-      </c>
-      <c r="X90">
-        <v>0</v>
+      <c r="T90" t="s">
+        <v>31</v>
+      </c>
+      <c r="U90" t="s">
+        <v>31</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>3</v>
+      </c>
+      <c r="X90" t="s">
+        <v>32</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I91">
         <v>14</v>
@@ -7992,32 +7992,32 @@
       <c r="O91" t="s">
         <v>31</v>
       </c>
-      <c r="P91" t="s">
-        <v>32</v>
+      <c r="P91">
+        <v>10</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R91">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S91">
         <v>3.74</v>
       </c>
-      <c r="T91">
-        <v>3.74</v>
-      </c>
-      <c r="U91">
-        <v>3.74</v>
-      </c>
-      <c r="V91" t="s">
-        <v>32</v>
-      </c>
-      <c r="W91" t="s">
-        <v>32</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
+      <c r="T91" t="s">
+        <v>31</v>
+      </c>
+      <c r="U91" t="s">
+        <v>31</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>3</v>
+      </c>
+      <c r="X91" t="s">
+        <v>32</v>
       </c>
       <c r="Y91">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>30</v>
       </c>
       <c r="H92">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I92">
         <v>14</v>
@@ -8069,32 +8069,32 @@
       <c r="O92" t="s">
         <v>31</v>
       </c>
-      <c r="P92" t="s">
-        <v>32</v>
+      <c r="P92">
+        <v>10</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R92">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S92">
         <v>3.74</v>
       </c>
-      <c r="T92">
-        <v>3.74</v>
-      </c>
-      <c r="U92">
-        <v>3.74</v>
-      </c>
-      <c r="V92" t="s">
-        <v>32</v>
-      </c>
-      <c r="W92" t="s">
-        <v>32</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
+      <c r="T92" t="s">
+        <v>31</v>
+      </c>
+      <c r="U92" t="s">
+        <v>31</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>3</v>
+      </c>
+      <c r="X92" t="s">
+        <v>32</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I93">
         <v>14</v>
@@ -8146,32 +8146,32 @@
       <c r="O93" t="s">
         <v>31</v>
       </c>
-      <c r="P93" t="s">
-        <v>32</v>
+      <c r="P93">
+        <v>10</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R93">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S93">
         <v>3.74</v>
       </c>
-      <c r="T93">
-        <v>3.74</v>
-      </c>
-      <c r="U93">
-        <v>3.74</v>
-      </c>
-      <c r="V93" t="s">
-        <v>32</v>
-      </c>
-      <c r="W93" t="s">
-        <v>32</v>
-      </c>
-      <c r="X93">
-        <v>0</v>
+      <c r="T93" t="s">
+        <v>31</v>
+      </c>
+      <c r="U93" t="s">
+        <v>31</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>3</v>
+      </c>
+      <c r="X93" t="s">
+        <v>32</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>30</v>
       </c>
       <c r="H94">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I94">
         <v>14</v>
@@ -8223,32 +8223,32 @@
       <c r="O94" t="s">
         <v>31</v>
       </c>
-      <c r="P94" t="s">
-        <v>32</v>
+      <c r="P94">
+        <v>10</v>
       </c>
       <c r="Q94">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R94">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S94">
         <v>3.74</v>
       </c>
-      <c r="T94">
-        <v>3.74</v>
-      </c>
-      <c r="U94">
-        <v>3.74</v>
-      </c>
-      <c r="V94" t="s">
-        <v>32</v>
-      </c>
-      <c r="W94" t="s">
-        <v>32</v>
-      </c>
-      <c r="X94">
-        <v>0</v>
+      <c r="T94" t="s">
+        <v>31</v>
+      </c>
+      <c r="U94" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>3</v>
+      </c>
+      <c r="X94" t="s">
+        <v>32</v>
       </c>
       <c r="Y94">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>30</v>
       </c>
       <c r="H95">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I95">
         <v>14</v>
@@ -8300,32 +8300,32 @@
       <c r="O95" t="s">
         <v>31</v>
       </c>
-      <c r="P95" t="s">
-        <v>32</v>
+      <c r="P95">
+        <v>10</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R95">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S95">
         <v>3.74</v>
       </c>
-      <c r="T95">
-        <v>3.74</v>
-      </c>
-      <c r="U95">
-        <v>3.74</v>
-      </c>
-      <c r="V95" t="s">
-        <v>32</v>
-      </c>
-      <c r="W95" t="s">
-        <v>32</v>
-      </c>
-      <c r="X95">
-        <v>0</v>
+      <c r="T95" t="s">
+        <v>31</v>
+      </c>
+      <c r="U95" t="s">
+        <v>31</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>3</v>
+      </c>
+      <c r="X95" t="s">
+        <v>32</v>
       </c>
       <c r="Y95">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I96">
         <v>14</v>
@@ -8377,32 +8377,32 @@
       <c r="O96" t="s">
         <v>31</v>
       </c>
-      <c r="P96" t="s">
-        <v>32</v>
+      <c r="P96">
+        <v>10</v>
       </c>
       <c r="Q96">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R96">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S96">
         <v>3.74</v>
       </c>
-      <c r="T96">
-        <v>3.74</v>
-      </c>
-      <c r="U96">
-        <v>3.74</v>
-      </c>
-      <c r="V96" t="s">
-        <v>32</v>
-      </c>
-      <c r="W96" t="s">
-        <v>32</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
+      <c r="T96" t="s">
+        <v>31</v>
+      </c>
+      <c r="U96" t="s">
+        <v>31</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>3</v>
+      </c>
+      <c r="X96" t="s">
+        <v>32</v>
       </c>
       <c r="Y96">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>30</v>
       </c>
       <c r="H97">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I97">
         <v>14</v>
@@ -8454,32 +8454,32 @@
       <c r="O97" t="s">
         <v>31</v>
       </c>
-      <c r="P97" t="s">
-        <v>32</v>
+      <c r="P97">
+        <v>10</v>
       </c>
       <c r="Q97">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R97">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S97">
         <v>3.74</v>
       </c>
-      <c r="T97">
-        <v>3.74</v>
-      </c>
-      <c r="U97">
-        <v>3.74</v>
-      </c>
-      <c r="V97" t="s">
-        <v>32</v>
-      </c>
-      <c r="W97" t="s">
-        <v>32</v>
-      </c>
-      <c r="X97">
-        <v>0</v>
+      <c r="T97" t="s">
+        <v>31</v>
+      </c>
+      <c r="U97" t="s">
+        <v>31</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>3</v>
+      </c>
+      <c r="X97" t="s">
+        <v>32</v>
       </c>
       <c r="Y97">
         <v>0</v>
@@ -8508,7 +8508,7 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I98">
         <v>14</v>
@@ -8531,32 +8531,32 @@
       <c r="O98" t="s">
         <v>31</v>
       </c>
-      <c r="P98" t="s">
-        <v>32</v>
+      <c r="P98">
+        <v>10</v>
       </c>
       <c r="Q98">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R98">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S98">
         <v>3.74</v>
       </c>
-      <c r="T98">
-        <v>3.74</v>
-      </c>
-      <c r="U98">
-        <v>3.74</v>
-      </c>
-      <c r="V98" t="s">
-        <v>32</v>
-      </c>
-      <c r="W98" t="s">
-        <v>32</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
+      <c r="T98" t="s">
+        <v>31</v>
+      </c>
+      <c r="U98" t="s">
+        <v>31</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>3</v>
+      </c>
+      <c r="X98" t="s">
+        <v>32</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -8585,7 +8585,7 @@
         <v>30</v>
       </c>
       <c r="H99">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I99">
         <v>14</v>
@@ -8608,32 +8608,32 @@
       <c r="O99" t="s">
         <v>31</v>
       </c>
-      <c r="P99" t="s">
-        <v>32</v>
+      <c r="P99">
+        <v>10</v>
       </c>
       <c r="Q99">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R99">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S99">
         <v>3.74</v>
       </c>
-      <c r="T99">
-        <v>3.74</v>
-      </c>
-      <c r="U99">
-        <v>3.74</v>
-      </c>
-      <c r="V99" t="s">
-        <v>32</v>
-      </c>
-      <c r="W99" t="s">
-        <v>32</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
+      <c r="T99" t="s">
+        <v>31</v>
+      </c>
+      <c r="U99" t="s">
+        <v>31</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>3</v>
+      </c>
+      <c r="X99" t="s">
+        <v>32</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="H100">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I100">
         <v>14</v>
@@ -8685,32 +8685,32 @@
       <c r="O100" t="s">
         <v>31</v>
       </c>
-      <c r="P100" t="s">
-        <v>32</v>
+      <c r="P100">
+        <v>10</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R100">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S100">
         <v>3.74</v>
       </c>
-      <c r="T100">
-        <v>3.74</v>
-      </c>
-      <c r="U100">
-        <v>3.74</v>
-      </c>
-      <c r="V100" t="s">
-        <v>32</v>
-      </c>
-      <c r="W100" t="s">
-        <v>32</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
+      <c r="T100" t="s">
+        <v>31</v>
+      </c>
+      <c r="U100" t="s">
+        <v>31</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>3</v>
+      </c>
+      <c r="X100" t="s">
+        <v>32</v>
       </c>
       <c r="Y100">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>30</v>
       </c>
       <c r="H101">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I101">
         <v>14</v>
@@ -8762,32 +8762,32 @@
       <c r="O101" t="s">
         <v>31</v>
       </c>
-      <c r="P101" t="s">
-        <v>32</v>
+      <c r="P101">
+        <v>10</v>
       </c>
       <c r="Q101">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R101">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S101">
         <v>3.74</v>
       </c>
-      <c r="T101">
-        <v>3.74</v>
-      </c>
-      <c r="U101">
-        <v>3.74</v>
-      </c>
-      <c r="V101" t="s">
-        <v>32</v>
-      </c>
-      <c r="W101" t="s">
-        <v>32</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
+      <c r="T101" t="s">
+        <v>31</v>
+      </c>
+      <c r="U101" t="s">
+        <v>31</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>3</v>
+      </c>
+      <c r="X101" t="s">
+        <v>32</v>
       </c>
       <c r="Y101">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>30</v>
       </c>
       <c r="H102">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I102">
         <v>14</v>
@@ -8839,32 +8839,32 @@
       <c r="O102" t="s">
         <v>31</v>
       </c>
-      <c r="P102" t="s">
-        <v>32</v>
+      <c r="P102">
+        <v>10</v>
       </c>
       <c r="Q102">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R102">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S102">
         <v>3.74</v>
       </c>
-      <c r="T102">
-        <v>3.74</v>
-      </c>
-      <c r="U102">
-        <v>3.74</v>
-      </c>
-      <c r="V102" t="s">
-        <v>32</v>
-      </c>
-      <c r="W102" t="s">
-        <v>32</v>
-      </c>
-      <c r="X102">
-        <v>0</v>
+      <c r="T102" t="s">
+        <v>31</v>
+      </c>
+      <c r="U102" t="s">
+        <v>31</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+      <c r="X102" t="s">
+        <v>32</v>
       </c>
       <c r="Y102">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I103">
         <v>14</v>
@@ -8916,32 +8916,32 @@
       <c r="O103" t="s">
         <v>31</v>
       </c>
-      <c r="P103" t="s">
-        <v>32</v>
+      <c r="P103">
+        <v>10</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R103">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S103">
         <v>3.74</v>
       </c>
-      <c r="T103">
-        <v>3.74</v>
-      </c>
-      <c r="U103">
-        <v>3.74</v>
-      </c>
-      <c r="V103" t="s">
-        <v>32</v>
-      </c>
-      <c r="W103" t="s">
-        <v>32</v>
-      </c>
-      <c r="X103">
-        <v>0</v>
+      <c r="T103" t="s">
+        <v>31</v>
+      </c>
+      <c r="U103" t="s">
+        <v>31</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="X103" t="s">
+        <v>32</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="H104">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I104">
         <v>14</v>
@@ -8993,32 +8993,32 @@
       <c r="O104" t="s">
         <v>31</v>
       </c>
-      <c r="P104" t="s">
-        <v>32</v>
+      <c r="P104">
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R104">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S104">
         <v>3.74</v>
       </c>
-      <c r="T104">
-        <v>3.74</v>
-      </c>
-      <c r="U104">
-        <v>3.74</v>
-      </c>
-      <c r="V104" t="s">
-        <v>32</v>
-      </c>
-      <c r="W104" t="s">
-        <v>32</v>
-      </c>
-      <c r="X104">
-        <v>0</v>
+      <c r="T104" t="s">
+        <v>31</v>
+      </c>
+      <c r="U104" t="s">
+        <v>31</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>3</v>
+      </c>
+      <c r="X104" t="s">
+        <v>32</v>
       </c>
       <c r="Y104">
         <v>0</v>
@@ -9047,7 +9047,7 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I105">
         <v>14</v>
@@ -9070,32 +9070,32 @@
       <c r="O105" t="s">
         <v>31</v>
       </c>
-      <c r="P105" t="s">
-        <v>32</v>
+      <c r="P105">
+        <v>10</v>
       </c>
       <c r="Q105">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R105">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S105">
         <v>3.74</v>
       </c>
-      <c r="T105">
-        <v>3.74</v>
-      </c>
-      <c r="U105">
-        <v>3.74</v>
-      </c>
-      <c r="V105" t="s">
-        <v>32</v>
-      </c>
-      <c r="W105" t="s">
-        <v>32</v>
-      </c>
-      <c r="X105">
-        <v>0</v>
+      <c r="T105" t="s">
+        <v>31</v>
+      </c>
+      <c r="U105" t="s">
+        <v>31</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>3</v>
+      </c>
+      <c r="X105" t="s">
+        <v>32</v>
       </c>
       <c r="Y105">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>30</v>
       </c>
       <c r="H106">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I106">
         <v>14</v>
@@ -9147,32 +9147,32 @@
       <c r="O106" t="s">
         <v>31</v>
       </c>
-      <c r="P106" t="s">
-        <v>32</v>
+      <c r="P106">
+        <v>10</v>
       </c>
       <c r="Q106">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R106">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S106">
         <v>3.74</v>
       </c>
-      <c r="T106">
-        <v>3.74</v>
-      </c>
-      <c r="U106">
-        <v>3.74</v>
-      </c>
-      <c r="V106" t="s">
-        <v>32</v>
-      </c>
-      <c r="W106" t="s">
-        <v>32</v>
-      </c>
-      <c r="X106">
-        <v>0</v>
+      <c r="T106" t="s">
+        <v>31</v>
+      </c>
+      <c r="U106" t="s">
+        <v>31</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>3</v>
+      </c>
+      <c r="X106" t="s">
+        <v>32</v>
       </c>
       <c r="Y106">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>30</v>
       </c>
       <c r="H107">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I107">
         <v>14</v>
@@ -9224,32 +9224,32 @@
       <c r="O107" t="s">
         <v>31</v>
       </c>
-      <c r="P107" t="s">
-        <v>32</v>
+      <c r="P107">
+        <v>10</v>
       </c>
       <c r="Q107">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R107">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S107">
         <v>3.74</v>
       </c>
-      <c r="T107">
-        <v>3.74</v>
-      </c>
-      <c r="U107">
-        <v>3.74</v>
-      </c>
-      <c r="V107" t="s">
-        <v>32</v>
-      </c>
-      <c r="W107" t="s">
-        <v>32</v>
-      </c>
-      <c r="X107">
-        <v>0</v>
+      <c r="T107" t="s">
+        <v>31</v>
+      </c>
+      <c r="U107" t="s">
+        <v>31</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>3</v>
+      </c>
+      <c r="X107" t="s">
+        <v>32</v>
       </c>
       <c r="Y107">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I108">
         <v>14</v>
@@ -9301,32 +9301,32 @@
       <c r="O108" t="s">
         <v>31</v>
       </c>
-      <c r="P108" t="s">
-        <v>32</v>
+      <c r="P108">
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R108">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S108">
         <v>3.74</v>
       </c>
-      <c r="T108">
-        <v>3.74</v>
-      </c>
-      <c r="U108">
-        <v>3.74</v>
-      </c>
-      <c r="V108" t="s">
-        <v>32</v>
-      </c>
-      <c r="W108" t="s">
-        <v>32</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
+      <c r="T108" t="s">
+        <v>31</v>
+      </c>
+      <c r="U108" t="s">
+        <v>31</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>3</v>
+      </c>
+      <c r="X108" t="s">
+        <v>32</v>
       </c>
       <c r="Y108">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>30</v>
       </c>
       <c r="H109">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I109">
         <v>14</v>
@@ -9378,32 +9378,32 @@
       <c r="O109" t="s">
         <v>31</v>
       </c>
-      <c r="P109" t="s">
-        <v>32</v>
+      <c r="P109">
+        <v>10</v>
       </c>
       <c r="Q109">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R109">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S109">
         <v>3.74</v>
       </c>
-      <c r="T109">
-        <v>3.74</v>
-      </c>
-      <c r="U109">
-        <v>3.74</v>
-      </c>
-      <c r="V109" t="s">
-        <v>32</v>
-      </c>
-      <c r="W109" t="s">
-        <v>32</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
+      <c r="T109" t="s">
+        <v>31</v>
+      </c>
+      <c r="U109" t="s">
+        <v>31</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>3</v>
+      </c>
+      <c r="X109" t="s">
+        <v>32</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I110">
         <v>14</v>
@@ -9455,32 +9455,32 @@
       <c r="O110" t="s">
         <v>31</v>
       </c>
-      <c r="P110" t="s">
-        <v>32</v>
+      <c r="P110">
+        <v>10</v>
       </c>
       <c r="Q110">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R110">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S110">
         <v>3.74</v>
       </c>
-      <c r="T110">
-        <v>3.74</v>
-      </c>
-      <c r="U110">
-        <v>3.74</v>
-      </c>
-      <c r="V110" t="s">
-        <v>32</v>
-      </c>
-      <c r="W110" t="s">
-        <v>32</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
+      <c r="T110" t="s">
+        <v>31</v>
+      </c>
+      <c r="U110" t="s">
+        <v>31</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>3</v>
+      </c>
+      <c r="X110" t="s">
+        <v>32</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>30</v>
       </c>
       <c r="H111">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I111">
         <v>14</v>
@@ -9532,32 +9532,32 @@
       <c r="O111" t="s">
         <v>31</v>
       </c>
-      <c r="P111" t="s">
-        <v>32</v>
+      <c r="P111">
+        <v>10</v>
       </c>
       <c r="Q111">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R111">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S111">
         <v>3.74</v>
       </c>
-      <c r="T111">
-        <v>3.74</v>
-      </c>
-      <c r="U111">
-        <v>3.74</v>
-      </c>
-      <c r="V111" t="s">
-        <v>32</v>
-      </c>
-      <c r="W111" t="s">
-        <v>32</v>
-      </c>
-      <c r="X111">
-        <v>0</v>
+      <c r="T111" t="s">
+        <v>31</v>
+      </c>
+      <c r="U111" t="s">
+        <v>31</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>3</v>
+      </c>
+      <c r="X111" t="s">
+        <v>32</v>
       </c>
       <c r="Y111">
         <v>0</v>
@@ -9586,7 +9586,7 @@
         <v>30</v>
       </c>
       <c r="H112">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I112">
         <v>14</v>
@@ -9609,32 +9609,32 @@
       <c r="O112" t="s">
         <v>31</v>
       </c>
-      <c r="P112" t="s">
-        <v>32</v>
+      <c r="P112">
+        <v>10</v>
       </c>
       <c r="Q112">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R112">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S112">
         <v>3.74</v>
       </c>
-      <c r="T112">
-        <v>3.74</v>
-      </c>
-      <c r="U112">
-        <v>3.74</v>
-      </c>
-      <c r="V112" t="s">
-        <v>32</v>
-      </c>
-      <c r="W112" t="s">
-        <v>32</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
+      <c r="T112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U112" t="s">
+        <v>31</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>3</v>
+      </c>
+      <c r="X112" t="s">
+        <v>32</v>
       </c>
       <c r="Y112">
         <v>0</v>
@@ -9663,7 +9663,7 @@
         <v>30</v>
       </c>
       <c r="H113">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I113">
         <v>14</v>
@@ -9686,32 +9686,32 @@
       <c r="O113" t="s">
         <v>31</v>
       </c>
-      <c r="P113" t="s">
-        <v>32</v>
+      <c r="P113">
+        <v>10</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R113">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S113">
         <v>3.74</v>
       </c>
-      <c r="T113">
-        <v>3.74</v>
-      </c>
-      <c r="U113">
-        <v>3.74</v>
-      </c>
-      <c r="V113" t="s">
-        <v>32</v>
-      </c>
-      <c r="W113" t="s">
-        <v>32</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
+      <c r="T113" t="s">
+        <v>31</v>
+      </c>
+      <c r="U113" t="s">
+        <v>31</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>3</v>
+      </c>
+      <c r="X113" t="s">
+        <v>32</v>
       </c>
       <c r="Y113">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>30</v>
       </c>
       <c r="H114">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I114">
         <v>14</v>
@@ -9763,32 +9763,32 @@
       <c r="O114" t="s">
         <v>31</v>
       </c>
-      <c r="P114" t="s">
-        <v>32</v>
+      <c r="P114">
+        <v>10</v>
       </c>
       <c r="Q114">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R114">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S114">
         <v>3.74</v>
       </c>
-      <c r="T114">
-        <v>3.74</v>
-      </c>
-      <c r="U114">
-        <v>3.74</v>
-      </c>
-      <c r="V114" t="s">
-        <v>32</v>
-      </c>
-      <c r="W114" t="s">
-        <v>32</v>
-      </c>
-      <c r="X114">
-        <v>0</v>
+      <c r="T114" t="s">
+        <v>31</v>
+      </c>
+      <c r="U114" t="s">
+        <v>31</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>3</v>
+      </c>
+      <c r="X114" t="s">
+        <v>32</v>
       </c>
       <c r="Y114">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>30</v>
       </c>
       <c r="H115">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I115">
         <v>14</v>
@@ -9840,32 +9840,32 @@
       <c r="O115" t="s">
         <v>31</v>
       </c>
-      <c r="P115" t="s">
-        <v>32</v>
+      <c r="P115">
+        <v>10</v>
       </c>
       <c r="Q115">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R115">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S115">
         <v>3.74</v>
       </c>
-      <c r="T115">
-        <v>3.74</v>
-      </c>
-      <c r="U115">
-        <v>3.74</v>
-      </c>
-      <c r="V115" t="s">
-        <v>32</v>
-      </c>
-      <c r="W115" t="s">
-        <v>32</v>
-      </c>
-      <c r="X115">
-        <v>0</v>
+      <c r="T115" t="s">
+        <v>31</v>
+      </c>
+      <c r="U115" t="s">
+        <v>31</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>3</v>
+      </c>
+      <c r="X115" t="s">
+        <v>32</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>30</v>
       </c>
       <c r="H116">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I116">
         <v>14</v>
@@ -9917,32 +9917,32 @@
       <c r="O116" t="s">
         <v>31</v>
       </c>
-      <c r="P116" t="s">
-        <v>32</v>
+      <c r="P116">
+        <v>10</v>
       </c>
       <c r="Q116">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R116">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S116">
         <v>3.74</v>
       </c>
-      <c r="T116">
-        <v>3.74</v>
-      </c>
-      <c r="U116">
-        <v>3.74</v>
-      </c>
-      <c r="V116" t="s">
-        <v>32</v>
-      </c>
-      <c r="W116" t="s">
-        <v>32</v>
-      </c>
-      <c r="X116">
-        <v>0</v>
+      <c r="T116" t="s">
+        <v>31</v>
+      </c>
+      <c r="U116" t="s">
+        <v>31</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>3</v>
+      </c>
+      <c r="X116" t="s">
+        <v>32</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>30</v>
       </c>
       <c r="H117">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I117">
         <v>14</v>
@@ -9994,32 +9994,32 @@
       <c r="O117" t="s">
         <v>31</v>
       </c>
-      <c r="P117" t="s">
-        <v>32</v>
+      <c r="P117">
+        <v>10</v>
       </c>
       <c r="Q117">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R117">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S117">
         <v>3.74</v>
       </c>
-      <c r="T117">
-        <v>3.74</v>
-      </c>
-      <c r="U117">
-        <v>3.74</v>
-      </c>
-      <c r="V117" t="s">
-        <v>32</v>
-      </c>
-      <c r="W117" t="s">
-        <v>32</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
+      <c r="T117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U117" t="s">
+        <v>31</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>3</v>
+      </c>
+      <c r="X117" t="s">
+        <v>32</v>
       </c>
       <c r="Y117">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>30</v>
       </c>
       <c r="H118">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I118">
         <v>14</v>
@@ -10071,32 +10071,32 @@
       <c r="O118" t="s">
         <v>31</v>
       </c>
-      <c r="P118" t="s">
-        <v>32</v>
+      <c r="P118">
+        <v>10</v>
       </c>
       <c r="Q118">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R118">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S118">
         <v>3.74</v>
       </c>
-      <c r="T118">
-        <v>3.74</v>
-      </c>
-      <c r="U118">
-        <v>3.74</v>
-      </c>
-      <c r="V118" t="s">
-        <v>32</v>
-      </c>
-      <c r="W118" t="s">
-        <v>32</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
+      <c r="T118" t="s">
+        <v>31</v>
+      </c>
+      <c r="U118" t="s">
+        <v>31</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>3</v>
+      </c>
+      <c r="X118" t="s">
+        <v>32</v>
       </c>
       <c r="Y118">
         <v>0</v>
@@ -10125,7 +10125,7 @@
         <v>30</v>
       </c>
       <c r="H119">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I119">
         <v>14</v>
@@ -10148,32 +10148,32 @@
       <c r="O119" t="s">
         <v>31</v>
       </c>
-      <c r="P119" t="s">
-        <v>32</v>
+      <c r="P119">
+        <v>10</v>
       </c>
       <c r="Q119">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R119">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S119">
         <v>3.74</v>
       </c>
-      <c r="T119">
-        <v>3.74</v>
-      </c>
-      <c r="U119">
-        <v>3.74</v>
-      </c>
-      <c r="V119" t="s">
-        <v>32</v>
-      </c>
-      <c r="W119" t="s">
-        <v>32</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
+      <c r="T119" t="s">
+        <v>31</v>
+      </c>
+      <c r="U119" t="s">
+        <v>31</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>3</v>
+      </c>
+      <c r="X119" t="s">
+        <v>32</v>
       </c>
       <c r="Y119">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>30</v>
       </c>
       <c r="H120">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I120">
         <v>14</v>
@@ -10225,32 +10225,32 @@
       <c r="O120" t="s">
         <v>31</v>
       </c>
-      <c r="P120" t="s">
-        <v>32</v>
+      <c r="P120">
+        <v>10</v>
       </c>
       <c r="Q120">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R120">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S120">
         <v>3.74</v>
       </c>
-      <c r="T120">
-        <v>3.74</v>
-      </c>
-      <c r="U120">
-        <v>3.74</v>
-      </c>
-      <c r="V120" t="s">
-        <v>32</v>
-      </c>
-      <c r="W120" t="s">
-        <v>32</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
+      <c r="T120" t="s">
+        <v>31</v>
+      </c>
+      <c r="U120" t="s">
+        <v>31</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>3</v>
+      </c>
+      <c r="X120" t="s">
+        <v>32</v>
       </c>
       <c r="Y120">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>30</v>
       </c>
       <c r="H121">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I121">
         <v>14</v>
@@ -10302,32 +10302,32 @@
       <c r="O121" t="s">
         <v>31</v>
       </c>
-      <c r="P121" t="s">
-        <v>32</v>
+      <c r="P121">
+        <v>10</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R121">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S121">
         <v>3.74</v>
       </c>
-      <c r="T121">
-        <v>3.74</v>
-      </c>
-      <c r="U121">
-        <v>3.74</v>
-      </c>
-      <c r="V121" t="s">
-        <v>32</v>
-      </c>
-      <c r="W121" t="s">
-        <v>32</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
+      <c r="T121" t="s">
+        <v>31</v>
+      </c>
+      <c r="U121" t="s">
+        <v>31</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>3</v>
+      </c>
+      <c r="X121" t="s">
+        <v>32</v>
       </c>
       <c r="Y121">
         <v>0</v>
@@ -10356,7 +10356,7 @@
         <v>30</v>
       </c>
       <c r="H122">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I122">
         <v>14</v>
@@ -10379,32 +10379,32 @@
       <c r="O122" t="s">
         <v>31</v>
       </c>
-      <c r="P122" t="s">
-        <v>32</v>
+      <c r="P122">
+        <v>10</v>
       </c>
       <c r="Q122">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R122">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S122">
         <v>3.74</v>
       </c>
-      <c r="T122">
-        <v>3.74</v>
-      </c>
-      <c r="U122">
-        <v>3.74</v>
-      </c>
-      <c r="V122" t="s">
-        <v>32</v>
-      </c>
-      <c r="W122" t="s">
-        <v>32</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
+      <c r="T122" t="s">
+        <v>31</v>
+      </c>
+      <c r="U122" t="s">
+        <v>31</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>3</v>
+      </c>
+      <c r="X122" t="s">
+        <v>32</v>
       </c>
       <c r="Y122">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="H123">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -10456,32 +10456,32 @@
       <c r="O123" t="s">
         <v>31</v>
       </c>
-      <c r="P123" t="s">
-        <v>32</v>
+      <c r="P123">
+        <v>10</v>
       </c>
       <c r="Q123">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R123">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S123">
         <v>3.74</v>
       </c>
-      <c r="T123">
-        <v>3.74</v>
-      </c>
-      <c r="U123">
-        <v>3.74</v>
-      </c>
-      <c r="V123" t="s">
-        <v>32</v>
-      </c>
-      <c r="W123" t="s">
-        <v>32</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
+      <c r="T123" t="s">
+        <v>31</v>
+      </c>
+      <c r="U123" t="s">
+        <v>31</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>3</v>
+      </c>
+      <c r="X123" t="s">
+        <v>32</v>
       </c>
       <c r="Y123">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>30</v>
       </c>
       <c r="H124">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I124">
         <v>14</v>
@@ -10533,32 +10533,32 @@
       <c r="O124" t="s">
         <v>31</v>
       </c>
-      <c r="P124" t="s">
-        <v>32</v>
+      <c r="P124">
+        <v>10</v>
       </c>
       <c r="Q124">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R124">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S124">
         <v>3.74</v>
       </c>
-      <c r="T124">
-        <v>3.74</v>
-      </c>
-      <c r="U124">
-        <v>3.74</v>
-      </c>
-      <c r="V124" t="s">
-        <v>32</v>
-      </c>
-      <c r="W124" t="s">
-        <v>32</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
+      <c r="T124" t="s">
+        <v>31</v>
+      </c>
+      <c r="U124" t="s">
+        <v>31</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>3</v>
+      </c>
+      <c r="X124" t="s">
+        <v>32</v>
       </c>
       <c r="Y124">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>30</v>
       </c>
       <c r="H125">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I125">
         <v>14</v>
@@ -10610,32 +10610,32 @@
       <c r="O125" t="s">
         <v>31</v>
       </c>
-      <c r="P125" t="s">
-        <v>32</v>
+      <c r="P125">
+        <v>10</v>
       </c>
       <c r="Q125">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R125">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S125">
         <v>3.74</v>
       </c>
-      <c r="T125">
-        <v>3.74</v>
-      </c>
-      <c r="U125">
-        <v>3.74</v>
-      </c>
-      <c r="V125" t="s">
-        <v>32</v>
-      </c>
-      <c r="W125" t="s">
-        <v>32</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
+      <c r="T125" t="s">
+        <v>31</v>
+      </c>
+      <c r="U125" t="s">
+        <v>31</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>3</v>
+      </c>
+      <c r="X125" t="s">
+        <v>32</v>
       </c>
       <c r="Y125">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>30</v>
       </c>
       <c r="H126">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I126">
         <v>14</v>
@@ -10687,32 +10687,32 @@
       <c r="O126" t="s">
         <v>31</v>
       </c>
-      <c r="P126" t="s">
-        <v>32</v>
+      <c r="P126">
+        <v>10</v>
       </c>
       <c r="Q126">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R126">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S126">
         <v>3.74</v>
       </c>
-      <c r="T126">
-        <v>3.74</v>
-      </c>
-      <c r="U126">
-        <v>3.74</v>
-      </c>
-      <c r="V126" t="s">
-        <v>32</v>
-      </c>
-      <c r="W126" t="s">
-        <v>32</v>
-      </c>
-      <c r="X126">
-        <v>0</v>
+      <c r="T126" t="s">
+        <v>31</v>
+      </c>
+      <c r="U126" t="s">
+        <v>31</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>3</v>
+      </c>
+      <c r="X126" t="s">
+        <v>32</v>
       </c>
       <c r="Y126">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>30</v>
       </c>
       <c r="H127">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I127">
         <v>14</v>
@@ -10764,32 +10764,32 @@
       <c r="O127" t="s">
         <v>31</v>
       </c>
-      <c r="P127" t="s">
-        <v>32</v>
+      <c r="P127">
+        <v>10</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R127">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S127">
         <v>3.74</v>
       </c>
-      <c r="T127">
-        <v>3.74</v>
-      </c>
-      <c r="U127">
-        <v>3.74</v>
-      </c>
-      <c r="V127" t="s">
-        <v>32</v>
-      </c>
-      <c r="W127" t="s">
-        <v>32</v>
-      </c>
-      <c r="X127">
-        <v>0</v>
+      <c r="T127" t="s">
+        <v>31</v>
+      </c>
+      <c r="U127" t="s">
+        <v>31</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>3</v>
+      </c>
+      <c r="X127" t="s">
+        <v>32</v>
       </c>
       <c r="Y127">
         <v>0</v>
@@ -10818,7 +10818,7 @@
         <v>30</v>
       </c>
       <c r="H128">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I128">
         <v>14</v>
@@ -10841,32 +10841,32 @@
       <c r="O128" t="s">
         <v>31</v>
       </c>
-      <c r="P128" t="s">
-        <v>32</v>
+      <c r="P128">
+        <v>10</v>
       </c>
       <c r="Q128">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R128">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S128">
         <v>3.74</v>
       </c>
-      <c r="T128">
-        <v>3.74</v>
-      </c>
-      <c r="U128">
-        <v>3.74</v>
-      </c>
-      <c r="V128" t="s">
-        <v>32</v>
-      </c>
-      <c r="W128" t="s">
-        <v>32</v>
-      </c>
-      <c r="X128">
-        <v>0</v>
+      <c r="T128" t="s">
+        <v>31</v>
+      </c>
+      <c r="U128" t="s">
+        <v>31</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>3</v>
+      </c>
+      <c r="X128" t="s">
+        <v>32</v>
       </c>
       <c r="Y128">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>30</v>
       </c>
       <c r="H129">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I129">
         <v>14</v>
@@ -10918,32 +10918,32 @@
       <c r="O129" t="s">
         <v>31</v>
       </c>
-      <c r="P129" t="s">
-        <v>32</v>
+      <c r="P129">
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R129">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S129">
         <v>3.74</v>
       </c>
-      <c r="T129">
-        <v>3.74</v>
-      </c>
-      <c r="U129">
-        <v>3.74</v>
-      </c>
-      <c r="V129" t="s">
-        <v>32</v>
-      </c>
-      <c r="W129" t="s">
-        <v>32</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
+      <c r="T129" t="s">
+        <v>31</v>
+      </c>
+      <c r="U129" t="s">
+        <v>31</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>3</v>
+      </c>
+      <c r="X129" t="s">
+        <v>32</v>
       </c>
       <c r="Y129">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>30</v>
       </c>
       <c r="H130">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I130">
         <v>14</v>
@@ -10995,32 +10995,32 @@
       <c r="O130" t="s">
         <v>31</v>
       </c>
-      <c r="P130" t="s">
-        <v>32</v>
+      <c r="P130">
+        <v>10</v>
       </c>
       <c r="Q130">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R130">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S130">
         <v>3.74</v>
       </c>
-      <c r="T130">
-        <v>3.74</v>
-      </c>
-      <c r="U130">
-        <v>3.74</v>
-      </c>
-      <c r="V130" t="s">
-        <v>32</v>
-      </c>
-      <c r="W130" t="s">
-        <v>32</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
+      <c r="T130" t="s">
+        <v>31</v>
+      </c>
+      <c r="U130" t="s">
+        <v>31</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>3</v>
+      </c>
+      <c r="X130" t="s">
+        <v>32</v>
       </c>
       <c r="Y130">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>30</v>
       </c>
       <c r="H131">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I131">
         <v>14</v>
@@ -11072,32 +11072,32 @@
       <c r="O131" t="s">
         <v>31</v>
       </c>
-      <c r="P131" t="s">
-        <v>32</v>
+      <c r="P131">
+        <v>10</v>
       </c>
       <c r="Q131">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R131">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S131">
         <v>3.74</v>
       </c>
-      <c r="T131">
-        <v>3.74</v>
-      </c>
-      <c r="U131">
-        <v>3.74</v>
-      </c>
-      <c r="V131" t="s">
-        <v>32</v>
-      </c>
-      <c r="W131" t="s">
-        <v>32</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
+      <c r="T131" t="s">
+        <v>31</v>
+      </c>
+      <c r="U131" t="s">
+        <v>31</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>3</v>
+      </c>
+      <c r="X131" t="s">
+        <v>32</v>
       </c>
       <c r="Y131">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>30</v>
       </c>
       <c r="H132">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I132">
         <v>14</v>
@@ -11149,32 +11149,32 @@
       <c r="O132" t="s">
         <v>31</v>
       </c>
-      <c r="P132" t="s">
-        <v>32</v>
+      <c r="P132">
+        <v>10</v>
       </c>
       <c r="Q132">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R132">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S132">
         <v>3.74</v>
       </c>
-      <c r="T132">
-        <v>3.74</v>
-      </c>
-      <c r="U132">
-        <v>3.74</v>
-      </c>
-      <c r="V132" t="s">
-        <v>32</v>
-      </c>
-      <c r="W132" t="s">
-        <v>32</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
+      <c r="T132" t="s">
+        <v>31</v>
+      </c>
+      <c r="U132" t="s">
+        <v>31</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>3</v>
+      </c>
+      <c r="X132" t="s">
+        <v>32</v>
       </c>
       <c r="Y132">
         <v>0</v>
@@ -11203,7 +11203,7 @@
         <v>30</v>
       </c>
       <c r="H133">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I133">
         <v>14</v>
@@ -11226,32 +11226,32 @@
       <c r="O133" t="s">
         <v>31</v>
       </c>
-      <c r="P133" t="s">
-        <v>32</v>
+      <c r="P133">
+        <v>10</v>
       </c>
       <c r="Q133">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R133">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S133">
         <v>3.74</v>
       </c>
-      <c r="T133">
-        <v>3.74</v>
-      </c>
-      <c r="U133">
-        <v>3.74</v>
-      </c>
-      <c r="V133" t="s">
-        <v>32</v>
-      </c>
-      <c r="W133" t="s">
-        <v>32</v>
-      </c>
-      <c r="X133">
-        <v>0</v>
+      <c r="T133" t="s">
+        <v>31</v>
+      </c>
+      <c r="U133" t="s">
+        <v>31</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+      <c r="X133" t="s">
+        <v>32</v>
       </c>
       <c r="Y133">
         <v>0</v>
@@ -11280,7 +11280,7 @@
         <v>30</v>
       </c>
       <c r="H134">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I134">
         <v>14</v>
@@ -11303,32 +11303,32 @@
       <c r="O134" t="s">
         <v>31</v>
       </c>
-      <c r="P134" t="s">
-        <v>32</v>
+      <c r="P134">
+        <v>10</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R134">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S134">
         <v>3.74</v>
       </c>
-      <c r="T134">
-        <v>3.74</v>
-      </c>
-      <c r="U134">
-        <v>3.74</v>
-      </c>
-      <c r="V134" t="s">
-        <v>32</v>
-      </c>
-      <c r="W134" t="s">
-        <v>32</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
+      <c r="T134" t="s">
+        <v>31</v>
+      </c>
+      <c r="U134" t="s">
+        <v>31</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>3</v>
+      </c>
+      <c r="X134" t="s">
+        <v>32</v>
       </c>
       <c r="Y134">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>30</v>
       </c>
       <c r="H135">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I135">
         <v>14</v>
@@ -11380,32 +11380,32 @@
       <c r="O135" t="s">
         <v>31</v>
       </c>
-      <c r="P135" t="s">
-        <v>32</v>
+      <c r="P135">
+        <v>10</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R135">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S135">
         <v>3.74</v>
       </c>
-      <c r="T135">
-        <v>3.74</v>
-      </c>
-      <c r="U135">
-        <v>3.74</v>
-      </c>
-      <c r="V135" t="s">
-        <v>32</v>
-      </c>
-      <c r="W135" t="s">
-        <v>32</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
+      <c r="T135" t="s">
+        <v>31</v>
+      </c>
+      <c r="U135" t="s">
+        <v>31</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>3</v>
+      </c>
+      <c r="X135" t="s">
+        <v>32</v>
       </c>
       <c r="Y135">
         <v>0</v>
@@ -11434,7 +11434,7 @@
         <v>30</v>
       </c>
       <c r="H136">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -11457,32 +11457,32 @@
       <c r="O136" t="s">
         <v>31</v>
       </c>
-      <c r="P136" t="s">
-        <v>32</v>
+      <c r="P136">
+        <v>10</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R136">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S136">
         <v>3.74</v>
       </c>
-      <c r="T136">
-        <v>3.74</v>
-      </c>
-      <c r="U136">
-        <v>3.74</v>
-      </c>
-      <c r="V136" t="s">
-        <v>32</v>
-      </c>
-      <c r="W136" t="s">
-        <v>32</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
+      <c r="T136" t="s">
+        <v>31</v>
+      </c>
+      <c r="U136" t="s">
+        <v>31</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>3</v>
+      </c>
+      <c r="X136" t="s">
+        <v>32</v>
       </c>
       <c r="Y136">
         <v>0</v>
@@ -11511,7 +11511,7 @@
         <v>30</v>
       </c>
       <c r="H137">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I137">
         <v>14</v>
@@ -11534,32 +11534,32 @@
       <c r="O137" t="s">
         <v>31</v>
       </c>
-      <c r="P137" t="s">
-        <v>32</v>
+      <c r="P137">
+        <v>10</v>
       </c>
       <c r="Q137">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R137">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S137">
         <v>3.74</v>
       </c>
-      <c r="T137">
-        <v>3.74</v>
-      </c>
-      <c r="U137">
-        <v>3.74</v>
-      </c>
-      <c r="V137" t="s">
-        <v>32</v>
-      </c>
-      <c r="W137" t="s">
-        <v>32</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
+      <c r="T137" t="s">
+        <v>31</v>
+      </c>
+      <c r="U137" t="s">
+        <v>31</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>3</v>
+      </c>
+      <c r="X137" t="s">
+        <v>32</v>
       </c>
       <c r="Y137">
         <v>0</v>
@@ -11588,7 +11588,7 @@
         <v>30</v>
       </c>
       <c r="H138">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I138">
         <v>14</v>
@@ -11611,32 +11611,32 @@
       <c r="O138" t="s">
         <v>31</v>
       </c>
-      <c r="P138" t="s">
-        <v>32</v>
+      <c r="P138">
+        <v>10</v>
       </c>
       <c r="Q138">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R138">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S138">
         <v>3.74</v>
       </c>
-      <c r="T138">
-        <v>3.74</v>
-      </c>
-      <c r="U138">
-        <v>3.74</v>
-      </c>
-      <c r="V138" t="s">
-        <v>32</v>
-      </c>
-      <c r="W138" t="s">
-        <v>32</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
+      <c r="T138" t="s">
+        <v>31</v>
+      </c>
+      <c r="U138" t="s">
+        <v>31</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>3</v>
+      </c>
+      <c r="X138" t="s">
+        <v>32</v>
       </c>
       <c r="Y138">
         <v>0</v>
@@ -11665,7 +11665,7 @@
         <v>30</v>
       </c>
       <c r="H139">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I139">
         <v>14</v>
@@ -11688,32 +11688,32 @@
       <c r="O139" t="s">
         <v>31</v>
       </c>
-      <c r="P139" t="s">
-        <v>32</v>
+      <c r="P139">
+        <v>10</v>
       </c>
       <c r="Q139">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R139">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S139">
         <v>3.74</v>
       </c>
-      <c r="T139">
-        <v>3.74</v>
-      </c>
-      <c r="U139">
-        <v>3.74</v>
-      </c>
-      <c r="V139" t="s">
-        <v>32</v>
-      </c>
-      <c r="W139" t="s">
-        <v>32</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
+      <c r="T139" t="s">
+        <v>31</v>
+      </c>
+      <c r="U139" t="s">
+        <v>31</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>3</v>
+      </c>
+      <c r="X139" t="s">
+        <v>32</v>
       </c>
       <c r="Y139">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>30</v>
       </c>
       <c r="H140">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I140">
         <v>14</v>
@@ -11765,32 +11765,32 @@
       <c r="O140" t="s">
         <v>31</v>
       </c>
-      <c r="P140" t="s">
-        <v>32</v>
+      <c r="P140">
+        <v>10</v>
       </c>
       <c r="Q140">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R140">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S140">
         <v>3.74</v>
       </c>
-      <c r="T140">
-        <v>3.74</v>
-      </c>
-      <c r="U140">
-        <v>3.74</v>
-      </c>
-      <c r="V140" t="s">
-        <v>32</v>
-      </c>
-      <c r="W140" t="s">
-        <v>32</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
+      <c r="T140" t="s">
+        <v>31</v>
+      </c>
+      <c r="U140" t="s">
+        <v>31</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>3</v>
+      </c>
+      <c r="X140" t="s">
+        <v>32</v>
       </c>
       <c r="Y140">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>30</v>
       </c>
       <c r="H141">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I141">
         <v>14</v>
@@ -11842,32 +11842,32 @@
       <c r="O141" t="s">
         <v>31</v>
       </c>
-      <c r="P141" t="s">
-        <v>32</v>
+      <c r="P141">
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R141">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S141">
         <v>3.74</v>
       </c>
-      <c r="T141">
-        <v>3.74</v>
-      </c>
-      <c r="U141">
-        <v>3.74</v>
-      </c>
-      <c r="V141" t="s">
-        <v>32</v>
-      </c>
-      <c r="W141" t="s">
-        <v>32</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
+      <c r="T141" t="s">
+        <v>31</v>
+      </c>
+      <c r="U141" t="s">
+        <v>31</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>3</v>
+      </c>
+      <c r="X141" t="s">
+        <v>32</v>
       </c>
       <c r="Y141">
         <v>0</v>
@@ -11896,7 +11896,7 @@
         <v>30</v>
       </c>
       <c r="H142">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I142">
         <v>14</v>
@@ -11919,32 +11919,32 @@
       <c r="O142" t="s">
         <v>31</v>
       </c>
-      <c r="P142" t="s">
-        <v>32</v>
+      <c r="P142">
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R142">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S142">
         <v>3.74</v>
       </c>
-      <c r="T142">
-        <v>3.74</v>
-      </c>
-      <c r="U142">
-        <v>3.74</v>
-      </c>
-      <c r="V142" t="s">
-        <v>32</v>
-      </c>
-      <c r="W142" t="s">
-        <v>32</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
+      <c r="T142" t="s">
+        <v>31</v>
+      </c>
+      <c r="U142" t="s">
+        <v>31</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>3</v>
+      </c>
+      <c r="X142" t="s">
+        <v>32</v>
       </c>
       <c r="Y142">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>30</v>
       </c>
       <c r="H143">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I143">
         <v>14</v>
@@ -11996,32 +11996,32 @@
       <c r="O143" t="s">
         <v>31</v>
       </c>
-      <c r="P143" t="s">
-        <v>32</v>
+      <c r="P143">
+        <v>10</v>
       </c>
       <c r="Q143">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R143">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S143">
         <v>3.74</v>
       </c>
-      <c r="T143">
-        <v>3.74</v>
-      </c>
-      <c r="U143">
-        <v>3.74</v>
-      </c>
-      <c r="V143" t="s">
-        <v>32</v>
-      </c>
-      <c r="W143" t="s">
-        <v>32</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
+      <c r="T143" t="s">
+        <v>31</v>
+      </c>
+      <c r="U143" t="s">
+        <v>31</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>3</v>
+      </c>
+      <c r="X143" t="s">
+        <v>32</v>
       </c>
       <c r="Y143">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>30</v>
       </c>
       <c r="H144">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I144">
         <v>14</v>
@@ -12073,32 +12073,32 @@
       <c r="O144" t="s">
         <v>31</v>
       </c>
-      <c r="P144" t="s">
-        <v>32</v>
+      <c r="P144">
+        <v>10</v>
       </c>
       <c r="Q144">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R144">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S144">
         <v>3.74</v>
       </c>
-      <c r="T144">
-        <v>3.74</v>
-      </c>
-      <c r="U144">
-        <v>3.74</v>
-      </c>
-      <c r="V144" t="s">
-        <v>32</v>
-      </c>
-      <c r="W144" t="s">
-        <v>32</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
+      <c r="T144" t="s">
+        <v>31</v>
+      </c>
+      <c r="U144" t="s">
+        <v>31</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>3</v>
+      </c>
+      <c r="X144" t="s">
+        <v>32</v>
       </c>
       <c r="Y144">
         <v>0</v>
@@ -12127,7 +12127,7 @@
         <v>30</v>
       </c>
       <c r="H145">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="I145">
         <v>14</v>
@@ -12150,32 +12150,32 @@
       <c r="O145" t="s">
         <v>31</v>
       </c>
-      <c r="P145" t="s">
-        <v>32</v>
+      <c r="P145">
+        <v>10</v>
       </c>
       <c r="Q145">
-        <v>3</v>
+        <v>3.74</v>
       </c>
       <c r="R145">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="S145">
         <v>3.74</v>
       </c>
-      <c r="T145">
-        <v>3.74</v>
-      </c>
-      <c r="U145">
-        <v>3.74</v>
-      </c>
-      <c r="V145" t="s">
-        <v>32</v>
-      </c>
-      <c r="W145" t="s">
-        <v>32</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
+      <c r="T145" t="s">
+        <v>31</v>
+      </c>
+      <c r="U145" t="s">
+        <v>31</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>3</v>
+      </c>
+      <c r="X145" t="s">
+        <v>32</v>
       </c>
       <c r="Y145">
         <v>0</v>

--- a/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
+++ b/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
@@ -57,42 +57,42 @@
     <t>Plate WellYStart</t>
   </si>
   <si>
+    <t>LHPolicy_CAN_SDD</t>
+  </si>
+  <si>
+    <t>LHPolicy_TIP_REUSE_LIMIT</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX_VOLUME</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX_RATE</t>
+  </si>
+  <si>
+    <t>LHPolicy_ASPSPEED</t>
+  </si>
+  <si>
+    <t>LHPolicy_DSPSPEED</t>
+  </si>
+  <si>
+    <t>LHPolicy_CAN_MULTI</t>
+  </si>
+  <si>
+    <t>LHPolicy_CAN_MSA</t>
+  </si>
+  <si>
+    <t>LHPolicy_DSPREFERENCE</t>
+  </si>
+  <si>
     <t>LHPolicy_DSPZOFFSET</t>
   </si>
   <si>
-    <t>LHPolicy_CAN_MSA</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX_VOLUME</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX_RATE</t>
-  </si>
-  <si>
-    <t>LHPolicy_ASPSPEED</t>
-  </si>
-  <si>
-    <t>LHPolicy_DSPSPEED</t>
-  </si>
-  <si>
-    <t>LHPolicy_CAN_MULTI</t>
-  </si>
-  <si>
-    <t>LHPolicy_CAN_SDD</t>
-  </si>
-  <si>
-    <t>LHPolicy_DSPREFERENCE</t>
-  </si>
-  <si>
     <t>LHPolicy_POST_MIX</t>
   </si>
   <si>
     <t>LHPolicy_NO_AIR_DISPENSE</t>
   </si>
   <si>
-    <t>LHPolicy_TIP_REUSE_LIMIT</t>
-  </si>
-  <si>
     <t>tartrazine</t>
   </si>
   <si>
@@ -102,514 +102,514 @@
     <t>1</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>PostMix</t>
+  </si>
+  <si>
+    <t>greiner384_riser</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>1.000 ul</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>2.000 ul</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>5.000 ul</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>7.500 ul</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>10.000ul</t>
+  </si>
+  <si>
     <t>D9</t>
   </si>
   <si>
-    <t>PostMix</t>
-  </si>
-  <si>
-    <t>greiner384_riser</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>O14</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>25.000ul</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>30.000ul</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>35.000ul</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t>1.000 ul</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>K4</t>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>40.000ul</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>45.000ul</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>F11</t>
   </si>
   <si>
     <t>K8</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>N10</t>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H12</t>
   </si>
   <si>
     <t>M10</t>
   </si>
   <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>2.000 ul</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>N14</t>
-  </si>
-  <si>
-    <t>O13</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>5.000 ul</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>K12</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G16</t>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>50.000ul</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>J8</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>N12</t>
-  </si>
-  <si>
-    <t>C10</t>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>O3</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>7.500 ul</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>M15</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>10.000ul</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
-    <t>O16</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>25.000ul</t>
-  </si>
-  <si>
-    <t>O15</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>N9</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>30.000ul</t>
-  </si>
-  <si>
-    <t>F14</t>
+    <t>G6</t>
   </si>
   <si>
     <t>A8</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>35.000ul</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>N13</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>40.000ul</t>
-  </si>
-  <si>
-    <t>N8</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>N11</t>
-  </si>
-  <si>
-    <t>45.000ul</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>N15</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>50.000ul</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I13</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -1133,11 +1133,11 @@
       <c r="M2">
         <v>-2.5</v>
       </c>
-      <c r="N2">
-        <v>0.5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2">
         <v>10</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1193,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1210,11 +1210,11 @@
       <c r="M3">
         <v>-2.5</v>
       </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -1238,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I4">
         <v>14</v>
@@ -1287,11 +1287,11 @@
       <c r="M4">
         <v>-2.5</v>
       </c>
-      <c r="N4">
-        <v>0.5</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
       <c r="P4">
         <v>10</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1347,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -1364,11 +1364,11 @@
       <c r="M5">
         <v>-2.5</v>
       </c>
-      <c r="N5">
-        <v>0.5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
       <c r="P5">
         <v>10</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1424,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I6">
         <v>14</v>
@@ -1441,11 +1441,11 @@
       <c r="M6">
         <v>-2.5</v>
       </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -1518,11 +1518,11 @@
       <c r="M7">
         <v>-2.5</v>
       </c>
-      <c r="N7">
-        <v>0.5</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
       <c r="P7">
         <v>10</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1578,7 +1578,7 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1595,11 +1595,11 @@
       <c r="M8">
         <v>-2.5</v>
       </c>
-      <c r="N8">
-        <v>0.5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="P8">
         <v>10</v>
@@ -1623,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1655,7 +1655,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I9">
         <v>14</v>
@@ -1672,11 +1672,11 @@
       <c r="M9">
         <v>-2.5</v>
       </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9">
         <v>10</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1732,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1749,11 +1749,11 @@
       <c r="M10">
         <v>-2.5</v>
       </c>
-      <c r="N10">
-        <v>0.5</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="P10">
         <v>10</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -1826,11 +1826,11 @@
       <c r="M11">
         <v>-2.5</v>
       </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
       <c r="P11">
         <v>10</v>
@@ -1854,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1886,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -1903,11 +1903,11 @@
       <c r="M12">
         <v>-2.5</v>
       </c>
-      <c r="N12">
-        <v>0.5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>31</v>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
       <c r="P12">
         <v>10</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>3</v>
-      </c>
-      <c r="X12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1963,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I13">
         <v>14</v>
@@ -1980,11 +1980,11 @@
       <c r="M13">
         <v>-2.5</v>
       </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>31</v>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13">
         <v>10</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>3</v>
-      </c>
-      <c r="X13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2040,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I14">
         <v>14</v>
@@ -2057,11 +2057,11 @@
       <c r="M14">
         <v>-2.5</v>
       </c>
-      <c r="N14">
-        <v>0.5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="P14">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="X14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2117,7 +2117,7 @@
         <v>30</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -2134,11 +2134,11 @@
       <c r="M15">
         <v>-2.5</v>
       </c>
-      <c r="N15">
-        <v>0.5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
       <c r="P15">
         <v>10</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>3</v>
-      </c>
-      <c r="X15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2194,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -2211,11 +2211,11 @@
       <c r="M16">
         <v>-2.5</v>
       </c>
-      <c r="N16">
-        <v>0.5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>31</v>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="P16">
         <v>10</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="X16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2271,7 +2271,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I17">
         <v>14</v>
@@ -2288,11 +2288,11 @@
       <c r="M17">
         <v>-2.5</v>
       </c>
-      <c r="N17">
-        <v>0.5</v>
-      </c>
-      <c r="O17" t="s">
-        <v>31</v>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
       </c>
       <c r="P17">
         <v>10</v>
@@ -2316,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="X17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2348,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I18">
         <v>14</v>
@@ -2365,11 +2365,11 @@
       <c r="M18">
         <v>-2.5</v>
       </c>
-      <c r="N18">
-        <v>0.5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>31</v>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18">
         <v>10</v>
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>3</v>
-      </c>
-      <c r="X18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I19">
         <v>14</v>
@@ -2442,11 +2442,11 @@
       <c r="M19">
         <v>-2.5</v>
       </c>
-      <c r="N19">
-        <v>0.5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>31</v>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
       <c r="P19">
         <v>10</v>
@@ -2470,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="X19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2502,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I20">
         <v>14</v>
@@ -2519,11 +2519,11 @@
       <c r="M20">
         <v>-2.5</v>
       </c>
-      <c r="N20">
-        <v>0.5</v>
-      </c>
-      <c r="O20" t="s">
-        <v>31</v>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20">
         <v>10</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="X20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I21">
         <v>14</v>
@@ -2596,11 +2596,11 @@
       <c r="M21">
         <v>-2.5</v>
       </c>
-      <c r="N21">
-        <v>0.5</v>
-      </c>
-      <c r="O21" t="s">
-        <v>31</v>
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
       </c>
       <c r="P21">
         <v>10</v>
@@ -2624,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="X21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2656,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I22">
         <v>14</v>
@@ -2673,11 +2673,11 @@
       <c r="M22">
         <v>-2.5</v>
       </c>
-      <c r="N22">
-        <v>0.5</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
       </c>
       <c r="P22">
         <v>10</v>
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>3</v>
-      </c>
-      <c r="X22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2733,7 +2733,7 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I23">
         <v>14</v>
@@ -2750,11 +2750,11 @@
       <c r="M23">
         <v>-2.5</v>
       </c>
-      <c r="N23">
-        <v>0.5</v>
-      </c>
-      <c r="O23" t="s">
-        <v>31</v>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
       </c>
       <c r="P23">
         <v>10</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="X23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -2827,11 +2827,11 @@
       <c r="M24">
         <v>-2.5</v>
       </c>
-      <c r="N24">
-        <v>0.5</v>
-      </c>
-      <c r="O24" t="s">
-        <v>31</v>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
       </c>
       <c r="P24">
         <v>10</v>
@@ -2855,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>3</v>
-      </c>
-      <c r="X24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2887,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I25">
         <v>14</v>
@@ -2904,11 +2904,11 @@
       <c r="M25">
         <v>-2.5</v>
       </c>
-      <c r="N25">
-        <v>0.5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>31</v>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
       <c r="P25">
         <v>10</v>
@@ -2932,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2964,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I26">
         <v>14</v>
@@ -2981,11 +2981,11 @@
       <c r="M26">
         <v>-2.5</v>
       </c>
-      <c r="N26">
-        <v>0.5</v>
-      </c>
-      <c r="O26" t="s">
-        <v>31</v>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
       </c>
       <c r="P26">
         <v>10</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3041,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I27">
         <v>14</v>
@@ -3058,11 +3058,11 @@
       <c r="M27">
         <v>-2.5</v>
       </c>
-      <c r="N27">
-        <v>0.5</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
       </c>
       <c r="P27">
         <v>10</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="X27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I28">
         <v>14</v>
@@ -3135,11 +3135,11 @@
       <c r="M28">
         <v>-2.5</v>
       </c>
-      <c r="N28">
-        <v>0.5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>31</v>
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28">
         <v>10</v>
@@ -3163,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3195,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I29">
         <v>14</v>
@@ -3212,11 +3212,11 @@
       <c r="M29">
         <v>-2.5</v>
       </c>
-      <c r="N29">
-        <v>0.5</v>
-      </c>
-      <c r="O29" t="s">
-        <v>31</v>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
       </c>
       <c r="P29">
         <v>10</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="X29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3272,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I30">
         <v>14</v>
@@ -3289,11 +3289,11 @@
       <c r="M30">
         <v>-2.5</v>
       </c>
-      <c r="N30">
-        <v>0.5</v>
-      </c>
-      <c r="O30" t="s">
-        <v>31</v>
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
       </c>
       <c r="P30">
         <v>10</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>3</v>
-      </c>
-      <c r="X30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3349,7 +3349,7 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I31">
         <v>14</v>
@@ -3366,11 +3366,11 @@
       <c r="M31">
         <v>-2.5</v>
       </c>
-      <c r="N31">
-        <v>0.5</v>
-      </c>
-      <c r="O31" t="s">
-        <v>31</v>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
       </c>
       <c r="P31">
         <v>10</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>3</v>
-      </c>
-      <c r="X31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3426,7 +3426,7 @@
         <v>30</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I32">
         <v>14</v>
@@ -3443,11 +3443,11 @@
       <c r="M32">
         <v>-2.5</v>
       </c>
-      <c r="N32">
-        <v>0.5</v>
-      </c>
-      <c r="O32" t="s">
-        <v>31</v>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
       </c>
       <c r="P32">
         <v>10</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="X32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3503,7 +3503,7 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I33">
         <v>14</v>
@@ -3520,11 +3520,11 @@
       <c r="M33">
         <v>-2.5</v>
       </c>
-      <c r="N33">
-        <v>0.5</v>
-      </c>
-      <c r="O33" t="s">
-        <v>31</v>
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
       </c>
       <c r="P33">
         <v>10</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>3</v>
-      </c>
-      <c r="X33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -3597,11 +3597,11 @@
       <c r="M34">
         <v>-2.5</v>
       </c>
-      <c r="N34">
-        <v>0.5</v>
-      </c>
-      <c r="O34" t="s">
-        <v>31</v>
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
       </c>
       <c r="P34">
         <v>10</v>
@@ -3625,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>3</v>
-      </c>
-      <c r="X34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3657,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="H35">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I35">
         <v>14</v>
@@ -3674,11 +3674,11 @@
       <c r="M35">
         <v>-2.5</v>
       </c>
-      <c r="N35">
-        <v>0.5</v>
-      </c>
-      <c r="O35" t="s">
-        <v>31</v>
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
       </c>
       <c r="P35">
         <v>10</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>3</v>
-      </c>
-      <c r="X35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3734,7 +3734,7 @@
         <v>30</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I36">
         <v>14</v>
@@ -3751,11 +3751,11 @@
       <c r="M36">
         <v>-2.5</v>
       </c>
-      <c r="N36">
-        <v>0.5</v>
-      </c>
-      <c r="O36" t="s">
-        <v>31</v>
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
       </c>
       <c r="P36">
         <v>10</v>
@@ -3779,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>3</v>
-      </c>
-      <c r="X36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3811,7 +3811,7 @@
         <v>30</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I37">
         <v>14</v>
@@ -3828,11 +3828,11 @@
       <c r="M37">
         <v>-2.5</v>
       </c>
-      <c r="N37">
-        <v>0.5</v>
-      </c>
-      <c r="O37" t="s">
-        <v>31</v>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
       </c>
       <c r="P37">
         <v>10</v>
@@ -3856,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>3</v>
-      </c>
-      <c r="X37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3888,7 +3888,7 @@
         <v>30</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I38">
         <v>14</v>
@@ -3905,11 +3905,11 @@
       <c r="M38">
         <v>-2.5</v>
       </c>
-      <c r="N38">
-        <v>0.5</v>
-      </c>
-      <c r="O38" t="s">
-        <v>31</v>
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
       </c>
       <c r="P38">
         <v>10</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>3</v>
-      </c>
-      <c r="X38" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3965,7 +3965,7 @@
         <v>30</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I39">
         <v>14</v>
@@ -3982,11 +3982,11 @@
       <c r="M39">
         <v>-2.5</v>
       </c>
-      <c r="N39">
-        <v>0.5</v>
-      </c>
-      <c r="O39" t="s">
-        <v>31</v>
+      <c r="N39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
       </c>
       <c r="P39">
         <v>10</v>
@@ -4010,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>3</v>
-      </c>
-      <c r="X39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4042,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I40">
         <v>14</v>
@@ -4059,11 +4059,11 @@
       <c r="M40">
         <v>-2.5</v>
       </c>
-      <c r="N40">
-        <v>0.5</v>
-      </c>
-      <c r="O40" t="s">
-        <v>31</v>
+      <c r="N40" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
       </c>
       <c r="P40">
         <v>10</v>
@@ -4087,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>3</v>
-      </c>
-      <c r="X40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4119,7 +4119,7 @@
         <v>30</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I41">
         <v>14</v>
@@ -4136,11 +4136,11 @@
       <c r="M41">
         <v>-2.5</v>
       </c>
-      <c r="N41">
-        <v>0.5</v>
-      </c>
-      <c r="O41" t="s">
-        <v>31</v>
+      <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
       </c>
       <c r="P41">
         <v>10</v>
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>3</v>
-      </c>
-      <c r="X41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4196,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -4213,11 +4213,11 @@
       <c r="M42">
         <v>-2.5</v>
       </c>
-      <c r="N42">
-        <v>0.5</v>
-      </c>
-      <c r="O42" t="s">
-        <v>31</v>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42">
         <v>10</v>
@@ -4241,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>3</v>
-      </c>
-      <c r="X42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4273,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="H43">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I43">
         <v>14</v>
@@ -4290,11 +4290,11 @@
       <c r="M43">
         <v>-2.5</v>
       </c>
-      <c r="N43">
-        <v>0.5</v>
-      </c>
-      <c r="O43" t="s">
-        <v>31</v>
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
       </c>
       <c r="P43">
         <v>10</v>
@@ -4318,13 +4318,13 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>3</v>
-      </c>
-      <c r="X43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4350,7 +4350,7 @@
         <v>30</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I44">
         <v>14</v>
@@ -4367,11 +4367,11 @@
       <c r="M44">
         <v>-2.5</v>
       </c>
-      <c r="N44">
-        <v>0.5</v>
-      </c>
-      <c r="O44" t="s">
-        <v>31</v>
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
       </c>
       <c r="P44">
         <v>10</v>
@@ -4395,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>3</v>
-      </c>
-      <c r="X44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4427,7 +4427,7 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I45">
         <v>14</v>
@@ -4444,11 +4444,11 @@
       <c r="M45">
         <v>-2.5</v>
       </c>
-      <c r="N45">
-        <v>0.5</v>
-      </c>
-      <c r="O45" t="s">
-        <v>31</v>
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
       </c>
       <c r="P45">
         <v>10</v>
@@ -4472,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>3</v>
-      </c>
-      <c r="X45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4504,7 +4504,7 @@
         <v>30</v>
       </c>
       <c r="H46">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I46">
         <v>14</v>
@@ -4521,11 +4521,11 @@
       <c r="M46">
         <v>-2.5</v>
       </c>
-      <c r="N46">
-        <v>0.5</v>
-      </c>
-      <c r="O46" t="s">
-        <v>31</v>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
       </c>
       <c r="P46">
         <v>10</v>
@@ -4549,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>3</v>
-      </c>
-      <c r="X46" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4581,7 +4581,7 @@
         <v>30</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I47">
         <v>14</v>
@@ -4598,11 +4598,11 @@
       <c r="M47">
         <v>-2.5</v>
       </c>
-      <c r="N47">
-        <v>0.5</v>
-      </c>
-      <c r="O47" t="s">
-        <v>31</v>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
       </c>
       <c r="P47">
         <v>10</v>
@@ -4626,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>3</v>
-      </c>
-      <c r="X47" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4658,7 +4658,7 @@
         <v>30</v>
       </c>
       <c r="H48">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I48">
         <v>14</v>
@@ -4675,11 +4675,11 @@
       <c r="M48">
         <v>-2.5</v>
       </c>
-      <c r="N48">
-        <v>0.5</v>
-      </c>
-      <c r="O48" t="s">
-        <v>31</v>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
       </c>
       <c r="P48">
         <v>10</v>
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>3</v>
-      </c>
-      <c r="X48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4735,7 +4735,7 @@
         <v>30</v>
       </c>
       <c r="H49">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I49">
         <v>14</v>
@@ -4752,11 +4752,11 @@
       <c r="M49">
         <v>-2.5</v>
       </c>
-      <c r="N49">
-        <v>0.5</v>
-      </c>
-      <c r="O49" t="s">
-        <v>31</v>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
       </c>
       <c r="P49">
         <v>10</v>
@@ -4780,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>3</v>
-      </c>
-      <c r="X49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4812,7 +4812,7 @@
         <v>30</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I50">
         <v>14</v>
@@ -4829,11 +4829,11 @@
       <c r="M50">
         <v>-2.5</v>
       </c>
-      <c r="N50">
-        <v>0.5</v>
-      </c>
-      <c r="O50" t="s">
-        <v>31</v>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
       </c>
       <c r="P50">
         <v>10</v>
@@ -4857,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>3</v>
-      </c>
-      <c r="X50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4889,7 +4889,7 @@
         <v>30</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I51">
         <v>14</v>
@@ -4906,11 +4906,11 @@
       <c r="M51">
         <v>-2.5</v>
       </c>
-      <c r="N51">
-        <v>0.5</v>
-      </c>
-      <c r="O51" t="s">
-        <v>31</v>
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
       </c>
       <c r="P51">
         <v>10</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>3</v>
-      </c>
-      <c r="X51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4966,7 +4966,7 @@
         <v>30</v>
       </c>
       <c r="H52">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I52">
         <v>14</v>
@@ -4983,11 +4983,11 @@
       <c r="M52">
         <v>-2.5</v>
       </c>
-      <c r="N52">
-        <v>0.5</v>
-      </c>
-      <c r="O52" t="s">
-        <v>31</v>
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
       </c>
       <c r="P52">
         <v>10</v>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>3</v>
-      </c>
-      <c r="X52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5043,7 +5043,7 @@
         <v>30</v>
       </c>
       <c r="H53">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I53">
         <v>14</v>
@@ -5060,11 +5060,11 @@
       <c r="M53">
         <v>-2.5</v>
       </c>
-      <c r="N53">
-        <v>0.5</v>
-      </c>
-      <c r="O53" t="s">
-        <v>31</v>
+      <c r="N53" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
       </c>
       <c r="P53">
         <v>10</v>
@@ -5088,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>3</v>
-      </c>
-      <c r="X53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5120,7 +5120,7 @@
         <v>30</v>
       </c>
       <c r="H54">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I54">
         <v>14</v>
@@ -5137,11 +5137,11 @@
       <c r="M54">
         <v>-2.5</v>
       </c>
-      <c r="N54">
-        <v>0.5</v>
-      </c>
-      <c r="O54" t="s">
-        <v>31</v>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
       </c>
       <c r="P54">
         <v>10</v>
@@ -5165,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>3</v>
-      </c>
-      <c r="X54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X54">
+        <v>3</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5197,7 +5197,7 @@
         <v>30</v>
       </c>
       <c r="H55">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I55">
         <v>14</v>
@@ -5214,11 +5214,11 @@
       <c r="M55">
         <v>-2.5</v>
       </c>
-      <c r="N55">
-        <v>0.5</v>
-      </c>
-      <c r="O55" t="s">
-        <v>31</v>
+      <c r="N55" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
       </c>
       <c r="P55">
         <v>10</v>
@@ -5242,13 +5242,13 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>3</v>
-      </c>
-      <c r="X55" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>3</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5274,7 +5274,7 @@
         <v>30</v>
       </c>
       <c r="H56">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I56">
         <v>14</v>
@@ -5291,11 +5291,11 @@
       <c r="M56">
         <v>-2.5</v>
       </c>
-      <c r="N56">
-        <v>0.5</v>
-      </c>
-      <c r="O56" t="s">
-        <v>31</v>
+      <c r="N56" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
       </c>
       <c r="P56">
         <v>10</v>
@@ -5319,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>3</v>
-      </c>
-      <c r="X56" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5351,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="H57">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I57">
         <v>14</v>
@@ -5368,11 +5368,11 @@
       <c r="M57">
         <v>-2.5</v>
       </c>
-      <c r="N57">
-        <v>0.5</v>
-      </c>
-      <c r="O57" t="s">
-        <v>31</v>
+      <c r="N57" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
       </c>
       <c r="P57">
         <v>10</v>
@@ -5396,13 +5396,13 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>3</v>
-      </c>
-      <c r="X57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5428,7 +5428,7 @@
         <v>30</v>
       </c>
       <c r="H58">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -5445,11 +5445,11 @@
       <c r="M58">
         <v>-2.5</v>
       </c>
-      <c r="N58">
-        <v>0.5</v>
-      </c>
-      <c r="O58" t="s">
-        <v>31</v>
+      <c r="N58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
       </c>
       <c r="P58">
         <v>10</v>
@@ -5473,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>3</v>
-      </c>
-      <c r="X58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5505,7 +5505,7 @@
         <v>30</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I59">
         <v>14</v>
@@ -5522,11 +5522,11 @@
       <c r="M59">
         <v>-2.5</v>
       </c>
-      <c r="N59">
-        <v>0.5</v>
-      </c>
-      <c r="O59" t="s">
-        <v>31</v>
+      <c r="N59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
       </c>
       <c r="P59">
         <v>10</v>
@@ -5550,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>3</v>
-      </c>
-      <c r="X59" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5582,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I60">
         <v>14</v>
@@ -5599,11 +5599,11 @@
       <c r="M60">
         <v>-2.5</v>
       </c>
-      <c r="N60">
-        <v>0.5</v>
-      </c>
-      <c r="O60" t="s">
-        <v>31</v>
+      <c r="N60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
       </c>
       <c r="P60">
         <v>10</v>
@@ -5627,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>3</v>
-      </c>
-      <c r="X60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5659,7 +5659,7 @@
         <v>30</v>
       </c>
       <c r="H61">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I61">
         <v>14</v>
@@ -5676,11 +5676,11 @@
       <c r="M61">
         <v>-2.5</v>
       </c>
-      <c r="N61">
-        <v>0.5</v>
-      </c>
-      <c r="O61" t="s">
-        <v>31</v>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
       </c>
       <c r="P61">
         <v>10</v>
@@ -5704,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>3</v>
-      </c>
-      <c r="X61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5736,7 +5736,7 @@
         <v>30</v>
       </c>
       <c r="H62">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I62">
         <v>14</v>
@@ -5753,11 +5753,11 @@
       <c r="M62">
         <v>-2.5</v>
       </c>
-      <c r="N62">
-        <v>0.5</v>
-      </c>
-      <c r="O62" t="s">
-        <v>31</v>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
       </c>
       <c r="P62">
         <v>10</v>
@@ -5781,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>3</v>
-      </c>
-      <c r="X62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5813,7 +5813,7 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I63">
         <v>14</v>
@@ -5830,11 +5830,11 @@
       <c r="M63">
         <v>-2.5</v>
       </c>
-      <c r="N63">
-        <v>0.5</v>
-      </c>
-      <c r="O63" t="s">
-        <v>31</v>
+      <c r="N63" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
       </c>
       <c r="P63">
         <v>10</v>
@@ -5858,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>3</v>
-      </c>
-      <c r="X63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5890,7 +5890,7 @@
         <v>30</v>
       </c>
       <c r="H64">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I64">
         <v>14</v>
@@ -5907,11 +5907,11 @@
       <c r="M64">
         <v>-2.5</v>
       </c>
-      <c r="N64">
-        <v>0.5</v>
-      </c>
-      <c r="O64" t="s">
-        <v>31</v>
+      <c r="N64" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
       </c>
       <c r="P64">
         <v>10</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>3</v>
-      </c>
-      <c r="X64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5967,7 +5967,7 @@
         <v>30</v>
       </c>
       <c r="H65">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I65">
         <v>14</v>
@@ -5984,11 +5984,11 @@
       <c r="M65">
         <v>-2.5</v>
       </c>
-      <c r="N65">
-        <v>0.5</v>
-      </c>
-      <c r="O65" t="s">
-        <v>31</v>
+      <c r="N65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
       </c>
       <c r="P65">
         <v>10</v>
@@ -6012,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>3</v>
-      </c>
-      <c r="X65" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X65">
+        <v>3</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6044,7 +6044,7 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I66">
         <v>14</v>
@@ -6061,11 +6061,11 @@
       <c r="M66">
         <v>-2.5</v>
       </c>
-      <c r="N66">
-        <v>0.5</v>
-      </c>
-      <c r="O66" t="s">
-        <v>31</v>
+      <c r="N66" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
       </c>
       <c r="P66">
         <v>10</v>
@@ -6089,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>3</v>
-      </c>
-      <c r="X66" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X66">
+        <v>3</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6121,7 +6121,7 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I67">
         <v>14</v>
@@ -6138,11 +6138,11 @@
       <c r="M67">
         <v>-2.5</v>
       </c>
-      <c r="N67">
-        <v>0.5</v>
-      </c>
-      <c r="O67" t="s">
-        <v>31</v>
+      <c r="N67" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
       </c>
       <c r="P67">
         <v>10</v>
@@ -6166,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>3</v>
-      </c>
-      <c r="X67" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X67">
+        <v>3</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6198,7 +6198,7 @@
         <v>30</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I68">
         <v>14</v>
@@ -6215,11 +6215,11 @@
       <c r="M68">
         <v>-2.5</v>
       </c>
-      <c r="N68">
-        <v>0.5</v>
-      </c>
-      <c r="O68" t="s">
-        <v>31</v>
+      <c r="N68" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
       </c>
       <c r="P68">
         <v>10</v>
@@ -6243,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X68">
+        <v>3</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6275,7 +6275,7 @@
         <v>30</v>
       </c>
       <c r="H69">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I69">
         <v>14</v>
@@ -6292,11 +6292,11 @@
       <c r="M69">
         <v>-2.5</v>
       </c>
-      <c r="N69">
-        <v>0.5</v>
-      </c>
-      <c r="O69" t="s">
-        <v>31</v>
+      <c r="N69" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
       </c>
       <c r="P69">
         <v>10</v>
@@ -6320,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>3</v>
-      </c>
-      <c r="X69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X69">
+        <v>3</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6352,7 +6352,7 @@
         <v>30</v>
       </c>
       <c r="H70">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I70">
         <v>14</v>
@@ -6369,11 +6369,11 @@
       <c r="M70">
         <v>-2.5</v>
       </c>
-      <c r="N70">
-        <v>0.5</v>
-      </c>
-      <c r="O70" t="s">
-        <v>31</v>
+      <c r="N70" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
       </c>
       <c r="P70">
         <v>10</v>
@@ -6397,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>3</v>
-      </c>
-      <c r="X70" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X70">
+        <v>3</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6429,7 +6429,7 @@
         <v>30</v>
       </c>
       <c r="H71">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I71">
         <v>14</v>
@@ -6446,11 +6446,11 @@
       <c r="M71">
         <v>-2.5</v>
       </c>
-      <c r="N71">
-        <v>0.5</v>
-      </c>
-      <c r="O71" t="s">
-        <v>31</v>
+      <c r="N71" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
       </c>
       <c r="P71">
         <v>10</v>
@@ -6474,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>3</v>
-      </c>
-      <c r="X71" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X71">
+        <v>3</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6506,7 +6506,7 @@
         <v>30</v>
       </c>
       <c r="H72">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I72">
         <v>14</v>
@@ -6523,11 +6523,11 @@
       <c r="M72">
         <v>-2.5</v>
       </c>
-      <c r="N72">
-        <v>0.5</v>
-      </c>
-      <c r="O72" t="s">
-        <v>31</v>
+      <c r="N72" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
       </c>
       <c r="P72">
         <v>10</v>
@@ -6551,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>3</v>
-      </c>
-      <c r="X72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X72">
+        <v>3</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6583,7 +6583,7 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I73">
         <v>14</v>
@@ -6600,11 +6600,11 @@
       <c r="M73">
         <v>-2.5</v>
       </c>
-      <c r="N73">
-        <v>0.5</v>
-      </c>
-      <c r="O73" t="s">
-        <v>31</v>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
       </c>
       <c r="P73">
         <v>10</v>
@@ -6628,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>3</v>
-      </c>
-      <c r="X73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6660,7 +6660,7 @@
         <v>30</v>
       </c>
       <c r="H74">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I74">
         <v>14</v>
@@ -6677,11 +6677,11 @@
       <c r="M74">
         <v>-2.5</v>
       </c>
-      <c r="N74">
-        <v>0.5</v>
-      </c>
-      <c r="O74" t="s">
-        <v>31</v>
+      <c r="N74" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
       </c>
       <c r="P74">
         <v>10</v>
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>3</v>
-      </c>
-      <c r="X74" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6737,7 +6737,7 @@
         <v>30</v>
       </c>
       <c r="H75">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I75">
         <v>14</v>
@@ -6754,11 +6754,11 @@
       <c r="M75">
         <v>-2.5</v>
       </c>
-      <c r="N75">
-        <v>0.5</v>
-      </c>
-      <c r="O75" t="s">
-        <v>31</v>
+      <c r="N75" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
       </c>
       <c r="P75">
         <v>10</v>
@@ -6782,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>3</v>
-      </c>
-      <c r="X75" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X75">
+        <v>3</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6814,7 +6814,7 @@
         <v>30</v>
       </c>
       <c r="H76">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I76">
         <v>14</v>
@@ -6831,11 +6831,11 @@
       <c r="M76">
         <v>-2.5</v>
       </c>
-      <c r="N76">
-        <v>0.5</v>
-      </c>
-      <c r="O76" t="s">
-        <v>31</v>
+      <c r="N76" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
       </c>
       <c r="P76">
         <v>10</v>
@@ -6859,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>3</v>
-      </c>
-      <c r="X76" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X76">
+        <v>3</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6891,7 +6891,7 @@
         <v>30</v>
       </c>
       <c r="H77">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I77">
         <v>14</v>
@@ -6908,11 +6908,11 @@
       <c r="M77">
         <v>-2.5</v>
       </c>
-      <c r="N77">
-        <v>0.5</v>
-      </c>
-      <c r="O77" t="s">
-        <v>31</v>
+      <c r="N77" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
       </c>
       <c r="P77">
         <v>10</v>
@@ -6936,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>3</v>
-      </c>
-      <c r="X77" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X77">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6968,7 +6968,7 @@
         <v>30</v>
       </c>
       <c r="H78">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I78">
         <v>14</v>
@@ -6985,11 +6985,11 @@
       <c r="M78">
         <v>-2.5</v>
       </c>
-      <c r="N78">
-        <v>0.5</v>
-      </c>
-      <c r="O78" t="s">
-        <v>31</v>
+      <c r="N78" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
       </c>
       <c r="P78">
         <v>10</v>
@@ -7013,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>3</v>
-      </c>
-      <c r="X78" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X78">
+        <v>3</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7045,7 +7045,7 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I79">
         <v>14</v>
@@ -7062,11 +7062,11 @@
       <c r="M79">
         <v>-2.5</v>
       </c>
-      <c r="N79">
-        <v>0.5</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
+      <c r="N79" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
       </c>
       <c r="P79">
         <v>10</v>
@@ -7090,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>3</v>
-      </c>
-      <c r="X79" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X79">
+        <v>3</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7122,7 +7122,7 @@
         <v>30</v>
       </c>
       <c r="H80">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I80">
         <v>14</v>
@@ -7139,11 +7139,11 @@
       <c r="M80">
         <v>-2.5</v>
       </c>
-      <c r="N80">
-        <v>0.5</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
+      <c r="N80" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
       </c>
       <c r="P80">
         <v>10</v>
@@ -7167,13 +7167,13 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>3</v>
-      </c>
-      <c r="X80" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X80">
+        <v>3</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7199,7 +7199,7 @@
         <v>30</v>
       </c>
       <c r="H81">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -7216,11 +7216,11 @@
       <c r="M81">
         <v>-2.5</v>
       </c>
-      <c r="N81">
-        <v>0.5</v>
-      </c>
-      <c r="O81" t="s">
-        <v>31</v>
+      <c r="N81" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
       </c>
       <c r="P81">
         <v>10</v>
@@ -7244,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>3</v>
-      </c>
-      <c r="X81" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X81">
+        <v>3</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7276,7 +7276,7 @@
         <v>30</v>
       </c>
       <c r="H82">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I82">
         <v>14</v>
@@ -7293,11 +7293,11 @@
       <c r="M82">
         <v>-2.5</v>
       </c>
-      <c r="N82">
-        <v>0.5</v>
-      </c>
-      <c r="O82" t="s">
-        <v>31</v>
+      <c r="N82" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
       </c>
       <c r="P82">
         <v>10</v>
@@ -7321,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>3</v>
-      </c>
-      <c r="X82" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X82">
+        <v>3</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7353,7 +7353,7 @@
         <v>30</v>
       </c>
       <c r="H83">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I83">
         <v>14</v>
@@ -7370,11 +7370,11 @@
       <c r="M83">
         <v>-2.5</v>
       </c>
-      <c r="N83">
-        <v>0.5</v>
-      </c>
-      <c r="O83" t="s">
-        <v>31</v>
+      <c r="N83" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
       </c>
       <c r="P83">
         <v>10</v>
@@ -7398,13 +7398,13 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>3</v>
-      </c>
-      <c r="X83" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7430,7 +7430,7 @@
         <v>30</v>
       </c>
       <c r="H84">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I84">
         <v>14</v>
@@ -7447,11 +7447,11 @@
       <c r="M84">
         <v>-2.5</v>
       </c>
-      <c r="N84">
-        <v>0.5</v>
-      </c>
-      <c r="O84" t="s">
-        <v>31</v>
+      <c r="N84" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
       </c>
       <c r="P84">
         <v>10</v>
@@ -7475,13 +7475,13 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>3</v>
-      </c>
-      <c r="X84" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7507,7 +7507,7 @@
         <v>30</v>
       </c>
       <c r="H85">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I85">
         <v>14</v>
@@ -7524,11 +7524,11 @@
       <c r="M85">
         <v>-2.5</v>
       </c>
-      <c r="N85">
-        <v>0.5</v>
-      </c>
-      <c r="O85" t="s">
-        <v>31</v>
+      <c r="N85" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
       </c>
       <c r="P85">
         <v>10</v>
@@ -7552,13 +7552,13 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>3</v>
-      </c>
-      <c r="X85" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X85">
+        <v>3</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7584,7 +7584,7 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I86">
         <v>14</v>
@@ -7601,11 +7601,11 @@
       <c r="M86">
         <v>-2.5</v>
       </c>
-      <c r="N86">
-        <v>0.5</v>
-      </c>
-      <c r="O86" t="s">
-        <v>31</v>
+      <c r="N86" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
       </c>
       <c r="P86">
         <v>10</v>
@@ -7629,13 +7629,13 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>3</v>
-      </c>
-      <c r="X86" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X86">
+        <v>3</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7661,7 +7661,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I87">
         <v>14</v>
@@ -7678,11 +7678,11 @@
       <c r="M87">
         <v>-2.5</v>
       </c>
-      <c r="N87">
-        <v>0.5</v>
-      </c>
-      <c r="O87" t="s">
-        <v>31</v>
+      <c r="N87" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
       </c>
       <c r="P87">
         <v>10</v>
@@ -7706,13 +7706,13 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>3</v>
-      </c>
-      <c r="X87" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y87">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X87">
+        <v>3</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7738,7 +7738,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I88">
         <v>14</v>
@@ -7755,11 +7755,11 @@
       <c r="M88">
         <v>-2.5</v>
       </c>
-      <c r="N88">
-        <v>0.5</v>
-      </c>
-      <c r="O88" t="s">
-        <v>31</v>
+      <c r="N88" t="s">
+        <v>31</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
       </c>
       <c r="P88">
         <v>10</v>
@@ -7783,13 +7783,13 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>3</v>
-      </c>
-      <c r="X88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y88">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X88">
+        <v>3</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7815,7 +7815,7 @@
         <v>30</v>
       </c>
       <c r="H89">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I89">
         <v>14</v>
@@ -7832,11 +7832,11 @@
       <c r="M89">
         <v>-2.5</v>
       </c>
-      <c r="N89">
-        <v>0.5</v>
-      </c>
-      <c r="O89" t="s">
-        <v>31</v>
+      <c r="N89" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
       </c>
       <c r="P89">
         <v>10</v>
@@ -7860,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>3</v>
-      </c>
-      <c r="X89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y89">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X89">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7892,7 +7892,7 @@
         <v>30</v>
       </c>
       <c r="H90">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I90">
         <v>14</v>
@@ -7909,11 +7909,11 @@
       <c r="M90">
         <v>-2.5</v>
       </c>
-      <c r="N90">
-        <v>0.5</v>
-      </c>
-      <c r="O90" t="s">
-        <v>31</v>
+      <c r="N90" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
       </c>
       <c r="P90">
         <v>10</v>
@@ -7937,13 +7937,13 @@
         <v>0</v>
       </c>
       <c r="W90">
-        <v>3</v>
-      </c>
-      <c r="X90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y90">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X90">
+        <v>3</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7969,7 +7969,7 @@
         <v>30</v>
       </c>
       <c r="H91">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I91">
         <v>14</v>
@@ -7986,11 +7986,11 @@
       <c r="M91">
         <v>-2.5</v>
       </c>
-      <c r="N91">
-        <v>0.5</v>
-      </c>
-      <c r="O91" t="s">
-        <v>31</v>
+      <c r="N91" t="s">
+        <v>31</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
       </c>
       <c r="P91">
         <v>10</v>
@@ -8014,13 +8014,13 @@
         <v>0</v>
       </c>
       <c r="W91">
-        <v>3</v>
-      </c>
-      <c r="X91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y91">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X91">
+        <v>3</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -8046,7 +8046,7 @@
         <v>30</v>
       </c>
       <c r="H92">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I92">
         <v>14</v>
@@ -8063,11 +8063,11 @@
       <c r="M92">
         <v>-2.5</v>
       </c>
-      <c r="N92">
-        <v>0.5</v>
-      </c>
-      <c r="O92" t="s">
-        <v>31</v>
+      <c r="N92" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
       </c>
       <c r="P92">
         <v>10</v>
@@ -8091,13 +8091,13 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>3</v>
-      </c>
-      <c r="X92" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X92">
+        <v>3</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8123,7 +8123,7 @@
         <v>30</v>
       </c>
       <c r="H93">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I93">
         <v>14</v>
@@ -8140,11 +8140,11 @@
       <c r="M93">
         <v>-2.5</v>
       </c>
-      <c r="N93">
-        <v>0.5</v>
-      </c>
-      <c r="O93" t="s">
-        <v>31</v>
+      <c r="N93" t="s">
+        <v>31</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
       </c>
       <c r="P93">
         <v>10</v>
@@ -8168,13 +8168,13 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <v>3</v>
-      </c>
-      <c r="X93" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y93">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8200,7 +8200,7 @@
         <v>30</v>
       </c>
       <c r="H94">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I94">
         <v>14</v>
@@ -8217,11 +8217,11 @@
       <c r="M94">
         <v>-2.5</v>
       </c>
-      <c r="N94">
-        <v>0.5</v>
-      </c>
-      <c r="O94" t="s">
-        <v>31</v>
+      <c r="N94" t="s">
+        <v>31</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
       </c>
       <c r="P94">
         <v>10</v>
@@ -8245,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>3</v>
-      </c>
-      <c r="X94" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y94">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X94">
+        <v>3</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8277,7 +8277,7 @@
         <v>30</v>
       </c>
       <c r="H95">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I95">
         <v>14</v>
@@ -8294,11 +8294,11 @@
       <c r="M95">
         <v>-2.5</v>
       </c>
-      <c r="N95">
-        <v>0.5</v>
-      </c>
-      <c r="O95" t="s">
-        <v>31</v>
+      <c r="N95" t="s">
+        <v>31</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
       </c>
       <c r="P95">
         <v>10</v>
@@ -8322,13 +8322,13 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>3</v>
-      </c>
-      <c r="X95" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y95">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8354,7 +8354,7 @@
         <v>30</v>
       </c>
       <c r="H96">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I96">
         <v>14</v>
@@ -8371,11 +8371,11 @@
       <c r="M96">
         <v>-2.5</v>
       </c>
-      <c r="N96">
-        <v>0.5</v>
-      </c>
-      <c r="O96" t="s">
-        <v>31</v>
+      <c r="N96" t="s">
+        <v>31</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
       </c>
       <c r="P96">
         <v>10</v>
@@ -8399,13 +8399,13 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <v>3</v>
-      </c>
-      <c r="X96" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y96">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X96">
+        <v>3</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8431,7 +8431,7 @@
         <v>30</v>
       </c>
       <c r="H97">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I97">
         <v>14</v>
@@ -8448,11 +8448,11 @@
       <c r="M97">
         <v>-2.5</v>
       </c>
-      <c r="N97">
-        <v>0.5</v>
-      </c>
-      <c r="O97" t="s">
-        <v>31</v>
+      <c r="N97" t="s">
+        <v>31</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
       </c>
       <c r="P97">
         <v>10</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>3</v>
-      </c>
-      <c r="X97" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y97">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X97">
+        <v>3</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8508,7 +8508,7 @@
         <v>30</v>
       </c>
       <c r="H98">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I98">
         <v>14</v>
@@ -8525,11 +8525,11 @@
       <c r="M98">
         <v>-2.5</v>
       </c>
-      <c r="N98">
-        <v>0.5</v>
-      </c>
-      <c r="O98" t="s">
-        <v>31</v>
+      <c r="N98" t="s">
+        <v>31</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
       </c>
       <c r="P98">
         <v>10</v>
@@ -8553,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>3</v>
-      </c>
-      <c r="X98" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X98">
+        <v>3</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8585,7 +8585,7 @@
         <v>30</v>
       </c>
       <c r="H99">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I99">
         <v>14</v>
@@ -8602,11 +8602,11 @@
       <c r="M99">
         <v>-2.5</v>
       </c>
-      <c r="N99">
-        <v>0.5</v>
-      </c>
-      <c r="O99" t="s">
-        <v>31</v>
+      <c r="N99" t="s">
+        <v>31</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
       </c>
       <c r="P99">
         <v>10</v>
@@ -8630,13 +8630,13 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <v>3</v>
-      </c>
-      <c r="X99" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X99">
+        <v>3</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="H100">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I100">
         <v>14</v>
@@ -8679,11 +8679,11 @@
       <c r="M100">
         <v>-2.5</v>
       </c>
-      <c r="N100">
-        <v>0.5</v>
-      </c>
-      <c r="O100" t="s">
-        <v>31</v>
+      <c r="N100" t="s">
+        <v>31</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
       </c>
       <c r="P100">
         <v>10</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="W100">
-        <v>3</v>
-      </c>
-      <c r="X100" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8739,7 +8739,7 @@
         <v>30</v>
       </c>
       <c r="H101">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I101">
         <v>14</v>
@@ -8756,11 +8756,11 @@
       <c r="M101">
         <v>-2.5</v>
       </c>
-      <c r="N101">
-        <v>0.5</v>
-      </c>
-      <c r="O101" t="s">
-        <v>31</v>
+      <c r="N101" t="s">
+        <v>31</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
       <c r="P101">
         <v>10</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>3</v>
-      </c>
-      <c r="X101" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y101">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8816,7 +8816,7 @@
         <v>30</v>
       </c>
       <c r="H102">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I102">
         <v>14</v>
@@ -8833,11 +8833,11 @@
       <c r="M102">
         <v>-2.5</v>
       </c>
-      <c r="N102">
-        <v>0.5</v>
-      </c>
-      <c r="O102" t="s">
-        <v>31</v>
+      <c r="N102" t="s">
+        <v>31</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
       </c>
       <c r="P102">
         <v>10</v>
@@ -8861,13 +8861,13 @@
         <v>0</v>
       </c>
       <c r="W102">
-        <v>3</v>
-      </c>
-      <c r="X102" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y102">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8893,7 +8893,7 @@
         <v>30</v>
       </c>
       <c r="H103">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I103">
         <v>14</v>
@@ -8910,11 +8910,11 @@
       <c r="M103">
         <v>-2.5</v>
       </c>
-      <c r="N103">
-        <v>0.5</v>
-      </c>
-      <c r="O103" t="s">
-        <v>31</v>
+      <c r="N103" t="s">
+        <v>31</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
       </c>
       <c r="P103">
         <v>10</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>3</v>
-      </c>
-      <c r="X103" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y103">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8970,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="H104">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I104">
         <v>14</v>
@@ -8987,11 +8987,11 @@
       <c r="M104">
         <v>-2.5</v>
       </c>
-      <c r="N104">
-        <v>0.5</v>
-      </c>
-      <c r="O104" t="s">
-        <v>31</v>
+      <c r="N104" t="s">
+        <v>31</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
       </c>
       <c r="P104">
         <v>10</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <v>3</v>
-      </c>
-      <c r="X104" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y104">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9047,7 +9047,7 @@
         <v>30</v>
       </c>
       <c r="H105">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I105">
         <v>14</v>
@@ -9064,11 +9064,11 @@
       <c r="M105">
         <v>-2.5</v>
       </c>
-      <c r="N105">
-        <v>0.5</v>
-      </c>
-      <c r="O105" t="s">
-        <v>31</v>
+      <c r="N105" t="s">
+        <v>31</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
       </c>
       <c r="P105">
         <v>10</v>
@@ -9092,13 +9092,13 @@
         <v>0</v>
       </c>
       <c r="W105">
-        <v>3</v>
-      </c>
-      <c r="X105" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y105">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X105">
+        <v>3</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9124,7 +9124,7 @@
         <v>30</v>
       </c>
       <c r="H106">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I106">
         <v>14</v>
@@ -9141,11 +9141,11 @@
       <c r="M106">
         <v>-2.5</v>
       </c>
-      <c r="N106">
-        <v>0.5</v>
-      </c>
-      <c r="O106" t="s">
-        <v>31</v>
+      <c r="N106" t="s">
+        <v>31</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
       </c>
       <c r="P106">
         <v>10</v>
@@ -9169,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>3</v>
-      </c>
-      <c r="X106" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y106">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X106">
+        <v>3</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -9201,7 +9201,7 @@
         <v>30</v>
       </c>
       <c r="H107">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I107">
         <v>14</v>
@@ -9218,11 +9218,11 @@
       <c r="M107">
         <v>-2.5</v>
       </c>
-      <c r="N107">
-        <v>0.5</v>
-      </c>
-      <c r="O107" t="s">
-        <v>31</v>
+      <c r="N107" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
       </c>
       <c r="P107">
         <v>10</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>3</v>
-      </c>
-      <c r="X107" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y107">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X107">
+        <v>3</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9278,7 +9278,7 @@
         <v>30</v>
       </c>
       <c r="H108">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I108">
         <v>14</v>
@@ -9295,11 +9295,11 @@
       <c r="M108">
         <v>-2.5</v>
       </c>
-      <c r="N108">
-        <v>0.5</v>
-      </c>
-      <c r="O108" t="s">
-        <v>31</v>
+      <c r="N108" t="s">
+        <v>31</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
       </c>
       <c r="P108">
         <v>10</v>
@@ -9323,13 +9323,13 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>3</v>
-      </c>
-      <c r="X108" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X108">
+        <v>3</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9355,7 +9355,7 @@
         <v>30</v>
       </c>
       <c r="H109">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I109">
         <v>14</v>
@@ -9372,11 +9372,11 @@
       <c r="M109">
         <v>-2.5</v>
       </c>
-      <c r="N109">
-        <v>0.5</v>
-      </c>
-      <c r="O109" t="s">
-        <v>31</v>
+      <c r="N109" t="s">
+        <v>31</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
       </c>
       <c r="P109">
         <v>10</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>3</v>
-      </c>
-      <c r="X109" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X109">
+        <v>3</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9432,7 +9432,7 @@
         <v>30</v>
       </c>
       <c r="H110">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I110">
         <v>14</v>
@@ -9449,11 +9449,11 @@
       <c r="M110">
         <v>-2.5</v>
       </c>
-      <c r="N110">
-        <v>0.5</v>
-      </c>
-      <c r="O110" t="s">
-        <v>31</v>
+      <c r="N110" t="s">
+        <v>31</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
       </c>
       <c r="P110">
         <v>10</v>
@@ -9477,13 +9477,13 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>3</v>
-      </c>
-      <c r="X110" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9509,7 +9509,7 @@
         <v>30</v>
       </c>
       <c r="H111">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I111">
         <v>14</v>
@@ -9526,11 +9526,11 @@
       <c r="M111">
         <v>-2.5</v>
       </c>
-      <c r="N111">
-        <v>0.5</v>
-      </c>
-      <c r="O111" t="s">
-        <v>31</v>
+      <c r="N111" t="s">
+        <v>31</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
       </c>
       <c r="P111">
         <v>10</v>
@@ -9554,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>3</v>
-      </c>
-      <c r="X111" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y111">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X111">
+        <v>3</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9586,7 +9586,7 @@
         <v>30</v>
       </c>
       <c r="H112">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I112">
         <v>14</v>
@@ -9603,11 +9603,11 @@
       <c r="M112">
         <v>-2.5</v>
       </c>
-      <c r="N112">
-        <v>0.5</v>
-      </c>
-      <c r="O112" t="s">
-        <v>31</v>
+      <c r="N112" t="s">
+        <v>31</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
       </c>
       <c r="P112">
         <v>10</v>
@@ -9631,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>3</v>
-      </c>
-      <c r="X112" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X112">
+        <v>3</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9663,7 +9663,7 @@
         <v>30</v>
       </c>
       <c r="H113">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I113">
         <v>14</v>
@@ -9680,11 +9680,11 @@
       <c r="M113">
         <v>-2.5</v>
       </c>
-      <c r="N113">
-        <v>0.5</v>
-      </c>
-      <c r="O113" t="s">
-        <v>31</v>
+      <c r="N113" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
       </c>
       <c r="P113">
         <v>10</v>
@@ -9708,13 +9708,13 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>3</v>
-      </c>
-      <c r="X113" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X113">
+        <v>3</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9740,7 +9740,7 @@
         <v>30</v>
       </c>
       <c r="H114">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I114">
         <v>14</v>
@@ -9757,11 +9757,11 @@
       <c r="M114">
         <v>-2.5</v>
       </c>
-      <c r="N114">
-        <v>0.5</v>
-      </c>
-      <c r="O114" t="s">
-        <v>31</v>
+      <c r="N114" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
       </c>
       <c r="P114">
         <v>10</v>
@@ -9785,13 +9785,13 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>3</v>
-      </c>
-      <c r="X114" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y114">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X114">
+        <v>3</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9817,7 +9817,7 @@
         <v>30</v>
       </c>
       <c r="H115">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I115">
         <v>14</v>
@@ -9834,11 +9834,11 @@
       <c r="M115">
         <v>-2.5</v>
       </c>
-      <c r="N115">
-        <v>0.5</v>
-      </c>
-      <c r="O115" t="s">
-        <v>31</v>
+      <c r="N115" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
       </c>
       <c r="P115">
         <v>10</v>
@@ -9862,13 +9862,13 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>3</v>
-      </c>
-      <c r="X115" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9894,7 +9894,7 @@
         <v>30</v>
       </c>
       <c r="H116">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I116">
         <v>14</v>
@@ -9911,11 +9911,11 @@
       <c r="M116">
         <v>-2.5</v>
       </c>
-      <c r="N116">
-        <v>0.5</v>
-      </c>
-      <c r="O116" t="s">
-        <v>31</v>
+      <c r="N116" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
       </c>
       <c r="P116">
         <v>10</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>3</v>
-      </c>
-      <c r="X116" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y116">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9971,7 +9971,7 @@
         <v>30</v>
       </c>
       <c r="H117">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I117">
         <v>14</v>
@@ -9988,11 +9988,11 @@
       <c r="M117">
         <v>-2.5</v>
       </c>
-      <c r="N117">
-        <v>0.5</v>
-      </c>
-      <c r="O117" t="s">
-        <v>31</v>
+      <c r="N117" t="s">
+        <v>31</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
       </c>
       <c r="P117">
         <v>10</v>
@@ -10016,13 +10016,13 @@
         <v>0</v>
       </c>
       <c r="W117">
-        <v>3</v>
-      </c>
-      <c r="X117" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10048,7 +10048,7 @@
         <v>30</v>
       </c>
       <c r="H118">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I118">
         <v>14</v>
@@ -10065,11 +10065,11 @@
       <c r="M118">
         <v>-2.5</v>
       </c>
-      <c r="N118">
-        <v>0.5</v>
-      </c>
-      <c r="O118" t="s">
-        <v>31</v>
+      <c r="N118" t="s">
+        <v>31</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
       </c>
       <c r="P118">
         <v>10</v>
@@ -10093,13 +10093,13 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>3</v>
-      </c>
-      <c r="X118" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10125,7 +10125,7 @@
         <v>30</v>
       </c>
       <c r="H119">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I119">
         <v>14</v>
@@ -10142,11 +10142,11 @@
       <c r="M119">
         <v>-2.5</v>
       </c>
-      <c r="N119">
-        <v>0.5</v>
-      </c>
-      <c r="O119" t="s">
-        <v>31</v>
+      <c r="N119" t="s">
+        <v>31</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
       </c>
       <c r="P119">
         <v>10</v>
@@ -10170,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="W119">
-        <v>3</v>
-      </c>
-      <c r="X119" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -10202,7 +10202,7 @@
         <v>30</v>
       </c>
       <c r="H120">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I120">
         <v>14</v>
@@ -10219,11 +10219,11 @@
       <c r="M120">
         <v>-2.5</v>
       </c>
-      <c r="N120">
-        <v>0.5</v>
-      </c>
-      <c r="O120" t="s">
-        <v>31</v>
+      <c r="N120" t="s">
+        <v>31</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
       </c>
       <c r="P120">
         <v>10</v>
@@ -10247,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="W120">
-        <v>3</v>
-      </c>
-      <c r="X120" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X120">
+        <v>3</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -10279,7 +10279,7 @@
         <v>30</v>
       </c>
       <c r="H121">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I121">
         <v>14</v>
@@ -10296,11 +10296,11 @@
       <c r="M121">
         <v>-2.5</v>
       </c>
-      <c r="N121">
-        <v>0.5</v>
-      </c>
-      <c r="O121" t="s">
-        <v>31</v>
+      <c r="N121" t="s">
+        <v>31</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
       </c>
       <c r="P121">
         <v>10</v>
@@ -10324,13 +10324,13 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>3</v>
-      </c>
-      <c r="X121" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X121">
+        <v>3</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -10356,7 +10356,7 @@
         <v>30</v>
       </c>
       <c r="H122">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I122">
         <v>14</v>
@@ -10373,11 +10373,11 @@
       <c r="M122">
         <v>-2.5</v>
       </c>
-      <c r="N122">
-        <v>0.5</v>
-      </c>
-      <c r="O122" t="s">
-        <v>31</v>
+      <c r="N122" t="s">
+        <v>31</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
       </c>
       <c r="P122">
         <v>10</v>
@@ -10401,13 +10401,13 @@
         <v>0</v>
       </c>
       <c r="W122">
-        <v>3</v>
-      </c>
-      <c r="X122" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y122">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10433,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="H123">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -10450,11 +10450,11 @@
       <c r="M123">
         <v>-2.5</v>
       </c>
-      <c r="N123">
-        <v>0.5</v>
-      </c>
-      <c r="O123" t="s">
-        <v>31</v>
+      <c r="N123" t="s">
+        <v>31</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
       </c>
       <c r="P123">
         <v>10</v>
@@ -10478,13 +10478,13 @@
         <v>0</v>
       </c>
       <c r="W123">
-        <v>3</v>
-      </c>
-      <c r="X123" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10510,7 +10510,7 @@
         <v>30</v>
       </c>
       <c r="H124">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I124">
         <v>14</v>
@@ -10527,11 +10527,11 @@
       <c r="M124">
         <v>-2.5</v>
       </c>
-      <c r="N124">
-        <v>0.5</v>
-      </c>
-      <c r="O124" t="s">
-        <v>31</v>
+      <c r="N124" t="s">
+        <v>31</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
       </c>
       <c r="P124">
         <v>10</v>
@@ -10555,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="W124">
-        <v>3</v>
-      </c>
-      <c r="X124" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X124">
+        <v>3</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10587,7 +10587,7 @@
         <v>30</v>
       </c>
       <c r="H125">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I125">
         <v>14</v>
@@ -10604,11 +10604,11 @@
       <c r="M125">
         <v>-2.5</v>
       </c>
-      <c r="N125">
-        <v>0.5</v>
-      </c>
-      <c r="O125" t="s">
-        <v>31</v>
+      <c r="N125" t="s">
+        <v>31</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
       </c>
       <c r="P125">
         <v>10</v>
@@ -10632,13 +10632,13 @@
         <v>0</v>
       </c>
       <c r="W125">
-        <v>3</v>
-      </c>
-      <c r="X125" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10664,7 +10664,7 @@
         <v>30</v>
       </c>
       <c r="H126">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I126">
         <v>14</v>
@@ -10681,11 +10681,11 @@
       <c r="M126">
         <v>-2.5</v>
       </c>
-      <c r="N126">
-        <v>0.5</v>
-      </c>
-      <c r="O126" t="s">
-        <v>31</v>
+      <c r="N126" t="s">
+        <v>31</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
       </c>
       <c r="P126">
         <v>10</v>
@@ -10709,13 +10709,13 @@
         <v>0</v>
       </c>
       <c r="W126">
-        <v>3</v>
-      </c>
-      <c r="X126" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y126">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X126">
+        <v>3</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10741,7 +10741,7 @@
         <v>30</v>
       </c>
       <c r="H127">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I127">
         <v>14</v>
@@ -10758,11 +10758,11 @@
       <c r="M127">
         <v>-2.5</v>
       </c>
-      <c r="N127">
-        <v>0.5</v>
-      </c>
-      <c r="O127" t="s">
-        <v>31</v>
+      <c r="N127" t="s">
+        <v>31</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
       </c>
       <c r="P127">
         <v>10</v>
@@ -10786,13 +10786,13 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>3</v>
-      </c>
-      <c r="X127" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y127">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X127">
+        <v>3</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10818,7 +10818,7 @@
         <v>30</v>
       </c>
       <c r="H128">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I128">
         <v>14</v>
@@ -10835,11 +10835,11 @@
       <c r="M128">
         <v>-2.5</v>
       </c>
-      <c r="N128">
-        <v>0.5</v>
-      </c>
-      <c r="O128" t="s">
-        <v>31</v>
+      <c r="N128" t="s">
+        <v>31</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
       </c>
       <c r="P128">
         <v>10</v>
@@ -10863,13 +10863,13 @@
         <v>0</v>
       </c>
       <c r="W128">
-        <v>3</v>
-      </c>
-      <c r="X128" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y128">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X128">
+        <v>3</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10895,7 +10895,7 @@
         <v>30</v>
       </c>
       <c r="H129">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I129">
         <v>14</v>
@@ -10912,11 +10912,11 @@
       <c r="M129">
         <v>-2.5</v>
       </c>
-      <c r="N129">
-        <v>0.5</v>
-      </c>
-      <c r="O129" t="s">
-        <v>31</v>
+      <c r="N129" t="s">
+        <v>31</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
       </c>
       <c r="P129">
         <v>10</v>
@@ -10940,13 +10940,13 @@
         <v>0</v>
       </c>
       <c r="W129">
-        <v>3</v>
-      </c>
-      <c r="X129" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X129">
+        <v>3</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10972,7 +10972,7 @@
         <v>30</v>
       </c>
       <c r="H130">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I130">
         <v>14</v>
@@ -10989,11 +10989,11 @@
       <c r="M130">
         <v>-2.5</v>
       </c>
-      <c r="N130">
-        <v>0.5</v>
-      </c>
-      <c r="O130" t="s">
-        <v>31</v>
+      <c r="N130" t="s">
+        <v>31</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
       </c>
       <c r="P130">
         <v>10</v>
@@ -11017,13 +11017,13 @@
         <v>0</v>
       </c>
       <c r="W130">
-        <v>3</v>
-      </c>
-      <c r="X130" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -11049,7 +11049,7 @@
         <v>30</v>
       </c>
       <c r="H131">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I131">
         <v>14</v>
@@ -11066,11 +11066,11 @@
       <c r="M131">
         <v>-2.5</v>
       </c>
-      <c r="N131">
-        <v>0.5</v>
-      </c>
-      <c r="O131" t="s">
-        <v>31</v>
+      <c r="N131" t="s">
+        <v>31</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
       </c>
       <c r="P131">
         <v>10</v>
@@ -11094,13 +11094,13 @@
         <v>0</v>
       </c>
       <c r="W131">
-        <v>3</v>
-      </c>
-      <c r="X131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y131">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X131">
+        <v>3</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11126,7 +11126,7 @@
         <v>30</v>
       </c>
       <c r="H132">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I132">
         <v>14</v>
@@ -11143,11 +11143,11 @@
       <c r="M132">
         <v>-2.5</v>
       </c>
-      <c r="N132">
-        <v>0.5</v>
-      </c>
-      <c r="O132" t="s">
-        <v>31</v>
+      <c r="N132" t="s">
+        <v>31</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
       </c>
       <c r="P132">
         <v>10</v>
@@ -11171,13 +11171,13 @@
         <v>0</v>
       </c>
       <c r="W132">
-        <v>3</v>
-      </c>
-      <c r="X132" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X132">
+        <v>3</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11203,7 +11203,7 @@
         <v>30</v>
       </c>
       <c r="H133">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I133">
         <v>14</v>
@@ -11220,11 +11220,11 @@
       <c r="M133">
         <v>-2.5</v>
       </c>
-      <c r="N133">
-        <v>0.5</v>
-      </c>
-      <c r="O133" t="s">
-        <v>31</v>
+      <c r="N133" t="s">
+        <v>31</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
       </c>
       <c r="P133">
         <v>10</v>
@@ -11248,13 +11248,13 @@
         <v>0</v>
       </c>
       <c r="W133">
-        <v>3</v>
-      </c>
-      <c r="X133" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y133">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X133">
+        <v>3</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -11280,7 +11280,7 @@
         <v>30</v>
       </c>
       <c r="H134">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I134">
         <v>14</v>
@@ -11297,11 +11297,11 @@
       <c r="M134">
         <v>-2.5</v>
       </c>
-      <c r="N134">
-        <v>0.5</v>
-      </c>
-      <c r="O134" t="s">
-        <v>31</v>
+      <c r="N134" t="s">
+        <v>31</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
       </c>
       <c r="P134">
         <v>10</v>
@@ -11325,13 +11325,13 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>3</v>
-      </c>
-      <c r="X134" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X134">
+        <v>3</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -11357,7 +11357,7 @@
         <v>30</v>
       </c>
       <c r="H135">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I135">
         <v>14</v>
@@ -11374,11 +11374,11 @@
       <c r="M135">
         <v>-2.5</v>
       </c>
-      <c r="N135">
-        <v>0.5</v>
-      </c>
-      <c r="O135" t="s">
-        <v>31</v>
+      <c r="N135" t="s">
+        <v>31</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
       </c>
       <c r="P135">
         <v>10</v>
@@ -11402,13 +11402,13 @@
         <v>0</v>
       </c>
       <c r="W135">
-        <v>3</v>
-      </c>
-      <c r="X135" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X135">
+        <v>3</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -11434,7 +11434,7 @@
         <v>30</v>
       </c>
       <c r="H136">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -11451,11 +11451,11 @@
       <c r="M136">
         <v>-2.5</v>
       </c>
-      <c r="N136">
-        <v>0.5</v>
-      </c>
-      <c r="O136" t="s">
-        <v>31</v>
+      <c r="N136" t="s">
+        <v>31</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
       </c>
       <c r="P136">
         <v>10</v>
@@ -11479,13 +11479,13 @@
         <v>0</v>
       </c>
       <c r="W136">
-        <v>3</v>
-      </c>
-      <c r="X136" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X136">
+        <v>3</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -11511,7 +11511,7 @@
         <v>30</v>
       </c>
       <c r="H137">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I137">
         <v>14</v>
@@ -11528,11 +11528,11 @@
       <c r="M137">
         <v>-2.5</v>
       </c>
-      <c r="N137">
-        <v>0.5</v>
-      </c>
-      <c r="O137" t="s">
-        <v>31</v>
+      <c r="N137" t="s">
+        <v>31</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
       </c>
       <c r="P137">
         <v>10</v>
@@ -11556,13 +11556,13 @@
         <v>0</v>
       </c>
       <c r="W137">
-        <v>3</v>
-      </c>
-      <c r="X137" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X137">
+        <v>3</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11588,7 +11588,7 @@
         <v>30</v>
       </c>
       <c r="H138">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I138">
         <v>14</v>
@@ -11605,11 +11605,11 @@
       <c r="M138">
         <v>-2.5</v>
       </c>
-      <c r="N138">
-        <v>0.5</v>
-      </c>
-      <c r="O138" t="s">
-        <v>31</v>
+      <c r="N138" t="s">
+        <v>31</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
       </c>
       <c r="P138">
         <v>10</v>
@@ -11633,13 +11633,13 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>3</v>
-      </c>
-      <c r="X138" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y138">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X138">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11665,7 +11665,7 @@
         <v>30</v>
       </c>
       <c r="H139">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I139">
         <v>14</v>
@@ -11682,11 +11682,11 @@
       <c r="M139">
         <v>-2.5</v>
       </c>
-      <c r="N139">
-        <v>0.5</v>
-      </c>
-      <c r="O139" t="s">
-        <v>31</v>
+      <c r="N139" t="s">
+        <v>31</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
       </c>
       <c r="P139">
         <v>10</v>
@@ -11710,13 +11710,13 @@
         <v>0</v>
       </c>
       <c r="W139">
-        <v>3</v>
-      </c>
-      <c r="X139" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y139">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X139">
+        <v>3</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11742,7 +11742,7 @@
         <v>30</v>
       </c>
       <c r="H140">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I140">
         <v>14</v>
@@ -11759,11 +11759,11 @@
       <c r="M140">
         <v>-2.5</v>
       </c>
-      <c r="N140">
-        <v>0.5</v>
-      </c>
-      <c r="O140" t="s">
-        <v>31</v>
+      <c r="N140" t="s">
+        <v>31</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
       </c>
       <c r="P140">
         <v>10</v>
@@ -11787,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>3</v>
-      </c>
-      <c r="X140" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X140">
+        <v>3</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11819,7 +11819,7 @@
         <v>30</v>
       </c>
       <c r="H141">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I141">
         <v>14</v>
@@ -11836,11 +11836,11 @@
       <c r="M141">
         <v>-2.5</v>
       </c>
-      <c r="N141">
-        <v>0.5</v>
-      </c>
-      <c r="O141" t="s">
-        <v>31</v>
+      <c r="N141" t="s">
+        <v>31</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
       </c>
       <c r="P141">
         <v>10</v>
@@ -11864,13 +11864,13 @@
         <v>0</v>
       </c>
       <c r="W141">
-        <v>3</v>
-      </c>
-      <c r="X141" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11896,7 +11896,7 @@
         <v>30</v>
       </c>
       <c r="H142">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I142">
         <v>14</v>
@@ -11913,11 +11913,11 @@
       <c r="M142">
         <v>-2.5</v>
       </c>
-      <c r="N142">
-        <v>0.5</v>
-      </c>
-      <c r="O142" t="s">
-        <v>31</v>
+      <c r="N142" t="s">
+        <v>31</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
       </c>
       <c r="P142">
         <v>10</v>
@@ -11941,13 +11941,13 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>3</v>
-      </c>
-      <c r="X142" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X142">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11973,7 +11973,7 @@
         <v>30</v>
       </c>
       <c r="H143">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I143">
         <v>14</v>
@@ -11990,11 +11990,11 @@
       <c r="M143">
         <v>-2.5</v>
       </c>
-      <c r="N143">
-        <v>0.5</v>
-      </c>
-      <c r="O143" t="s">
-        <v>31</v>
+      <c r="N143" t="s">
+        <v>31</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
       </c>
       <c r="P143">
         <v>10</v>
@@ -12018,13 +12018,13 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>3</v>
-      </c>
-      <c r="X143" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -12050,7 +12050,7 @@
         <v>30</v>
       </c>
       <c r="H144">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I144">
         <v>14</v>
@@ -12067,11 +12067,11 @@
       <c r="M144">
         <v>-2.5</v>
       </c>
-      <c r="N144">
-        <v>0.5</v>
-      </c>
-      <c r="O144" t="s">
-        <v>31</v>
+      <c r="N144" t="s">
+        <v>31</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
       </c>
       <c r="P144">
         <v>10</v>
@@ -12095,13 +12095,13 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>3</v>
-      </c>
-      <c r="X144" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X144">
+        <v>3</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12127,7 +12127,7 @@
         <v>30</v>
       </c>
       <c r="H145">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="I145">
         <v>14</v>
@@ -12144,11 +12144,11 @@
       <c r="M145">
         <v>-2.5</v>
       </c>
-      <c r="N145">
-        <v>0.5</v>
-      </c>
-      <c r="O145" t="s">
-        <v>31</v>
+      <c r="N145" t="s">
+        <v>31</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
       </c>
       <c r="P145">
         <v>10</v>
@@ -12172,13 +12172,13 @@
         <v>0</v>
       </c>
       <c r="W145">
-        <v>3</v>
-      </c>
-      <c r="X145" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="X145">
+        <v>3</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
+++ b/antha/examples/projects/Accuracy/step1/AccuracytestPostMixHVoutput_test.xlsx
@@ -57,6 +57,24 @@
     <t>Plate WellYStart</t>
   </si>
   <si>
+    <t>LHPolicy_POST_MIX_VOLUME</t>
+  </si>
+  <si>
+    <t>LHPolicy_ASPSPEED</t>
+  </si>
+  <si>
+    <t>LHPolicy_CAN_SDD</t>
+  </si>
+  <si>
+    <t>LHPolicy_TIP_REUSE_LIMIT</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX</t>
+  </si>
+  <si>
+    <t>LHPolicy_POST_MIX_RATE</t>
+  </si>
+  <si>
     <t>LHPolicy_DSPSPEED</t>
   </si>
   <si>
@@ -66,33 +84,15 @@
     <t>LHPolicy_CAN_MSA</t>
   </si>
   <si>
-    <t>LHPolicy_CAN_SDD</t>
+    <t>LHPolicy_DSPREFERENCE</t>
   </si>
   <si>
     <t>LHPolicy_DSPZOFFSET</t>
   </si>
   <si>
-    <t>LHPolicy_POST_MIX_RATE</t>
-  </si>
-  <si>
-    <t>LHPolicy_POST_MIX_VOLUME</t>
-  </si>
-  <si>
-    <t>LHPolicy_ASPSPEED</t>
-  </si>
-  <si>
-    <t>LHPolicy_DSPREFERENCE</t>
-  </si>
-  <si>
-    <t>LHPolicy_TIP_REUSE_LIMIT</t>
-  </si>
-  <si>
     <t>LHPolicy_NO_AIR_DISPENSE</t>
   </si>
   <si>
-    <t>LHPolicy_POST_MIX</t>
-  </si>
-  <si>
     <t>tartrazine</t>
   </si>
   <si>
@@ -102,7 +102,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>F12</t>
+    <t>F5</t>
   </si>
   <si>
     <t>PostMix</t>
@@ -120,496 +120,496 @@
     <t>2</t>
   </si>
   <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>1.000 ul</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>2.000 ul</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>5.000 ul</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>O16</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>7.500 ul</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
     <t>G16</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>10.000ul</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>25.000ul</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>G7</t>
   </si>
   <si>
     <t>L4</t>
   </si>
   <si>
-    <t>5</t>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>30.000ul</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>35.000ul</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>40.000ul</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>J13</t>
   </si>
   <si>
     <t>N5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>45.000ul</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
   <si>
     <t>K8</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>O13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>1.000 ul</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>F5</t>
+    <t>H9</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>2.000 ul</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>N15</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>N14</t>
-  </si>
-  <si>
-    <t>P15</t>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>50.000ul</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A8</t>
   </si>
   <si>
     <t>G14</t>
   </si>
   <si>
-    <t>N8</t>
-  </si>
-  <si>
-    <t>J13</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>B8</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>5.000 ul</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>7.500 ul</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>L13</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>N11</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>10.000ul</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>25.000ul</t>
-  </si>
-  <si>
-    <t>M15</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>K10</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>B10</t>
+    <t>M2</t>
   </si>
   <si>
     <t>M7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>30.000ul</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>N13</t>
-  </si>
-  <si>
-    <t>O14</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>N10</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>35.000ul</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>I13</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>O15</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>40.000ul</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>N12</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
-    <t>45.000ul</t>
-  </si>
-  <si>
-    <t>O16</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>K12</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>50.000ul</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -1134,40 +1134,40 @@
         <v>-2.5</v>
       </c>
       <c r="N2">
-        <v>3.74</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>3.74</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
-        <v>31</v>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>3.74</v>
       </c>
       <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2">
-        <v>3.74</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1211,40 +1211,40 @@
         <v>-2.5</v>
       </c>
       <c r="N3">
-        <v>3.74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>3.74</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" t="s">
-        <v>31</v>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>3.74</v>
       </c>
       <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3">
-        <v>3.74</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1288,40 +1288,40 @@
         <v>-2.5</v>
       </c>
       <c r="N4">
-        <v>3.74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>3.74</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" t="s">
-        <v>31</v>
+      <c r="Q4">
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>3.74</v>
       </c>
       <c r="T4">
-        <v>10</v>
-      </c>
-      <c r="U4">
-        <v>3.74</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1365,40 +1365,40 @@
         <v>-2.5</v>
       </c>
       <c r="N5">
-        <v>3.74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>3.74</v>
       </c>
       <c r="P5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
-        <v>31</v>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>3.74</v>
       </c>
       <c r="T5">
-        <v>10</v>
-      </c>
-      <c r="U5">
-        <v>3.74</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="X5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1442,40 +1442,40 @@
         <v>-2.5</v>
       </c>
       <c r="N6">
-        <v>3.74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>3.74</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
-        <v>31</v>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>3.74</v>
       </c>
       <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <v>3.74</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>31</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6">
-        <v>3</v>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1519,40 +1519,40 @@
         <v>-2.5</v>
       </c>
       <c r="N7">
-        <v>3.74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>3.74</v>
       </c>
       <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" t="s">
-        <v>31</v>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>3.74</v>
       </c>
       <c r="T7">
-        <v>10</v>
-      </c>
-      <c r="U7">
-        <v>3.74</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
-      <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1596,40 +1596,40 @@
         <v>-2.5</v>
       </c>
       <c r="N8">
-        <v>3.74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>3.74</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
-        <v>31</v>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>3.74</v>
       </c>
       <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>3.74</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>31</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8">
-        <v>3</v>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1673,40 +1673,40 @@
         <v>-2.5</v>
       </c>
       <c r="N9">
-        <v>3.74</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>3.74</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" t="s">
-        <v>31</v>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>3.74</v>
       </c>
       <c r="T9">
-        <v>10</v>
-      </c>
-      <c r="U9">
-        <v>3.74</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>31</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9">
-        <v>3</v>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1750,40 +1750,40 @@
         <v>-2.5</v>
       </c>
       <c r="N10">
-        <v>3.74</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>3.74</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" t="s">
-        <v>31</v>
+      <c r="Q10">
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>3.74</v>
       </c>
       <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>3.74</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10">
-        <v>3</v>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1827,40 +1827,40 @@
         <v>-2.5</v>
       </c>
       <c r="N11">
-        <v>3.74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>3.74</v>
       </c>
       <c r="P11" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" t="s">
-        <v>31</v>
+      <c r="Q11">
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>3.74</v>
       </c>
       <c r="T11">
-        <v>10</v>
-      </c>
-      <c r="U11">
-        <v>3.74</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>31</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11">
-        <v>3</v>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1904,40 +1904,40 @@
         <v>-2.5</v>
       </c>
       <c r="N12">
-        <v>3.74</v>
-      </c>
-      <c r="O12" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>3.74</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" t="s">
-        <v>31</v>
+      <c r="Q12">
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>3.74</v>
       </c>
       <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>3.74</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" t="s">
+        <v>31</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12">
-        <v>3</v>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1981,40 +1981,40 @@
         <v>-2.5</v>
       </c>
       <c r="N13">
-        <v>3.74</v>
-      </c>
-      <c r="O13" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>3.74</v>
       </c>
       <c r="P13" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" t="s">
-        <v>31</v>
+      <c r="Q13">
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>3.74</v>
       </c>
       <c r="T13">
-        <v>10</v>
-      </c>
-      <c r="U13">
-        <v>3.74</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13">
-        <v>3</v>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2058,40 +2058,40 @@
         <v>-2.5</v>
       </c>
       <c r="N14">
-        <v>3.74</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>3.74</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" t="s">
-        <v>31</v>
+      <c r="Q14">
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>3.74</v>
       </c>
       <c r="T14">
-        <v>10</v>
-      </c>
-      <c r="U14">
-        <v>3.74</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2135,40 +2135,40 @@
         <v>-2.5</v>
       </c>
       <c r="N15">
-        <v>3.74</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>3.74</v>
       </c>
       <c r="P15" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" t="s">
-        <v>31</v>
+      <c r="Q15">
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <v>3.74</v>
       </c>
       <c r="T15">
-        <v>10</v>
-      </c>
-      <c r="U15">
-        <v>3.74</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15">
-        <v>3</v>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2212,40 +2212,40 @@
         <v>-2.5</v>
       </c>
       <c r="N16">
-        <v>3.74</v>
-      </c>
-      <c r="O16" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>3.74</v>
       </c>
       <c r="P16" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" t="s">
-        <v>31</v>
+      <c r="Q16">
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>3.74</v>
       </c>
       <c r="T16">
-        <v>10</v>
-      </c>
-      <c r="U16">
-        <v>3.74</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" t="s">
+        <v>31</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16">
-        <v>3</v>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2289,40 +2289,40 @@
         <v>-2.5</v>
       </c>
       <c r="N17">
-        <v>3.74</v>
-      </c>
-      <c r="O17" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>3.74</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" t="s">
-        <v>31</v>
+      <c r="Q17">
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>3.74</v>
       </c>
       <c r="T17">
-        <v>10</v>
-      </c>
-      <c r="U17">
-        <v>3.74</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>31</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17">
-        <v>3</v>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2366,40 +2366,40 @@
         <v>-2.5</v>
       </c>
       <c r="N18">
-        <v>3.74</v>
-      </c>
-      <c r="O18" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>3.74</v>
       </c>
       <c r="P18" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" t="s">
-        <v>31</v>
+      <c r="Q18">
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>3.74</v>
       </c>
       <c r="T18">
-        <v>10</v>
-      </c>
-      <c r="U18">
-        <v>3.74</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" t="s">
+        <v>31</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18">
-        <v>3</v>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2443,40 +2443,40 @@
         <v>-2.5</v>
       </c>
       <c r="N19">
-        <v>3.74</v>
-      </c>
-      <c r="O19" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>3.74</v>
       </c>
       <c r="P19" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" t="s">
-        <v>31</v>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>3.74</v>
       </c>
       <c r="T19">
-        <v>10</v>
-      </c>
-      <c r="U19">
-        <v>3.74</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>31</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19">
-        <v>3</v>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2520,40 +2520,40 @@
         <v>-2.5</v>
       </c>
       <c r="N20">
-        <v>3.74</v>
-      </c>
-      <c r="O20" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>3.74</v>
       </c>
       <c r="P20" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" t="s">
-        <v>31</v>
+      <c r="Q20">
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>3.74</v>
       </c>
       <c r="T20">
-        <v>10</v>
-      </c>
-      <c r="U20">
-        <v>3.74</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20">
-        <v>3</v>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2597,40 +2597,40 @@
         <v>-2.5</v>
       </c>
       <c r="N21">
-        <v>3.74</v>
-      </c>
-      <c r="O21" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>3.74</v>
       </c>
       <c r="P21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" t="s">
-        <v>31</v>
+      <c r="Q21">
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S21">
         <v>3.74</v>
       </c>
       <c r="T21">
-        <v>10</v>
-      </c>
-      <c r="U21">
-        <v>3.74</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21">
-        <v>3</v>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2674,40 +2674,40 @@
         <v>-2.5</v>
       </c>
       <c r="N22">
-        <v>3.74</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>3.74</v>
       </c>
       <c r="P22" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" t="s">
-        <v>31</v>
+      <c r="Q22">
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S22">
         <v>3.74</v>
       </c>
       <c r="T22">
-        <v>10</v>
-      </c>
-      <c r="U22">
-        <v>3.74</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22">
-        <v>3</v>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         <v>-2.5</v>
       </c>
       <c r="N23">
-        <v>3.74</v>
-      </c>
-      <c r="O23" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>3.74</v>
       </c>
       <c r="P23" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" t="s">
-        <v>31</v>
+      <c r="Q23">
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S23">
         <v>3.74</v>
       </c>
       <c r="T23">
-        <v>10</v>
-      </c>
-      <c r="U23">
-        <v>3.74</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23">
-        <v>3</v>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2828,40 +2828,40 @@
         <v>-2.5</v>
       </c>
       <c r="N24">
-        <v>3.74</v>
-      </c>
-      <c r="O24" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>3.74</v>
       </c>
       <c r="P24" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" t="s">
-        <v>31</v>
+      <c r="Q24">
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S24">
         <v>3.74</v>
       </c>
       <c r="T24">
-        <v>10</v>
-      </c>
-      <c r="U24">
-        <v>3.74</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24">
-        <v>3</v>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2905,40 +2905,40 @@
         <v>-2.5</v>
       </c>
       <c r="N25">
-        <v>3.74</v>
-      </c>
-      <c r="O25" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>3.74</v>
       </c>
       <c r="P25" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" t="s">
-        <v>31</v>
+      <c r="Q25">
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S25">
         <v>3.74</v>
       </c>
       <c r="T25">
-        <v>10</v>
-      </c>
-      <c r="U25">
-        <v>3.74</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25">
-        <v>3</v>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2982,40 +2982,40 @@
         <v>-2.5</v>
       </c>
       <c r="N26">
-        <v>3.74</v>
-      </c>
-      <c r="O26" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>3.74</v>
       </c>
       <c r="P26" t="s">
         <v>31</v>
       </c>
-      <c r="Q26" t="s">
-        <v>31</v>
+      <c r="Q26">
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S26">
         <v>3.74</v>
       </c>
       <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>3.74</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
+        <v>31</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26">
-        <v>3</v>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3059,40 +3059,40 @@
         <v>-2.5</v>
       </c>
       <c r="N27">
-        <v>3.74</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>3.74</v>
       </c>
       <c r="P27" t="s">
         <v>31</v>
       </c>
-      <c r="Q27" t="s">
-        <v>31</v>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <v>3.74</v>
       </c>
       <c r="T27">
-        <v>10</v>
-      </c>
-      <c r="U27">
-        <v>3.74</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27">
-        <v>3</v>
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3136,40 +3136,40 @@
         <v>-2.5</v>
       </c>
       <c r="N28">
-        <v>3.74</v>
-      </c>
-      <c r="O28" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>3.74</v>
       </c>
       <c r="P28" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" t="s">
-        <v>31</v>
+      <c r="Q28">
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S28">
         <v>3.74</v>
       </c>
       <c r="T28">
-        <v>10</v>
-      </c>
-      <c r="U28">
-        <v>3.74</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28">
-        <v>3</v>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3213,40 +3213,40 @@
         <v>-2.5</v>
       </c>
       <c r="N29">
-        <v>3.74</v>
-      </c>
-      <c r="O29" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>3.74</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" t="s">
-        <v>31</v>
+      <c r="Q29">
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>3.74</v>
       </c>
       <c r="T29">
-        <v>10</v>
-      </c>
-      <c r="U29">
-        <v>3.74</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" t="s">
+        <v>31</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29">
-        <v>3</v>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3290,40 +3290,40 @@
         <v>-2.5</v>
       </c>
       <c r="N30">
-        <v>3.74</v>
-      </c>
-      <c r="O30" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>3.74</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" t="s">
-        <v>31</v>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S30">
         <v>3.74</v>
       </c>
       <c r="T30">
-        <v>10</v>
-      </c>
-      <c r="U30">
-        <v>3.74</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30">
-        <v>3</v>
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3367,40 +3367,40 @@
         <v>-2.5</v>
       </c>
       <c r="N31">
-        <v>3.74</v>
-      </c>
-      <c r="O31" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>3.74</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" t="s">
-        <v>31</v>
+      <c r="Q31">
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S31">
         <v>3.74</v>
       </c>
       <c r="T31">
-        <v>10</v>
-      </c>
-      <c r="U31">
-        <v>3.74</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" t="s">
+        <v>31</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31">
-        <v>3</v>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3444,40 +3444,40 @@
         <v>-2.5</v>
       </c>
       <c r="N32">
-        <v>3.74</v>
-      </c>
-      <c r="O32" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>3.74</v>
       </c>
       <c r="P32" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" t="s">
-        <v>31</v>
+      <c r="Q32">
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S32">
         <v>3.74</v>
       </c>
       <c r="T32">
-        <v>10</v>
-      </c>
-      <c r="U32">
-        <v>3.74</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" t="s">
+        <v>31</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3521,40 +3521,40 @@
         <v>-2.5</v>
       </c>
       <c r="N33">
-        <v>3.74</v>
-      </c>
-      <c r="O33" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>3.74</v>
       </c>
       <c r="P33" t="s">
         <v>31</v>
       </c>
-      <c r="Q33" t="s">
-        <v>31</v>
+      <c r="Q33">
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S33">
         <v>3.74</v>
       </c>
       <c r="T33">
-        <v>10</v>
-      </c>
-      <c r="U33">
-        <v>3.74</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U33" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" t="s">
+        <v>31</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33">
-        <v>3</v>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3598,40 +3598,40 @@
         <v>-2.5</v>
       </c>
       <c r="N34">
-        <v>3.74</v>
-      </c>
-      <c r="O34" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>3.74</v>
       </c>
       <c r="P34" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" t="s">
-        <v>31</v>
+      <c r="Q34">
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S34">
         <v>3.74</v>
       </c>
       <c r="T34">
-        <v>10</v>
-      </c>
-      <c r="U34">
-        <v>3.74</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" t="s">
+        <v>31</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34">
-        <v>3</v>
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3675,40 +3675,40 @@
         <v>-2.5</v>
       </c>
       <c r="N35">
-        <v>3.74</v>
-      </c>
-      <c r="O35" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>3.74</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" t="s">
-        <v>31</v>
+      <c r="Q35">
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S35">
         <v>3.74</v>
       </c>
       <c r="T35">
-        <v>10</v>
-      </c>
-      <c r="U35">
-        <v>3.74</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U35" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" t="s">
+        <v>31</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="X35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35">
-        <v>3</v>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3752,40 +3752,40 @@
         <v>-2.5</v>
       </c>
       <c r="N36">
-        <v>3.74</v>
-      </c>
-      <c r="O36" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>3.74</v>
       </c>
       <c r="P36" t="s">
         <v>31</v>
       </c>
-      <c r="Q36" t="s">
-        <v>31</v>
+      <c r="Q36">
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S36">
         <v>3.74</v>
       </c>
       <c r="T36">
-        <v>10</v>
-      </c>
-      <c r="U36">
-        <v>3.74</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" t="s">
+        <v>31</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="X36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y36">
-        <v>3</v>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3829,40 +3829,40 @@
         <v>-2.5</v>
       </c>
       <c r="N37">
-        <v>3.74</v>
-      </c>
-      <c r="O37" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>3.74</v>
       </c>
       <c r="P37" t="s">
         <v>31</v>
       </c>
-      <c r="Q37" t="s">
-        <v>31</v>
+      <c r="Q37">
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S37">
         <v>3.74</v>
       </c>
       <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="U37">
-        <v>3.74</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
-      <c r="X37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37">
-        <v>3</v>
+      <c r="X37">
+        <v>0.5</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3906,40 +3906,40 @@
         <v>-2.5</v>
       </c>
       <c r="N38">
-        <v>3.74</v>
-      </c>
-      <c r="O38" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>3.74</v>
       </c>
       <c r="P38" t="s">
         <v>31</v>
       </c>
-      <c r="Q38" t="s">
-        <v>31</v>
+      <c r="Q38">
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S38">
         <v>3.74</v>
       </c>
       <c r="T38">
-        <v>10</v>
-      </c>
-      <c r="U38">
-        <v>3.74</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U38" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" t="s">
+        <v>31</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38">
-        <v>3</v>
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3983,40 +3983,40 @@
         <v>-2.5</v>
       </c>
       <c r="N39">
-        <v>3.74</v>
-      </c>
-      <c r="O39" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>3.74</v>
       </c>
       <c r="P39" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" t="s">
-        <v>31</v>
+      <c r="Q39">
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S39">
         <v>3.74</v>
       </c>
       <c r="T39">
-        <v>10</v>
-      </c>
-      <c r="U39">
-        <v>3.74</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U39" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" t="s">
+        <v>31</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="X39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39">
-        <v>3</v>
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4060,40 +4060,40 @@
         <v>-2.5</v>
       </c>
       <c r="N40">
-        <v>3.74</v>
-      </c>
-      <c r="O40" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>3.74</v>
       </c>
       <c r="P40" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" t="s">
-        <v>31</v>
+      <c r="Q40">
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S40">
         <v>3.74</v>
       </c>
       <c r="T40">
-        <v>10</v>
-      </c>
-      <c r="U40">
-        <v>3.74</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U40" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40" t="s">
+        <v>31</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
-      <c r="X40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y40">
-        <v>3</v>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4137,40 +4137,40 @@
         <v>-2.5</v>
       </c>
       <c r="N41">
-        <v>3.74</v>
-      </c>
-      <c r="O41" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>3.74</v>
       </c>
       <c r="P41" t="s">
         <v>31</v>
       </c>
-      <c r="Q41" t="s">
-        <v>31</v>
+      <c r="Q41">
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S41">
         <v>3.74</v>
       </c>
       <c r="T41">
-        <v>10</v>
-      </c>
-      <c r="U41">
-        <v>3.74</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U41" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" t="s">
+        <v>31</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
-      <c r="X41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41">
-        <v>3</v>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4214,40 +4214,40 @@
         <v>-2.5</v>
       </c>
       <c r="N42">
-        <v>3.74</v>
-      </c>
-      <c r="O42" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>3.74</v>
       </c>
       <c r="P42" t="s">
         <v>31</v>
       </c>
-      <c r="Q42" t="s">
-        <v>31</v>
+      <c r="Q42">
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S42">
         <v>3.74</v>
       </c>
       <c r="T42">
-        <v>10</v>
-      </c>
-      <c r="U42">
-        <v>3.74</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U42" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" t="s">
+        <v>31</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y42">
-        <v>3</v>
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4291,40 +4291,40 @@
         <v>-2.5</v>
       </c>
       <c r="N43">
-        <v>3.74</v>
-      </c>
-      <c r="O43" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>3.74</v>
       </c>
       <c r="P43" t="s">
         <v>31</v>
       </c>
-      <c r="Q43" t="s">
-        <v>31</v>
+      <c r="Q43">
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S43">
         <v>3.74</v>
       </c>
       <c r="T43">
-        <v>10</v>
-      </c>
-      <c r="U43">
-        <v>3.74</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U43" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43" t="s">
+        <v>31</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43">
-        <v>3</v>
+      <c r="X43">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4368,40 +4368,40 @@
         <v>-2.5</v>
       </c>
       <c r="N44">
-        <v>3.74</v>
-      </c>
-      <c r="O44" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>3.74</v>
       </c>
       <c r="P44" t="s">
         <v>31</v>
       </c>
-      <c r="Q44" t="s">
-        <v>31</v>
+      <c r="Q44">
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S44">
         <v>3.74</v>
       </c>
       <c r="T44">
-        <v>10</v>
-      </c>
-      <c r="U44">
-        <v>3.74</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U44" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" t="s">
+        <v>31</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y44">
-        <v>3</v>
+      <c r="X44">
+        <v>0.5</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4445,40 +4445,40 @@
         <v>-2.5</v>
       </c>
       <c r="N45">
-        <v>3.74</v>
-      </c>
-      <c r="O45" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>3.74</v>
       </c>
       <c r="P45" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" t="s">
-        <v>31</v>
+      <c r="Q45">
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S45">
         <v>3.74</v>
       </c>
       <c r="T45">
-        <v>10</v>
-      </c>
-      <c r="U45">
-        <v>3.74</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45" t="s">
+        <v>31</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45">
-        <v>3</v>
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4522,40 +4522,40 @@
         <v>-2.5</v>
       </c>
       <c r="N46">
-        <v>3.74</v>
-      </c>
-      <c r="O46" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>3.74</v>
       </c>
       <c r="P46" t="s">
         <v>31</v>
       </c>
-      <c r="Q46" t="s">
-        <v>31</v>
+      <c r="Q46">
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S46">
         <v>3.74</v>
       </c>
       <c r="T46">
-        <v>10</v>
-      </c>
-      <c r="U46">
-        <v>3.74</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U46" t="s">
+        <v>31</v>
+      </c>
+      <c r="V46" t="s">
+        <v>31</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
-      <c r="X46" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y46">
-        <v>3</v>
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4599,40 +4599,40 @@
         <v>-2.5</v>
       </c>
       <c r="N47">
-        <v>3.74</v>
-      </c>
-      <c r="O47" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>3.74</v>
       </c>
       <c r="P47" t="s">
         <v>31</v>
       </c>
-      <c r="Q47" t="s">
-        <v>31</v>
+      <c r="Q47">
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S47">
         <v>3.74</v>
       </c>
       <c r="T47">
-        <v>10</v>
-      </c>
-      <c r="U47">
-        <v>3.74</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U47" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" t="s">
+        <v>31</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
-      <c r="X47" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y47">
-        <v>3</v>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4676,40 +4676,40 @@
         <v>-2.5</v>
       </c>
       <c r="N48">
-        <v>3.74</v>
-      </c>
-      <c r="O48" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>3.74</v>
       </c>
       <c r="P48" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" t="s">
-        <v>31</v>
+      <c r="Q48">
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S48">
         <v>3.74</v>
       </c>
       <c r="T48">
-        <v>10</v>
-      </c>
-      <c r="U48">
-        <v>3.74</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U48" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" t="s">
+        <v>31</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y48">
-        <v>3</v>
+      <c r="X48">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4753,40 +4753,40 @@
         <v>-2.5</v>
       </c>
       <c r="N49">
-        <v>3.74</v>
-      </c>
-      <c r="O49" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>3.74</v>
       </c>
       <c r="P49" t="s">
         <v>31</v>
       </c>
-      <c r="Q49" t="s">
-        <v>31</v>
+      <c r="Q49">
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S49">
         <v>3.74</v>
       </c>
       <c r="T49">
-        <v>10</v>
-      </c>
-      <c r="U49">
-        <v>3.74</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U49" t="s">
+        <v>31</v>
+      </c>
+      <c r="V49" t="s">
+        <v>31</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49">
-        <v>3</v>
+      <c r="X49">
+        <v>0.5</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4830,40 +4830,40 @@
         <v>-2.5</v>
       </c>
       <c r="N50">
-        <v>3.74</v>
-      </c>
-      <c r="O50" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>3.74</v>
       </c>
       <c r="P50" t="s">
         <v>31</v>
       </c>
-      <c r="Q50" t="s">
-        <v>31</v>
+      <c r="Q50">
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S50">
         <v>3.74</v>
       </c>
       <c r="T50">
-        <v>10</v>
-      </c>
-      <c r="U50">
-        <v>3.74</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U50" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50" t="s">
+        <v>31</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
-      <c r="X50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50">
-        <v>3</v>
+      <c r="X50">
+        <v>0.5</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4907,40 +4907,40 @@
         <v>-2.5</v>
       </c>
       <c r="N51">
-        <v>3.74</v>
-      </c>
-      <c r="O51" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O51">
+        <v>3.74</v>
       </c>
       <c r="P51" t="s">
         <v>31</v>
       </c>
-      <c r="Q51" t="s">
-        <v>31</v>
+      <c r="Q51">
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S51">
         <v>3.74</v>
       </c>
       <c r="T51">
-        <v>10</v>
-      </c>
-      <c r="U51">
-        <v>3.74</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U51" t="s">
+        <v>31</v>
+      </c>
+      <c r="V51" t="s">
+        <v>31</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
-      <c r="X51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y51">
-        <v>3</v>
+      <c r="X51">
+        <v>0.5</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4984,40 +4984,40 @@
         <v>-2.5</v>
       </c>
       <c r="N52">
-        <v>3.74</v>
-      </c>
-      <c r="O52" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>3.74</v>
       </c>
       <c r="P52" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" t="s">
-        <v>31</v>
+      <c r="Q52">
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S52">
         <v>3.74</v>
       </c>
       <c r="T52">
-        <v>10</v>
-      </c>
-      <c r="U52">
-        <v>3.74</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U52" t="s">
+        <v>31</v>
+      </c>
+      <c r="V52" t="s">
+        <v>31</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
-      <c r="X52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y52">
-        <v>3</v>
+      <c r="X52">
+        <v>0.5</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5061,40 +5061,40 @@
         <v>-2.5</v>
       </c>
       <c r="N53">
-        <v>3.74</v>
-      </c>
-      <c r="O53" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O53">
+        <v>3.74</v>
       </c>
       <c r="P53" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" t="s">
-        <v>31</v>
+      <c r="Q53">
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S53">
         <v>3.74</v>
       </c>
       <c r="T53">
-        <v>10</v>
-      </c>
-      <c r="U53">
-        <v>3.74</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U53" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" t="s">
+        <v>31</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
-      <c r="X53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y53">
-        <v>3</v>
+      <c r="X53">
+        <v>0.5</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5138,40 +5138,40 @@
         <v>-2.5</v>
       </c>
       <c r="N54">
-        <v>3.74</v>
-      </c>
-      <c r="O54" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>3.74</v>
       </c>
       <c r="P54" t="s">
         <v>31</v>
       </c>
-      <c r="Q54" t="s">
-        <v>31</v>
+      <c r="Q54">
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S54">
         <v>3.74</v>
       </c>
       <c r="T54">
-        <v>10</v>
-      </c>
-      <c r="U54">
-        <v>3.74</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U54" t="s">
+        <v>31</v>
+      </c>
+      <c r="V54" t="s">
+        <v>31</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54">
-        <v>3</v>
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5215,40 +5215,40 @@
         <v>-2.5</v>
       </c>
       <c r="N55">
-        <v>3.74</v>
-      </c>
-      <c r="O55" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>3.74</v>
       </c>
       <c r="P55" t="s">
         <v>31</v>
       </c>
-      <c r="Q55" t="s">
-        <v>31</v>
+      <c r="Q55">
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S55">
         <v>3.74</v>
       </c>
       <c r="T55">
-        <v>10</v>
-      </c>
-      <c r="U55">
-        <v>3.74</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U55" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" t="s">
+        <v>31</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
-      <c r="X55" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y55">
-        <v>3</v>
+      <c r="X55">
+        <v>0.5</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5292,40 +5292,40 @@
         <v>-2.5</v>
       </c>
       <c r="N56">
-        <v>3.74</v>
-      </c>
-      <c r="O56" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <v>3.74</v>
       </c>
       <c r="P56" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" t="s">
-        <v>31</v>
+      <c r="Q56">
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S56">
         <v>3.74</v>
       </c>
       <c r="T56">
-        <v>10</v>
-      </c>
-      <c r="U56">
-        <v>3.74</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U56" t="s">
+        <v>31</v>
+      </c>
+      <c r="V56" t="s">
+        <v>31</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
-      <c r="X56" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y56">
-        <v>3</v>
+      <c r="X56">
+        <v>0.5</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5369,40 +5369,40 @@
         <v>-2.5</v>
       </c>
       <c r="N57">
-        <v>3.74</v>
-      </c>
-      <c r="O57" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>3.74</v>
       </c>
       <c r="P57" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" t="s">
-        <v>31</v>
+      <c r="Q57">
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S57">
         <v>3.74</v>
       </c>
       <c r="T57">
-        <v>10</v>
-      </c>
-      <c r="U57">
-        <v>3.74</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U57" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57" t="s">
+        <v>31</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57">
-        <v>3</v>
+      <c r="X57">
+        <v>0.5</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5446,40 +5446,40 @@
         <v>-2.5</v>
       </c>
       <c r="N58">
-        <v>3.74</v>
-      </c>
-      <c r="O58" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>3.74</v>
       </c>
       <c r="P58" t="s">
         <v>31</v>
       </c>
-      <c r="Q58" t="s">
-        <v>31</v>
+      <c r="Q58">
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S58">
         <v>3.74</v>
       </c>
       <c r="T58">
-        <v>10</v>
-      </c>
-      <c r="U58">
-        <v>3.74</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U58" t="s">
+        <v>31</v>
+      </c>
+      <c r="V58" t="s">
+        <v>31</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
-      <c r="X58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y58">
-        <v>3</v>
+      <c r="X58">
+        <v>0.5</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5523,40 +5523,40 @@
         <v>-2.5</v>
       </c>
       <c r="N59">
-        <v>3.74</v>
-      </c>
-      <c r="O59" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>3.74</v>
       </c>
       <c r="P59" t="s">
         <v>31</v>
       </c>
-      <c r="Q59" t="s">
-        <v>31</v>
+      <c r="Q59">
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S59">
         <v>3.74</v>
       </c>
       <c r="T59">
-        <v>10</v>
-      </c>
-      <c r="U59">
-        <v>3.74</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U59" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59" t="s">
+        <v>31</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y59">
-        <v>3</v>
+      <c r="X59">
+        <v>0.5</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5600,40 +5600,40 @@
         <v>-2.5</v>
       </c>
       <c r="N60">
-        <v>3.74</v>
-      </c>
-      <c r="O60" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O60">
+        <v>3.74</v>
       </c>
       <c r="P60" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" t="s">
-        <v>31</v>
+      <c r="Q60">
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S60">
         <v>3.74</v>
       </c>
       <c r="T60">
-        <v>10</v>
-      </c>
-      <c r="U60">
-        <v>3.74</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U60" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60" t="s">
+        <v>31</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
-      <c r="X60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y60">
-        <v>3</v>
+      <c r="X60">
+        <v>0.5</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5677,40 +5677,40 @@
         <v>-2.5</v>
       </c>
       <c r="N61">
-        <v>3.74</v>
-      </c>
-      <c r="O61" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O61">
+        <v>3.74</v>
       </c>
       <c r="P61" t="s">
         <v>31</v>
       </c>
-      <c r="Q61" t="s">
-        <v>31</v>
+      <c r="Q61">
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S61">
         <v>3.74</v>
       </c>
       <c r="T61">
-        <v>10</v>
-      </c>
-      <c r="U61">
-        <v>3.74</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U61" t="s">
+        <v>31</v>
+      </c>
+      <c r="V61" t="s">
+        <v>31</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y61">
-        <v>3</v>
+      <c r="X61">
+        <v>0.5</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5754,40 +5754,40 @@
         <v>-2.5</v>
       </c>
       <c r="N62">
-        <v>3.74</v>
-      </c>
-      <c r="O62" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>3.74</v>
       </c>
       <c r="P62" t="s">
         <v>31</v>
       </c>
-      <c r="Q62" t="s">
-        <v>31</v>
+      <c r="Q62">
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S62">
         <v>3.74</v>
       </c>
       <c r="T62">
-        <v>10</v>
-      </c>
-      <c r="U62">
-        <v>3.74</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U62" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" t="s">
+        <v>31</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y62">
-        <v>3</v>
+      <c r="X62">
+        <v>0.5</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5831,40 +5831,40 @@
         <v>-2.5</v>
       </c>
       <c r="N63">
-        <v>3.74</v>
-      </c>
-      <c r="O63" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>3.74</v>
       </c>
       <c r="P63" t="s">
         <v>31</v>
       </c>
-      <c r="Q63" t="s">
-        <v>31</v>
+      <c r="Q63">
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S63">
         <v>3.74</v>
       </c>
       <c r="T63">
-        <v>10</v>
-      </c>
-      <c r="U63">
-        <v>3.74</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U63" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63" t="s">
+        <v>31</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
-      <c r="X63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63">
-        <v>3</v>
+      <c r="X63">
+        <v>0.5</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5908,40 +5908,40 @@
         <v>-2.5</v>
       </c>
       <c r="N64">
-        <v>3.74</v>
-      </c>
-      <c r="O64" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O64">
+        <v>3.74</v>
       </c>
       <c r="P64" t="s">
         <v>31</v>
       </c>
-      <c r="Q64" t="s">
-        <v>31</v>
+      <c r="Q64">
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S64">
         <v>3.74</v>
       </c>
       <c r="T64">
-        <v>10</v>
-      </c>
-      <c r="U64">
-        <v>3.74</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U64" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64" t="s">
+        <v>31</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y64">
-        <v>3</v>
+      <c r="X64">
+        <v>0.5</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5985,40 +5985,40 @@
         <v>-2.5</v>
       </c>
       <c r="N65">
-        <v>3.74</v>
-      </c>
-      <c r="O65" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O65">
+        <v>3.74</v>
       </c>
       <c r="P65" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" t="s">
-        <v>31</v>
+      <c r="Q65">
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S65">
         <v>3.74</v>
       </c>
       <c r="T65">
-        <v>10</v>
-      </c>
-      <c r="U65">
-        <v>3.74</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U65" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65" t="s">
+        <v>31</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y65">
-        <v>3</v>
+      <c r="X65">
+        <v>0.5</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6062,40 +6062,40 @@
         <v>-2.5</v>
       </c>
       <c r="N66">
-        <v>3.74</v>
-      </c>
-      <c r="O66" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>3.74</v>
       </c>
       <c r="P66" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" t="s">
-        <v>31</v>
+      <c r="Q66">
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S66">
         <v>3.74</v>
       </c>
       <c r="T66">
-        <v>10</v>
-      </c>
-      <c r="U66">
-        <v>3.74</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U66" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" t="s">
+        <v>31</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y66">
-        <v>3</v>
+      <c r="X66">
+        <v>0.5</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6139,40 +6139,40 @@
         <v>-2.5</v>
       </c>
       <c r="N67">
-        <v>3.74</v>
-      </c>
-      <c r="O67" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O67">
+        <v>3.74</v>
       </c>
       <c r="P67" t="s">
         <v>31</v>
       </c>
-      <c r="Q67" t="s">
-        <v>31</v>
+      <c r="Q67">
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S67">
         <v>3.74</v>
       </c>
       <c r="T67">
-        <v>10</v>
-      </c>
-      <c r="U67">
-        <v>3.74</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U67" t="s">
+        <v>31</v>
+      </c>
+      <c r="V67" t="s">
+        <v>31</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y67">
-        <v>3</v>
+      <c r="X67">
+        <v>0.5</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6216,40 +6216,40 @@
         <v>-2.5</v>
       </c>
       <c r="N68">
-        <v>3.74</v>
-      </c>
-      <c r="O68" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <v>3.74</v>
       </c>
       <c r="P68" t="s">
         <v>31</v>
       </c>
-      <c r="Q68" t="s">
-        <v>31</v>
+      <c r="Q68">
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S68">
         <v>3.74</v>
       </c>
       <c r="T68">
-        <v>10</v>
-      </c>
-      <c r="U68">
-        <v>3.74</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U68" t="s">
+        <v>31</v>
+      </c>
+      <c r="V68" t="s">
+        <v>31</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y68">
-        <v>3</v>
+      <c r="X68">
+        <v>0.5</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6293,40 +6293,40 @@
         <v>-2.5</v>
       </c>
       <c r="N69">
-        <v>3.74</v>
-      </c>
-      <c r="O69" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>3.74</v>
       </c>
       <c r="P69" t="s">
         <v>31</v>
       </c>
-      <c r="Q69" t="s">
-        <v>31</v>
+      <c r="Q69">
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S69">
         <v>3.74</v>
       </c>
       <c r="T69">
-        <v>10</v>
-      </c>
-      <c r="U69">
-        <v>3.74</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U69" t="s">
+        <v>31</v>
+      </c>
+      <c r="V69" t="s">
+        <v>31</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
-      <c r="X69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y69">
-        <v>3</v>
+      <c r="X69">
+        <v>0.5</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6370,40 +6370,40 @@
         <v>-2.5</v>
       </c>
       <c r="N70">
-        <v>3.74</v>
-      </c>
-      <c r="O70" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>3.74</v>
       </c>
       <c r="P70" t="s">
         <v>31</v>
       </c>
-      <c r="Q70" t="s">
-        <v>31</v>
+      <c r="Q70">
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>3.74</v>
       </c>
       <c r="T70">
-        <v>10</v>
-      </c>
-      <c r="U70">
-        <v>3.74</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U70" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70" t="s">
+        <v>31</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y70">
-        <v>3</v>
+      <c r="X70">
+        <v>0.5</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6447,40 +6447,40 @@
         <v>-2.5</v>
       </c>
       <c r="N71">
-        <v>3.74</v>
-      </c>
-      <c r="O71" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O71">
+        <v>3.74</v>
       </c>
       <c r="P71" t="s">
         <v>31</v>
       </c>
-      <c r="Q71" t="s">
-        <v>31</v>
+      <c r="Q71">
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>3.74</v>
       </c>
       <c r="T71">
-        <v>10</v>
-      </c>
-      <c r="U71">
-        <v>3.74</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U71" t="s">
+        <v>31</v>
+      </c>
+      <c r="V71" t="s">
+        <v>31</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
-      <c r="X71" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y71">
-        <v>3</v>
+      <c r="X71">
+        <v>0.5</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6524,40 +6524,40 @@
         <v>-2.5</v>
       </c>
       <c r="N72">
-        <v>3.74</v>
-      </c>
-      <c r="O72" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O72">
+        <v>3.74</v>
       </c>
       <c r="P72" t="s">
         <v>31</v>
       </c>
-      <c r="Q72" t="s">
-        <v>31</v>
+      <c r="Q72">
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>3.74</v>
       </c>
       <c r="T72">
-        <v>10</v>
-      </c>
-      <c r="U72">
-        <v>3.74</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U72" t="s">
+        <v>31</v>
+      </c>
+      <c r="V72" t="s">
+        <v>31</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
-      <c r="X72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72">
-        <v>3</v>
+      <c r="X72">
+        <v>0.5</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6601,40 +6601,40 @@
         <v>-2.5</v>
       </c>
       <c r="N73">
-        <v>3.74</v>
-      </c>
-      <c r="O73" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O73">
+        <v>3.74</v>
       </c>
       <c r="P73" t="s">
         <v>31</v>
       </c>
-      <c r="Q73" t="s">
-        <v>31</v>
+      <c r="Q73">
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S73">
         <v>3.74</v>
       </c>
       <c r="T73">
-        <v>10</v>
-      </c>
-      <c r="U73">
-        <v>3.74</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U73" t="s">
+        <v>31</v>
+      </c>
+      <c r="V73" t="s">
+        <v>31</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
-      <c r="X73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73">
-        <v>3</v>
+      <c r="X73">
+        <v>0.5</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6678,40 +6678,40 @@
         <v>-2.5</v>
       </c>
       <c r="N74">
-        <v>3.74</v>
-      </c>
-      <c r="O74" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O74">
+        <v>3.74</v>
       </c>
       <c r="P74" t="s">
         <v>31</v>
       </c>
-      <c r="Q74" t="s">
-        <v>31</v>
+      <c r="Q74">
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S74">
         <v>3.74</v>
       </c>
       <c r="T74">
-        <v>10</v>
-      </c>
-      <c r="U74">
-        <v>3.74</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U74" t="s">
+        <v>31</v>
+      </c>
+      <c r="V74" t="s">
+        <v>31</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y74">
-        <v>3</v>
+      <c r="X74">
+        <v>0.5</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6755,40 +6755,40 @@
         <v>-2.5</v>
       </c>
       <c r="N75">
-        <v>3.74</v>
-      </c>
-      <c r="O75" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O75">
+        <v>3.74</v>
       </c>
       <c r="P75" t="s">
         <v>31</v>
       </c>
-      <c r="Q75" t="s">
-        <v>31</v>
+      <c r="Q75">
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S75">
         <v>3.74</v>
       </c>
       <c r="T75">
-        <v>10</v>
-      </c>
-      <c r="U75">
-        <v>3.74</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U75" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" t="s">
+        <v>31</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y75">
-        <v>3</v>
+      <c r="X75">
+        <v>0.5</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6832,40 +6832,40 @@
         <v>-2.5</v>
       </c>
       <c r="N76">
-        <v>3.74</v>
-      </c>
-      <c r="O76" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O76">
+        <v>3.74</v>
       </c>
       <c r="P76" t="s">
         <v>31</v>
       </c>
-      <c r="Q76" t="s">
-        <v>31</v>
+      <c r="Q76">
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>3.74</v>
       </c>
       <c r="T76">
-        <v>10</v>
-      </c>
-      <c r="U76">
-        <v>3.74</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U76" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76" t="s">
+        <v>31</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
-      <c r="X76" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y76">
-        <v>3</v>
+      <c r="X76">
+        <v>0.5</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6909,40 +6909,40 @@
         <v>-2.5</v>
       </c>
       <c r="N77">
-        <v>3.74</v>
-      </c>
-      <c r="O77" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O77">
+        <v>3.74</v>
       </c>
       <c r="P77" t="s">
         <v>31</v>
       </c>
-      <c r="Q77" t="s">
-        <v>31</v>
+      <c r="Q77">
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S77">
         <v>3.74</v>
       </c>
       <c r="T77">
-        <v>10</v>
-      </c>
-      <c r="U77">
-        <v>3.74</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U77" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77" t="s">
+        <v>31</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
-      <c r="X77" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y77">
-        <v>3</v>
+      <c r="X77">
+        <v>0.5</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6986,40 +6986,40 @@
         <v>-2.5</v>
       </c>
       <c r="N78">
-        <v>3.74</v>
-      </c>
-      <c r="O78" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O78">
+        <v>3.74</v>
       </c>
       <c r="P78" t="s">
         <v>31</v>
       </c>
-      <c r="Q78" t="s">
-        <v>31</v>
+      <c r="Q78">
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S78">
         <v>3.74</v>
       </c>
       <c r="T78">
-        <v>10</v>
-      </c>
-      <c r="U78">
-        <v>3.74</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U78" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78" t="s">
+        <v>31</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
-      <c r="X78" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y78">
-        <v>3</v>
+      <c r="X78">
+        <v>0.5</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7063,40 +7063,40 @@
         <v>-2.5</v>
       </c>
       <c r="N79">
-        <v>3.74</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>3.74</v>
       </c>
       <c r="P79" t="s">
         <v>31</v>
       </c>
-      <c r="Q79" t="s">
-        <v>31</v>
+      <c r="Q79">
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S79">
         <v>3.74</v>
       </c>
       <c r="T79">
-        <v>10</v>
-      </c>
-      <c r="U79">
-        <v>3.74</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U79" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" t="s">
+        <v>31</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
-      <c r="X79" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y79">
-        <v>3</v>
+      <c r="X79">
+        <v>0.5</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7140,40 +7140,40 @@
         <v>-2.5</v>
       </c>
       <c r="N80">
-        <v>3.74</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O80">
+        <v>3.74</v>
       </c>
       <c r="P80" t="s">
         <v>31</v>
       </c>
-      <c r="Q80" t="s">
-        <v>31</v>
+      <c r="Q80">
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S80">
         <v>3.74</v>
       </c>
       <c r="T80">
-        <v>10</v>
-      </c>
-      <c r="U80">
-        <v>3.74</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U80" t="s">
+        <v>31</v>
+      </c>
+      <c r="V80" t="s">
+        <v>31</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
-      <c r="X80" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y80">
-        <v>3</v>
+      <c r="X80">
+        <v>0.5</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7217,40 +7217,40 @@
         <v>-2.5</v>
       </c>
       <c r="N81">
-        <v>3.74</v>
-      </c>
-      <c r="O81" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O81">
+        <v>3.74</v>
       </c>
       <c r="P81" t="s">
         <v>31</v>
       </c>
-      <c r="Q81" t="s">
-        <v>31</v>
+      <c r="Q81">
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S81">
         <v>3.74</v>
       </c>
       <c r="T81">
-        <v>10</v>
-      </c>
-      <c r="U81">
-        <v>3.74</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U81" t="s">
+        <v>31</v>
+      </c>
+      <c r="V81" t="s">
+        <v>31</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
-      <c r="X81" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y81">
-        <v>3</v>
+      <c r="X81">
+        <v>0.5</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7294,40 +7294,40 @@
         <v>-2.5</v>
       </c>
       <c r="N82">
-        <v>3.74</v>
-      </c>
-      <c r="O82" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O82">
+        <v>3.74</v>
       </c>
       <c r="P82" t="s">
         <v>31</v>
       </c>
-      <c r="Q82" t="s">
-        <v>31</v>
+      <c r="Q82">
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S82">
         <v>3.74</v>
       </c>
       <c r="T82">
-        <v>10</v>
-      </c>
-      <c r="U82">
-        <v>3.74</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U82" t="s">
+        <v>31</v>
+      </c>
+      <c r="V82" t="s">
+        <v>31</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
-      <c r="X82" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y82">
-        <v>3</v>
+      <c r="X82">
+        <v>0.5</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7371,40 +7371,40 @@
         <v>-2.5</v>
       </c>
       <c r="N83">
-        <v>3.74</v>
-      </c>
-      <c r="O83" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O83">
+        <v>3.74</v>
       </c>
       <c r="P83" t="s">
         <v>31</v>
       </c>
-      <c r="Q83" t="s">
-        <v>31</v>
+      <c r="Q83">
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S83">
         <v>3.74</v>
       </c>
       <c r="T83">
-        <v>10</v>
-      </c>
-      <c r="U83">
-        <v>3.74</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U83" t="s">
+        <v>31</v>
+      </c>
+      <c r="V83" t="s">
+        <v>31</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
-      <c r="X83" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y83">
-        <v>3</v>
+      <c r="X83">
+        <v>0.5</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7448,40 +7448,40 @@
         <v>-2.5</v>
       </c>
       <c r="N84">
-        <v>3.74</v>
-      </c>
-      <c r="O84" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O84">
+        <v>3.74</v>
       </c>
       <c r="P84" t="s">
         <v>31</v>
       </c>
-      <c r="Q84" t="s">
-        <v>31</v>
+      <c r="Q84">
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S84">
         <v>3.74</v>
       </c>
       <c r="T84">
-        <v>10</v>
-      </c>
-      <c r="U84">
-        <v>3.74</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U84" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84" t="s">
+        <v>31</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
-      <c r="X84" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y84">
-        <v>3</v>
+      <c r="X84">
+        <v>0.5</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7525,40 +7525,40 @@
         <v>-2.5</v>
       </c>
       <c r="N85">
-        <v>3.74</v>
-      </c>
-      <c r="O85" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O85">
+        <v>3.74</v>
       </c>
       <c r="P85" t="s">
         <v>31</v>
       </c>
-      <c r="Q85" t="s">
-        <v>31</v>
+      <c r="Q85">
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S85">
         <v>3.74</v>
       </c>
       <c r="T85">
-        <v>10</v>
-      </c>
-      <c r="U85">
-        <v>3.74</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U85" t="s">
+        <v>31</v>
+      </c>
+      <c r="V85" t="s">
+        <v>31</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
-      <c r="X85" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y85">
-        <v>3</v>
+      <c r="X85">
+        <v>0.5</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7602,40 +7602,40 @@
         <v>-2.5</v>
       </c>
       <c r="N86">
-        <v>3.74</v>
-      </c>
-      <c r="O86" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O86">
+        <v>3.74</v>
       </c>
       <c r="P86" t="s">
         <v>31</v>
       </c>
-      <c r="Q86" t="s">
-        <v>31</v>
+      <c r="Q86">
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S86">
         <v>3.74</v>
       </c>
       <c r="T86">
-        <v>10</v>
-      </c>
-      <c r="U86">
-        <v>3.74</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U86" t="s">
+        <v>31</v>
+      </c>
+      <c r="V86" t="s">
+        <v>31</v>
       </c>
       <c r="W86">
         <v>0</v>
       </c>
-      <c r="X86" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y86">
-        <v>3</v>
+      <c r="X86">
+        <v>0.5</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7679,40 +7679,40 @@
         <v>-2.5</v>
       </c>
       <c r="N87">
-        <v>3.74</v>
-      </c>
-      <c r="O87" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O87">
+        <v>3.74</v>
       </c>
       <c r="P87" t="s">
         <v>31</v>
       </c>
-      <c r="Q87" t="s">
-        <v>31</v>
+      <c r="Q87">
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S87">
         <v>3.74</v>
       </c>
       <c r="T87">
-        <v>10</v>
-      </c>
-      <c r="U87">
-        <v>3.74</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U87" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" t="s">
+        <v>31</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="X87" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y87">
-        <v>3</v>
+      <c r="X87">
+        <v>0.5</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7756,40 +7756,40 @@
         <v>-2.5</v>
       </c>
       <c r="N88">
-        <v>3.74</v>
-      </c>
-      <c r="O88" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O88">
+        <v>3.74</v>
       </c>
       <c r="P88" t="s">
         <v>31</v>
       </c>
-      <c r="Q88" t="s">
-        <v>31</v>
+      <c r="Q88">
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S88">
         <v>3.74</v>
       </c>
       <c r="T88">
-        <v>10</v>
-      </c>
-      <c r="U88">
-        <v>3.74</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U88" t="s">
+        <v>31</v>
+      </c>
+      <c r="V88" t="s">
+        <v>31</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="X88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y88">
-        <v>3</v>
+      <c r="X88">
+        <v>0.5</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7833,40 +7833,40 @@
         <v>-2.5</v>
       </c>
       <c r="N89">
-        <v>3.74</v>
-      </c>
-      <c r="O89" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O89">
+        <v>3.74</v>
       </c>
       <c r="P89" t="s">
         <v>31</v>
       </c>
-      <c r="Q89" t="s">
-        <v>31</v>
+      <c r="Q89">
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S89">
         <v>3.74</v>
       </c>
       <c r="T89">
-        <v>10</v>
-      </c>
-      <c r="U89">
-        <v>3.74</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U89" t="s">
+        <v>31</v>
+      </c>
+      <c r="V89" t="s">
+        <v>31</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
-      <c r="X89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y89">
-        <v>3</v>
+      <c r="X89">
+        <v>0.5</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7910,40 +7910,40 @@
         <v>-2.5</v>
       </c>
       <c r="N90">
-        <v>3.74</v>
-      </c>
-      <c r="O90" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O90">
+        <v>3.74</v>
       </c>
       <c r="P90" t="s">
         <v>31</v>
       </c>
-      <c r="Q90" t="s">
-        <v>31</v>
+      <c r="Q90">
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S90">
         <v>3.74</v>
       </c>
       <c r="T90">
-        <v>10</v>
-      </c>
-      <c r="U90">
-        <v>3.74</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U90" t="s">
+        <v>31</v>
+      </c>
+      <c r="V90" t="s">
+        <v>31</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="X90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y90">
-        <v>3</v>
+      <c r="X90">
+        <v>0.5</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7987,40 +7987,40 @@
         <v>-2.5</v>
       </c>
       <c r="N91">
-        <v>3.74</v>
-      </c>
-      <c r="O91" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O91">
+        <v>3.74</v>
       </c>
       <c r="P91" t="s">
         <v>31</v>
       </c>
-      <c r="Q91" t="s">
-        <v>31</v>
+      <c r="Q91">
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S91">
         <v>3.74</v>
       </c>
       <c r="T91">
-        <v>10</v>
-      </c>
-      <c r="U91">
-        <v>3.74</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U91" t="s">
+        <v>31</v>
+      </c>
+      <c r="V91" t="s">
+        <v>31</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
-      <c r="X91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y91">
-        <v>3</v>
+      <c r="X91">
+        <v>0.5</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -8064,40 +8064,40 @@
         <v>-2.5</v>
       </c>
       <c r="N92">
-        <v>3.74</v>
-      </c>
-      <c r="O92" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>3.74</v>
       </c>
       <c r="P92" t="s">
         <v>31</v>
       </c>
-      <c r="Q92" t="s">
-        <v>31</v>
+      <c r="Q92">
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S92">
         <v>3.74</v>
       </c>
       <c r="T92">
-        <v>10</v>
-      </c>
-      <c r="U92">
-        <v>3.74</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U92" t="s">
+        <v>31</v>
+      </c>
+      <c r="V92" t="s">
+        <v>31</v>
       </c>
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="X92" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y92">
-        <v>3</v>
+      <c r="X92">
+        <v>0.5</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8141,40 +8141,40 @@
         <v>-2.5</v>
       </c>
       <c r="N93">
-        <v>3.74</v>
-      </c>
-      <c r="O93" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O93">
+        <v>3.74</v>
       </c>
       <c r="P93" t="s">
         <v>31</v>
       </c>
-      <c r="Q93" t="s">
-        <v>31</v>
+      <c r="Q93">
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S93">
         <v>3.74</v>
       </c>
       <c r="T93">
-        <v>10</v>
-      </c>
-      <c r="U93">
-        <v>3.74</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U93" t="s">
+        <v>31</v>
+      </c>
+      <c r="V93" t="s">
+        <v>31</v>
       </c>
       <c r="W93">
         <v>0</v>
       </c>
-      <c r="X93" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y93">
-        <v>3</v>
+      <c r="X93">
+        <v>0.5</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8218,40 +8218,40 @@
         <v>-2.5</v>
       </c>
       <c r="N94">
-        <v>3.74</v>
-      </c>
-      <c r="O94" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O94">
+        <v>3.74</v>
       </c>
       <c r="P94" t="s">
         <v>31</v>
       </c>
-      <c r="Q94" t="s">
-        <v>31</v>
+      <c r="Q94">
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S94">
         <v>3.74</v>
       </c>
       <c r="T94">
-        <v>10</v>
-      </c>
-      <c r="U94">
-        <v>3.74</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U94" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94" t="s">
+        <v>31</v>
       </c>
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="X94" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y94">
-        <v>3</v>
+      <c r="X94">
+        <v>0.5</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8295,40 +8295,40 @@
         <v>-2.5</v>
       </c>
       <c r="N95">
-        <v>3.74</v>
-      </c>
-      <c r="O95" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O95">
+        <v>3.74</v>
       </c>
       <c r="P95" t="s">
         <v>31</v>
       </c>
-      <c r="Q95" t="s">
-        <v>31</v>
+      <c r="Q95">
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S95">
         <v>3.74</v>
       </c>
       <c r="T95">
-        <v>10</v>
-      </c>
-      <c r="U95">
-        <v>3.74</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U95" t="s">
+        <v>31</v>
+      </c>
+      <c r="V95" t="s">
+        <v>31</v>
       </c>
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="X95" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y95">
-        <v>3</v>
+      <c r="X95">
+        <v>0.5</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8372,40 +8372,40 @@
         <v>-2.5</v>
       </c>
       <c r="N96">
-        <v>3.74</v>
-      </c>
-      <c r="O96" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O96">
+        <v>3.74</v>
       </c>
       <c r="P96" t="s">
         <v>31</v>
       </c>
-      <c r="Q96" t="s">
-        <v>31</v>
+      <c r="Q96">
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S96">
         <v>3.74</v>
       </c>
       <c r="T96">
-        <v>10</v>
-      </c>
-      <c r="U96">
-        <v>3.74</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U96" t="s">
+        <v>31</v>
+      </c>
+      <c r="V96" t="s">
+        <v>31</v>
       </c>
       <c r="W96">
         <v>0</v>
       </c>
-      <c r="X96" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y96">
-        <v>3</v>
+      <c r="X96">
+        <v>0.5</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8449,40 +8449,40 @@
         <v>-2.5</v>
       </c>
       <c r="N97">
-        <v>3.74</v>
-      </c>
-      <c r="O97" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O97">
+        <v>3.74</v>
       </c>
       <c r="P97" t="s">
         <v>31</v>
       </c>
-      <c r="Q97" t="s">
-        <v>31</v>
+      <c r="Q97">
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S97">
         <v>3.74</v>
       </c>
       <c r="T97">
-        <v>10</v>
-      </c>
-      <c r="U97">
-        <v>3.74</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U97" t="s">
+        <v>31</v>
+      </c>
+      <c r="V97" t="s">
+        <v>31</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
-      <c r="X97" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y97">
-        <v>3</v>
+      <c r="X97">
+        <v>0.5</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8526,40 +8526,40 @@
         <v>-2.5</v>
       </c>
       <c r="N98">
-        <v>3.74</v>
-      </c>
-      <c r="O98" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O98">
+        <v>3.74</v>
       </c>
       <c r="P98" t="s">
         <v>31</v>
       </c>
-      <c r="Q98" t="s">
-        <v>31</v>
+      <c r="Q98">
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S98">
         <v>3.74</v>
       </c>
       <c r="T98">
-        <v>10</v>
-      </c>
-      <c r="U98">
-        <v>3.74</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U98" t="s">
+        <v>31</v>
+      </c>
+      <c r="V98" t="s">
+        <v>31</v>
       </c>
       <c r="W98">
         <v>0</v>
       </c>
-      <c r="X98" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y98">
-        <v>3</v>
+      <c r="X98">
+        <v>0.5</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8603,40 +8603,40 @@
         <v>-2.5</v>
       </c>
       <c r="N99">
-        <v>3.74</v>
-      </c>
-      <c r="O99" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O99">
+        <v>3.74</v>
       </c>
       <c r="P99" t="s">
         <v>31</v>
       </c>
-      <c r="Q99" t="s">
-        <v>31</v>
+      <c r="Q99">
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S99">
         <v>3.74</v>
       </c>
       <c r="T99">
-        <v>10</v>
-      </c>
-      <c r="U99">
-        <v>3.74</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U99" t="s">
+        <v>31</v>
+      </c>
+      <c r="V99" t="s">
+        <v>31</v>
       </c>
       <c r="W99">
         <v>0</v>
       </c>
-      <c r="X99" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y99">
-        <v>3</v>
+      <c r="X99">
+        <v>0.5</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8680,40 +8680,40 @@
         <v>-2.5</v>
       </c>
       <c r="N100">
-        <v>3.74</v>
-      </c>
-      <c r="O100" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O100">
+        <v>3.74</v>
       </c>
       <c r="P100" t="s">
         <v>31</v>
       </c>
-      <c r="Q100" t="s">
-        <v>31</v>
+      <c r="Q100">
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S100">
         <v>3.74</v>
       </c>
       <c r="T100">
-        <v>10</v>
-      </c>
-      <c r="U100">
-        <v>3.74</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U100" t="s">
+        <v>31</v>
+      </c>
+      <c r="V100" t="s">
+        <v>31</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
-      <c r="X100" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
+      <c r="X100">
+        <v>0.5</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8757,40 +8757,40 @@
         <v>-2.5</v>
       </c>
       <c r="N101">
-        <v>3.74</v>
-      </c>
-      <c r="O101" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <v>3.74</v>
       </c>
       <c r="P101" t="s">
         <v>31</v>
       </c>
-      <c r="Q101" t="s">
-        <v>31</v>
+      <c r="Q101">
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S101">
         <v>3.74</v>
       </c>
       <c r="T101">
-        <v>10</v>
-      </c>
-      <c r="U101">
-        <v>3.74</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U101" t="s">
+        <v>31</v>
+      </c>
+      <c r="V101" t="s">
+        <v>31</v>
       </c>
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y101">
-        <v>3</v>
+      <c r="X101">
+        <v>0.5</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8834,40 +8834,40 @@
         <v>-2.5</v>
       </c>
       <c r="N102">
-        <v>3.74</v>
-      </c>
-      <c r="O102" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O102">
+        <v>3.74</v>
       </c>
       <c r="P102" t="s">
         <v>31</v>
       </c>
-      <c r="Q102" t="s">
-        <v>31</v>
+      <c r="Q102">
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S102">
         <v>3.74</v>
       </c>
       <c r="T102">
-        <v>10</v>
-      </c>
-      <c r="U102">
-        <v>3.74</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U102" t="s">
+        <v>31</v>
+      </c>
+      <c r="V102" t="s">
+        <v>31</v>
       </c>
       <c r="W102">
         <v>0</v>
       </c>
-      <c r="X102" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y102">
-        <v>3</v>
+      <c r="X102">
+        <v>0.5</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8911,40 +8911,40 @@
         <v>-2.5</v>
       </c>
       <c r="N103">
-        <v>3.74</v>
-      </c>
-      <c r="O103" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O103">
+        <v>3.74</v>
       </c>
       <c r="P103" t="s">
         <v>31</v>
       </c>
-      <c r="Q103" t="s">
-        <v>31</v>
+      <c r="Q103">
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S103">
         <v>3.74</v>
       </c>
       <c r="T103">
-        <v>10</v>
-      </c>
-      <c r="U103">
-        <v>3.74</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U103" t="s">
+        <v>31</v>
+      </c>
+      <c r="V103" t="s">
+        <v>31</v>
       </c>
       <c r="W103">
         <v>0</v>
       </c>
-      <c r="X103" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y103">
-        <v>3</v>
+      <c r="X103">
+        <v>0.5</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8988,40 +8988,40 @@
         <v>-2.5</v>
       </c>
       <c r="N104">
-        <v>3.74</v>
-      </c>
-      <c r="O104" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>3.74</v>
       </c>
       <c r="P104" t="s">
         <v>31</v>
       </c>
-      <c r="Q104" t="s">
-        <v>31</v>
+      <c r="Q104">
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S104">
         <v>3.74</v>
       </c>
       <c r="T104">
-        <v>10</v>
-      </c>
-      <c r="U104">
-        <v>3.74</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U104" t="s">
+        <v>31</v>
+      </c>
+      <c r="V104" t="s">
+        <v>31</v>
       </c>
       <c r="W104">
         <v>0</v>
       </c>
-      <c r="X104" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y104">
-        <v>3</v>
+      <c r="X104">
+        <v>0.5</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9065,40 +9065,40 @@
         <v>-2.5</v>
       </c>
       <c r="N105">
-        <v>3.74</v>
-      </c>
-      <c r="O105" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>3.74</v>
       </c>
       <c r="P105" t="s">
         <v>31</v>
       </c>
-      <c r="Q105" t="s">
-        <v>31</v>
+      <c r="Q105">
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S105">
         <v>3.74</v>
       </c>
       <c r="T105">
-        <v>10</v>
-      </c>
-      <c r="U105">
-        <v>3.74</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U105" t="s">
+        <v>31</v>
+      </c>
+      <c r="V105" t="s">
+        <v>31</v>
       </c>
       <c r="W105">
         <v>0</v>
       </c>
-      <c r="X105" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y105">
-        <v>3</v>
+      <c r="X105">
+        <v>0.5</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9142,40 +9142,40 @@
         <v>-2.5</v>
       </c>
       <c r="N106">
-        <v>3.74</v>
-      </c>
-      <c r="O106" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O106">
+        <v>3.74</v>
       </c>
       <c r="P106" t="s">
         <v>31</v>
       </c>
-      <c r="Q106" t="s">
-        <v>31</v>
+      <c r="Q106">
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S106">
         <v>3.74</v>
       </c>
       <c r="T106">
-        <v>10</v>
-      </c>
-      <c r="U106">
-        <v>3.74</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U106" t="s">
+        <v>31</v>
+      </c>
+      <c r="V106" t="s">
+        <v>31</v>
       </c>
       <c r="W106">
         <v>0</v>
       </c>
-      <c r="X106" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y106">
-        <v>3</v>
+      <c r="X106">
+        <v>0.5</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -9219,40 +9219,40 @@
         <v>-2.5</v>
       </c>
       <c r="N107">
-        <v>3.74</v>
-      </c>
-      <c r="O107" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O107">
+        <v>3.74</v>
       </c>
       <c r="P107" t="s">
         <v>31</v>
       </c>
-      <c r="Q107" t="s">
-        <v>31</v>
+      <c r="Q107">
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S107">
         <v>3.74</v>
       </c>
       <c r="T107">
-        <v>10</v>
-      </c>
-      <c r="U107">
-        <v>3.74</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U107" t="s">
+        <v>31</v>
+      </c>
+      <c r="V107" t="s">
+        <v>31</v>
       </c>
       <c r="W107">
         <v>0</v>
       </c>
-      <c r="X107" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y107">
-        <v>3</v>
+      <c r="X107">
+        <v>0.5</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9296,40 +9296,40 @@
         <v>-2.5</v>
       </c>
       <c r="N108">
-        <v>3.74</v>
-      </c>
-      <c r="O108" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O108">
+        <v>3.74</v>
       </c>
       <c r="P108" t="s">
         <v>31</v>
       </c>
-      <c r="Q108" t="s">
-        <v>31</v>
+      <c r="Q108">
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S108">
         <v>3.74</v>
       </c>
       <c r="T108">
-        <v>10</v>
-      </c>
-      <c r="U108">
-        <v>3.74</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U108" t="s">
+        <v>31</v>
+      </c>
+      <c r="V108" t="s">
+        <v>31</v>
       </c>
       <c r="W108">
         <v>0</v>
       </c>
-      <c r="X108" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y108">
-        <v>3</v>
+      <c r="X108">
+        <v>0.5</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9373,40 +9373,40 @@
         <v>-2.5</v>
       </c>
       <c r="N109">
-        <v>3.74</v>
-      </c>
-      <c r="O109" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O109">
+        <v>3.74</v>
       </c>
       <c r="P109" t="s">
         <v>31</v>
       </c>
-      <c r="Q109" t="s">
-        <v>31</v>
+      <c r="Q109">
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S109">
         <v>3.74</v>
       </c>
       <c r="T109">
-        <v>10</v>
-      </c>
-      <c r="U109">
-        <v>3.74</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U109" t="s">
+        <v>31</v>
+      </c>
+      <c r="V109" t="s">
+        <v>31</v>
       </c>
       <c r="W109">
         <v>0</v>
       </c>
-      <c r="X109" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y109">
-        <v>3</v>
+      <c r="X109">
+        <v>0.5</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9450,40 +9450,40 @@
         <v>-2.5</v>
       </c>
       <c r="N110">
-        <v>3.74</v>
-      </c>
-      <c r="O110" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O110">
+        <v>3.74</v>
       </c>
       <c r="P110" t="s">
         <v>31</v>
       </c>
-      <c r="Q110" t="s">
-        <v>31</v>
+      <c r="Q110">
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S110">
         <v>3.74</v>
       </c>
       <c r="T110">
-        <v>10</v>
-      </c>
-      <c r="U110">
-        <v>3.74</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U110" t="s">
+        <v>31</v>
+      </c>
+      <c r="V110" t="s">
+        <v>31</v>
       </c>
       <c r="W110">
         <v>0</v>
       </c>
-      <c r="X110" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y110">
-        <v>3</v>
+      <c r="X110">
+        <v>0.5</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9527,40 +9527,40 @@
         <v>-2.5</v>
       </c>
       <c r="N111">
-        <v>3.74</v>
-      </c>
-      <c r="O111" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O111">
+        <v>3.74</v>
       </c>
       <c r="P111" t="s">
         <v>31</v>
       </c>
-      <c r="Q111" t="s">
-        <v>31</v>
+      <c r="Q111">
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S111">
         <v>3.74</v>
       </c>
       <c r="T111">
-        <v>10</v>
-      </c>
-      <c r="U111">
-        <v>3.74</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U111" t="s">
+        <v>31</v>
+      </c>
+      <c r="V111" t="s">
+        <v>31</v>
       </c>
       <c r="W111">
         <v>0</v>
       </c>
-      <c r="X111" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y111">
-        <v>3</v>
+      <c r="X111">
+        <v>0.5</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9604,40 +9604,40 @@
         <v>-2.5</v>
       </c>
       <c r="N112">
-        <v>3.74</v>
-      </c>
-      <c r="O112" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O112">
+        <v>3.74</v>
       </c>
       <c r="P112" t="s">
         <v>31</v>
       </c>
-      <c r="Q112" t="s">
-        <v>31</v>
+      <c r="Q112">
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S112">
         <v>3.74</v>
       </c>
       <c r="T112">
-        <v>10</v>
-      </c>
-      <c r="U112">
-        <v>3.74</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U112" t="s">
+        <v>31</v>
+      </c>
+      <c r="V112" t="s">
+        <v>31</v>
       </c>
       <c r="W112">
         <v>0</v>
       </c>
-      <c r="X112" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y112">
-        <v>3</v>
+      <c r="X112">
+        <v>0.5</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9681,40 +9681,40 @@
         <v>-2.5</v>
       </c>
       <c r="N113">
-        <v>3.74</v>
-      </c>
-      <c r="O113" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O113">
+        <v>3.74</v>
       </c>
       <c r="P113" t="s">
         <v>31</v>
       </c>
-      <c r="Q113" t="s">
-        <v>31</v>
+      <c r="Q113">
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S113">
         <v>3.74</v>
       </c>
       <c r="T113">
-        <v>10</v>
-      </c>
-      <c r="U113">
-        <v>3.74</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U113" t="s">
+        <v>31</v>
+      </c>
+      <c r="V113" t="s">
+        <v>31</v>
       </c>
       <c r="W113">
         <v>0</v>
       </c>
-      <c r="X113" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y113">
-        <v>3</v>
+      <c r="X113">
+        <v>0.5</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9758,40 +9758,40 @@
         <v>-2.5</v>
       </c>
       <c r="N114">
-        <v>3.74</v>
-      </c>
-      <c r="O114" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O114">
+        <v>3.74</v>
       </c>
       <c r="P114" t="s">
         <v>31</v>
       </c>
-      <c r="Q114" t="s">
-        <v>31</v>
+      <c r="Q114">
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S114">
         <v>3.74</v>
       </c>
       <c r="T114">
-        <v>10</v>
-      </c>
-      <c r="U114">
-        <v>3.74</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U114" t="s">
+        <v>31</v>
+      </c>
+      <c r="V114" t="s">
+        <v>31</v>
       </c>
       <c r="W114">
         <v>0</v>
       </c>
-      <c r="X114" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y114">
-        <v>3</v>
+      <c r="X114">
+        <v>0.5</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9835,40 +9835,40 @@
         <v>-2.5</v>
       </c>
       <c r="N115">
-        <v>3.74</v>
-      </c>
-      <c r="O115" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>3.74</v>
       </c>
       <c r="P115" t="s">
         <v>31</v>
       </c>
-      <c r="Q115" t="s">
-        <v>31</v>
+      <c r="Q115">
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S115">
         <v>3.74</v>
       </c>
       <c r="T115">
-        <v>10</v>
-      </c>
-      <c r="U115">
-        <v>3.74</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U115" t="s">
+        <v>31</v>
+      </c>
+      <c r="V115" t="s">
+        <v>31</v>
       </c>
       <c r="W115">
         <v>0</v>
       </c>
-      <c r="X115" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y115">
-        <v>3</v>
+      <c r="X115">
+        <v>0.5</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9912,40 +9912,40 @@
         <v>-2.5</v>
       </c>
       <c r="N116">
-        <v>3.74</v>
-      </c>
-      <c r="O116" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O116">
+        <v>3.74</v>
       </c>
       <c r="P116" t="s">
         <v>31</v>
       </c>
-      <c r="Q116" t="s">
-        <v>31</v>
+      <c r="Q116">
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S116">
         <v>3.74</v>
       </c>
       <c r="T116">
-        <v>10</v>
-      </c>
-      <c r="U116">
-        <v>3.74</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U116" t="s">
+        <v>31</v>
+      </c>
+      <c r="V116" t="s">
+        <v>31</v>
       </c>
       <c r="W116">
         <v>0</v>
       </c>
-      <c r="X116" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y116">
-        <v>3</v>
+      <c r="X116">
+        <v>0.5</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9989,40 +9989,40 @@
         <v>-2.5</v>
       </c>
       <c r="N117">
-        <v>3.74</v>
-      </c>
-      <c r="O117" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O117">
+        <v>3.74</v>
       </c>
       <c r="P117" t="s">
         <v>31</v>
       </c>
-      <c r="Q117" t="s">
-        <v>31</v>
+      <c r="Q117">
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S117">
         <v>3.74</v>
       </c>
       <c r="T117">
-        <v>10</v>
-      </c>
-      <c r="U117">
-        <v>3.74</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U117" t="s">
+        <v>31</v>
+      </c>
+      <c r="V117" t="s">
+        <v>31</v>
       </c>
       <c r="W117">
         <v>0</v>
       </c>
-      <c r="X117" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y117">
-        <v>3</v>
+      <c r="X117">
+        <v>0.5</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10066,40 +10066,40 @@
         <v>-2.5</v>
       </c>
       <c r="N118">
-        <v>3.74</v>
-      </c>
-      <c r="O118" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O118">
+        <v>3.74</v>
       </c>
       <c r="P118" t="s">
         <v>31</v>
       </c>
-      <c r="Q118" t="s">
-        <v>31</v>
+      <c r="Q118">
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S118">
         <v>3.74</v>
       </c>
       <c r="T118">
-        <v>10</v>
-      </c>
-      <c r="U118">
-        <v>3.74</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U118" t="s">
+        <v>31</v>
+      </c>
+      <c r="V118" t="s">
+        <v>31</v>
       </c>
       <c r="W118">
         <v>0</v>
       </c>
-      <c r="X118" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y118">
-        <v>3</v>
+      <c r="X118">
+        <v>0.5</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10143,40 +10143,40 @@
         <v>-2.5</v>
       </c>
       <c r="N119">
-        <v>3.74</v>
-      </c>
-      <c r="O119" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O119">
+        <v>3.74</v>
       </c>
       <c r="P119" t="s">
         <v>31</v>
       </c>
-      <c r="Q119" t="s">
-        <v>31</v>
+      <c r="Q119">
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S119">
         <v>3.74</v>
       </c>
       <c r="T119">
-        <v>10</v>
-      </c>
-      <c r="U119">
-        <v>3.74</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U119" t="s">
+        <v>31</v>
+      </c>
+      <c r="V119" t="s">
+        <v>31</v>
       </c>
       <c r="W119">
         <v>0</v>
       </c>
-      <c r="X119" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y119">
-        <v>3</v>
+      <c r="X119">
+        <v>0.5</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -10220,40 +10220,40 @@
         <v>-2.5</v>
       </c>
       <c r="N120">
-        <v>3.74</v>
-      </c>
-      <c r="O120" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O120">
+        <v>3.74</v>
       </c>
       <c r="P120" t="s">
         <v>31</v>
       </c>
-      <c r="Q120" t="s">
-        <v>31</v>
+      <c r="Q120">
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S120">
         <v>3.74</v>
       </c>
       <c r="T120">
-        <v>10</v>
-      </c>
-      <c r="U120">
-        <v>3.74</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U120" t="s">
+        <v>31</v>
+      </c>
+      <c r="V120" t="s">
+        <v>31</v>
       </c>
       <c r="W120">
         <v>0</v>
       </c>
-      <c r="X120" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y120">
-        <v>3</v>
+      <c r="X120">
+        <v>0.5</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -10297,40 +10297,40 @@
         <v>-2.5</v>
       </c>
       <c r="N121">
-        <v>3.74</v>
-      </c>
-      <c r="O121" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O121">
+        <v>3.74</v>
       </c>
       <c r="P121" t="s">
         <v>31</v>
       </c>
-      <c r="Q121" t="s">
-        <v>31</v>
+      <c r="Q121">
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S121">
         <v>3.74</v>
       </c>
       <c r="T121">
-        <v>10</v>
-      </c>
-      <c r="U121">
-        <v>3.74</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U121" t="s">
+        <v>31</v>
+      </c>
+      <c r="V121" t="s">
+        <v>31</v>
       </c>
       <c r="W121">
         <v>0</v>
       </c>
-      <c r="X121" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y121">
-        <v>3</v>
+      <c r="X121">
+        <v>0.5</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -10374,40 +10374,40 @@
         <v>-2.5</v>
       </c>
       <c r="N122">
-        <v>3.74</v>
-      </c>
-      <c r="O122" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O122">
+        <v>3.74</v>
       </c>
       <c r="P122" t="s">
         <v>31</v>
       </c>
-      <c r="Q122" t="s">
-        <v>31</v>
+      <c r="Q122">
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S122">
         <v>3.74</v>
       </c>
       <c r="T122">
-        <v>10</v>
-      </c>
-      <c r="U122">
-        <v>3.74</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U122" t="s">
+        <v>31</v>
+      </c>
+      <c r="V122" t="s">
+        <v>31</v>
       </c>
       <c r="W122">
         <v>0</v>
       </c>
-      <c r="X122" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y122">
-        <v>3</v>
+      <c r="X122">
+        <v>0.5</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10451,40 +10451,40 @@
         <v>-2.5</v>
       </c>
       <c r="N123">
-        <v>3.74</v>
-      </c>
-      <c r="O123" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O123">
+        <v>3.74</v>
       </c>
       <c r="P123" t="s">
         <v>31</v>
       </c>
-      <c r="Q123" t="s">
-        <v>31</v>
+      <c r="Q123">
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S123">
         <v>3.74</v>
       </c>
       <c r="T123">
-        <v>10</v>
-      </c>
-      <c r="U123">
-        <v>3.74</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U123" t="s">
+        <v>31</v>
+      </c>
+      <c r="V123" t="s">
+        <v>31</v>
       </c>
       <c r="W123">
         <v>0</v>
       </c>
-      <c r="X123" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y123">
-        <v>3</v>
+      <c r="X123">
+        <v>0.5</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10528,40 +10528,40 @@
         <v>-2.5</v>
       </c>
       <c r="N124">
-        <v>3.74</v>
-      </c>
-      <c r="O124" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O124">
+        <v>3.74</v>
       </c>
       <c r="P124" t="s">
         <v>31</v>
       </c>
-      <c r="Q124" t="s">
-        <v>31</v>
+      <c r="Q124">
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S124">
         <v>3.74</v>
       </c>
       <c r="T124">
-        <v>10</v>
-      </c>
-      <c r="U124">
-        <v>3.74</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U124" t="s">
+        <v>31</v>
+      </c>
+      <c r="V124" t="s">
+        <v>31</v>
       </c>
       <c r="W124">
         <v>0</v>
       </c>
-      <c r="X124" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y124">
-        <v>3</v>
+      <c r="X124">
+        <v>0.5</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10605,40 +10605,40 @@
         <v>-2.5</v>
       </c>
       <c r="N125">
-        <v>3.74</v>
-      </c>
-      <c r="O125" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O125">
+        <v>3.74</v>
       </c>
       <c r="P125" t="s">
         <v>31</v>
       </c>
-      <c r="Q125" t="s">
-        <v>31</v>
+      <c r="Q125">
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S125">
         <v>3.74</v>
       </c>
       <c r="T125">
-        <v>10</v>
-      </c>
-      <c r="U125">
-        <v>3.74</v>
-      </c>
-      <c r="V125">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U125" t="s">
+        <v>31</v>
+      </c>
+      <c r="V125" t="s">
+        <v>31</v>
       </c>
       <c r="W125">
         <v>0</v>
       </c>
-      <c r="X125" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y125">
-        <v>3</v>
+      <c r="X125">
+        <v>0.5</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10682,40 +10682,40 @@
         <v>-2.5</v>
       </c>
       <c r="N126">
-        <v>3.74</v>
-      </c>
-      <c r="O126" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O126">
+        <v>3.74</v>
       </c>
       <c r="P126" t="s">
         <v>31</v>
       </c>
-      <c r="Q126" t="s">
-        <v>31</v>
+      <c r="Q126">
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S126">
         <v>3.74</v>
       </c>
       <c r="T126">
-        <v>10</v>
-      </c>
-      <c r="U126">
-        <v>3.74</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U126" t="s">
+        <v>31</v>
+      </c>
+      <c r="V126" t="s">
+        <v>31</v>
       </c>
       <c r="W126">
         <v>0</v>
       </c>
-      <c r="X126" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y126">
-        <v>3</v>
+      <c r="X126">
+        <v>0.5</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10759,40 +10759,40 @@
         <v>-2.5</v>
       </c>
       <c r="N127">
-        <v>3.74</v>
-      </c>
-      <c r="O127" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O127">
+        <v>3.74</v>
       </c>
       <c r="P127" t="s">
         <v>31</v>
       </c>
-      <c r="Q127" t="s">
-        <v>31</v>
+      <c r="Q127">
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S127">
         <v>3.74</v>
       </c>
       <c r="T127">
-        <v>10</v>
-      </c>
-      <c r="U127">
-        <v>3.74</v>
-      </c>
-      <c r="V127">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U127" t="s">
+        <v>31</v>
+      </c>
+      <c r="V127" t="s">
+        <v>31</v>
       </c>
       <c r="W127">
         <v>0</v>
       </c>
-      <c r="X127" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y127">
-        <v>3</v>
+      <c r="X127">
+        <v>0.5</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10836,40 +10836,40 @@
         <v>-2.5</v>
       </c>
       <c r="N128">
-        <v>3.74</v>
-      </c>
-      <c r="O128" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O128">
+        <v>3.74</v>
       </c>
       <c r="P128" t="s">
         <v>31</v>
       </c>
-      <c r="Q128" t="s">
-        <v>31</v>
+      <c r="Q128">
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S128">
         <v>3.74</v>
       </c>
       <c r="T128">
-        <v>10</v>
-      </c>
-      <c r="U128">
-        <v>3.74</v>
-      </c>
-      <c r="V128">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U128" t="s">
+        <v>31</v>
+      </c>
+      <c r="V128" t="s">
+        <v>31</v>
       </c>
       <c r="W128">
         <v>0</v>
       </c>
-      <c r="X128" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y128">
-        <v>3</v>
+      <c r="X128">
+        <v>0.5</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10913,40 +10913,40 @@
         <v>-2.5</v>
       </c>
       <c r="N129">
-        <v>3.74</v>
-      </c>
-      <c r="O129" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O129">
+        <v>3.74</v>
       </c>
       <c r="P129" t="s">
         <v>31</v>
       </c>
-      <c r="Q129" t="s">
-        <v>31</v>
+      <c r="Q129">
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S129">
         <v>3.74</v>
       </c>
       <c r="T129">
-        <v>10</v>
-      </c>
-      <c r="U129">
-        <v>3.74</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U129" t="s">
+        <v>31</v>
+      </c>
+      <c r="V129" t="s">
+        <v>31</v>
       </c>
       <c r="W129">
         <v>0</v>
       </c>
-      <c r="X129" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y129">
-        <v>3</v>
+      <c r="X129">
+        <v>0.5</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10990,40 +10990,40 @@
         <v>-2.5</v>
       </c>
       <c r="N130">
-        <v>3.74</v>
-      </c>
-      <c r="O130" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O130">
+        <v>3.74</v>
       </c>
       <c r="P130" t="s">
         <v>31</v>
       </c>
-      <c r="Q130" t="s">
-        <v>31</v>
+      <c r="Q130">
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S130">
         <v>3.74</v>
       </c>
       <c r="T130">
-        <v>10</v>
-      </c>
-      <c r="U130">
-        <v>3.74</v>
-      </c>
-      <c r="V130">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U130" t="s">
+        <v>31</v>
+      </c>
+      <c r="V130" t="s">
+        <v>31</v>
       </c>
       <c r="W130">
         <v>0</v>
       </c>
-      <c r="X130" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y130">
-        <v>3</v>
+      <c r="X130">
+        <v>0.5</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -11067,40 +11067,40 @@
         <v>-2.5</v>
       </c>
       <c r="N131">
-        <v>3.74</v>
-      </c>
-      <c r="O131" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O131">
+        <v>3.74</v>
       </c>
       <c r="P131" t="s">
         <v>31</v>
       </c>
-      <c r="Q131" t="s">
-        <v>31</v>
+      <c r="Q131">
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S131">
         <v>3.74</v>
       </c>
       <c r="T131">
-        <v>10</v>
-      </c>
-      <c r="U131">
-        <v>3.74</v>
-      </c>
-      <c r="V131">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U131" t="s">
+        <v>31</v>
+      </c>
+      <c r="V131" t="s">
+        <v>31</v>
       </c>
       <c r="W131">
         <v>0</v>
       </c>
-      <c r="X131" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y131">
-        <v>3</v>
+      <c r="X131">
+        <v>0.5</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11144,40 +11144,40 @@
         <v>-2.5</v>
       </c>
       <c r="N132">
-        <v>3.74</v>
-      </c>
-      <c r="O132" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O132">
+        <v>3.74</v>
       </c>
       <c r="P132" t="s">
         <v>31</v>
       </c>
-      <c r="Q132" t="s">
-        <v>31</v>
+      <c r="Q132">
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S132">
         <v>3.74</v>
       </c>
       <c r="T132">
-        <v>10</v>
-      </c>
-      <c r="U132">
-        <v>3.74</v>
-      </c>
-      <c r="V132">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U132" t="s">
+        <v>31</v>
+      </c>
+      <c r="V132" t="s">
+        <v>31</v>
       </c>
       <c r="W132">
         <v>0</v>
       </c>
-      <c r="X132" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y132">
-        <v>3</v>
+      <c r="X132">
+        <v>0.5</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11221,40 +11221,40 @@
         <v>-2.5</v>
       </c>
       <c r="N133">
-        <v>3.74</v>
-      </c>
-      <c r="O133" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O133">
+        <v>3.74</v>
       </c>
       <c r="P133" t="s">
         <v>31</v>
       </c>
-      <c r="Q133" t="s">
-        <v>31</v>
+      <c r="Q133">
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S133">
         <v>3.74</v>
       </c>
       <c r="T133">
-        <v>10</v>
-      </c>
-      <c r="U133">
-        <v>3.74</v>
-      </c>
-      <c r="V133">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U133" t="s">
+        <v>31</v>
+      </c>
+      <c r="V133" t="s">
+        <v>31</v>
       </c>
       <c r="W133">
         <v>0</v>
       </c>
-      <c r="X133" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y133">
-        <v>3</v>
+      <c r="X133">
+        <v>0.5</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -11298,40 +11298,40 @@
         <v>-2.5</v>
       </c>
       <c r="N134">
-        <v>3.74</v>
-      </c>
-      <c r="O134" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O134">
+        <v>3.74</v>
       </c>
       <c r="P134" t="s">
         <v>31</v>
       </c>
-      <c r="Q134" t="s">
-        <v>31</v>
+      <c r="Q134">
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S134">
         <v>3.74</v>
       </c>
       <c r="T134">
-        <v>10</v>
-      </c>
-      <c r="U134">
-        <v>3.74</v>
-      </c>
-      <c r="V134">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U134" t="s">
+        <v>31</v>
+      </c>
+      <c r="V134" t="s">
+        <v>31</v>
       </c>
       <c r="W134">
         <v>0</v>
       </c>
-      <c r="X134" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y134">
-        <v>3</v>
+      <c r="X134">
+        <v>0.5</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -11375,40 +11375,40 @@
         <v>-2.5</v>
       </c>
       <c r="N135">
-        <v>3.74</v>
-      </c>
-      <c r="O135" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O135">
+        <v>3.74</v>
       </c>
       <c r="P135" t="s">
         <v>31</v>
       </c>
-      <c r="Q135" t="s">
-        <v>31</v>
+      <c r="Q135">
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S135">
         <v>3.74</v>
       </c>
       <c r="T135">
-        <v>10</v>
-      </c>
-      <c r="U135">
-        <v>3.74</v>
-      </c>
-      <c r="V135">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U135" t="s">
+        <v>31</v>
+      </c>
+      <c r="V135" t="s">
+        <v>31</v>
       </c>
       <c r="W135">
         <v>0</v>
       </c>
-      <c r="X135" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y135">
-        <v>3</v>
+      <c r="X135">
+        <v>0.5</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -11452,40 +11452,40 @@
         <v>-2.5</v>
       </c>
       <c r="N136">
-        <v>3.74</v>
-      </c>
-      <c r="O136" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O136">
+        <v>3.74</v>
       </c>
       <c r="P136" t="s">
         <v>31</v>
       </c>
-      <c r="Q136" t="s">
-        <v>31</v>
+      <c r="Q136">
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S136">
         <v>3.74</v>
       </c>
       <c r="T136">
-        <v>10</v>
-      </c>
-      <c r="U136">
-        <v>3.74</v>
-      </c>
-      <c r="V136">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U136" t="s">
+        <v>31</v>
+      </c>
+      <c r="V136" t="s">
+        <v>31</v>
       </c>
       <c r="W136">
         <v>0</v>
       </c>
-      <c r="X136" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y136">
-        <v>3</v>
+      <c r="X136">
+        <v>0.5</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -11529,40 +11529,40 @@
         <v>-2.5</v>
       </c>
       <c r="N137">
-        <v>3.74</v>
-      </c>
-      <c r="O137" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <v>3.74</v>
       </c>
       <c r="P137" t="s">
         <v>31</v>
       </c>
-      <c r="Q137" t="s">
-        <v>31</v>
+      <c r="Q137">
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S137">
         <v>3.74</v>
       </c>
       <c r="T137">
-        <v>10</v>
-      </c>
-      <c r="U137">
-        <v>3.74</v>
-      </c>
-      <c r="V137">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U137" t="s">
+        <v>31</v>
+      </c>
+      <c r="V137" t="s">
+        <v>31</v>
       </c>
       <c r="W137">
         <v>0</v>
       </c>
-      <c r="X137" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y137">
-        <v>3</v>
+      <c r="X137">
+        <v>0.5</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11606,40 +11606,40 @@
         <v>-2.5</v>
       </c>
       <c r="N138">
-        <v>3.74</v>
-      </c>
-      <c r="O138" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O138">
+        <v>3.74</v>
       </c>
       <c r="P138" t="s">
         <v>31</v>
       </c>
-      <c r="Q138" t="s">
-        <v>31</v>
+      <c r="Q138">
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S138">
         <v>3.74</v>
       </c>
       <c r="T138">
-        <v>10</v>
-      </c>
-      <c r="U138">
-        <v>3.74</v>
-      </c>
-      <c r="V138">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U138" t="s">
+        <v>31</v>
+      </c>
+      <c r="V138" t="s">
+        <v>31</v>
       </c>
       <c r="W138">
         <v>0</v>
       </c>
-      <c r="X138" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y138">
-        <v>3</v>
+      <c r="X138">
+        <v>0.5</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11683,40 +11683,40 @@
         <v>-2.5</v>
       </c>
       <c r="N139">
-        <v>3.74</v>
-      </c>
-      <c r="O139" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O139">
+        <v>3.74</v>
       </c>
       <c r="P139" t="s">
         <v>31</v>
       </c>
-      <c r="Q139" t="s">
-        <v>31</v>
+      <c r="Q139">
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S139">
         <v>3.74</v>
       </c>
       <c r="T139">
-        <v>10</v>
-      </c>
-      <c r="U139">
-        <v>3.74</v>
-      </c>
-      <c r="V139">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U139" t="s">
+        <v>31</v>
+      </c>
+      <c r="V139" t="s">
+        <v>31</v>
       </c>
       <c r="W139">
         <v>0</v>
       </c>
-      <c r="X139" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y139">
-        <v>3</v>
+      <c r="X139">
+        <v>0.5</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11760,40 +11760,40 @@
         <v>-2.5</v>
       </c>
       <c r="N140">
-        <v>3.74</v>
-      </c>
-      <c r="O140" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O140">
+        <v>3.74</v>
       </c>
       <c r="P140" t="s">
         <v>31</v>
       </c>
-      <c r="Q140" t="s">
-        <v>31</v>
+      <c r="Q140">
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S140">
         <v>3.74</v>
       </c>
       <c r="T140">
-        <v>10</v>
-      </c>
-      <c r="U140">
-        <v>3.74</v>
-      </c>
-      <c r="V140">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U140" t="s">
+        <v>31</v>
+      </c>
+      <c r="V140" t="s">
+        <v>31</v>
       </c>
       <c r="W140">
         <v>0</v>
       </c>
-      <c r="X140" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y140">
-        <v>3</v>
+      <c r="X140">
+        <v>0.5</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11837,40 +11837,40 @@
         <v>-2.5</v>
       </c>
       <c r="N141">
-        <v>3.74</v>
-      </c>
-      <c r="O141" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O141">
+        <v>3.74</v>
       </c>
       <c r="P141" t="s">
         <v>31</v>
       </c>
-      <c r="Q141" t="s">
-        <v>31</v>
+      <c r="Q141">
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S141">
         <v>3.74</v>
       </c>
       <c r="T141">
-        <v>10</v>
-      </c>
-      <c r="U141">
-        <v>3.74</v>
-      </c>
-      <c r="V141">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U141" t="s">
+        <v>31</v>
+      </c>
+      <c r="V141" t="s">
+        <v>31</v>
       </c>
       <c r="W141">
         <v>0</v>
       </c>
-      <c r="X141" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y141">
-        <v>3</v>
+      <c r="X141">
+        <v>0.5</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11914,40 +11914,40 @@
         <v>-2.5</v>
       </c>
       <c r="N142">
-        <v>3.74</v>
-      </c>
-      <c r="O142" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O142">
+        <v>3.74</v>
       </c>
       <c r="P142" t="s">
         <v>31</v>
       </c>
-      <c r="Q142" t="s">
-        <v>31</v>
+      <c r="Q142">
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S142">
         <v>3.74</v>
       </c>
       <c r="T142">
-        <v>10</v>
-      </c>
-      <c r="U142">
-        <v>3.74</v>
-      </c>
-      <c r="V142">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U142" t="s">
+        <v>31</v>
+      </c>
+      <c r="V142" t="s">
+        <v>31</v>
       </c>
       <c r="W142">
         <v>0</v>
       </c>
-      <c r="X142" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y142">
-        <v>3</v>
+      <c r="X142">
+        <v>0.5</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11991,40 +11991,40 @@
         <v>-2.5</v>
       </c>
       <c r="N143">
-        <v>3.74</v>
-      </c>
-      <c r="O143" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O143">
+        <v>3.74</v>
       </c>
       <c r="P143" t="s">
         <v>31</v>
       </c>
-      <c r="Q143" t="s">
-        <v>31</v>
+      <c r="Q143">
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S143">
         <v>3.74</v>
       </c>
       <c r="T143">
-        <v>10</v>
-      </c>
-      <c r="U143">
-        <v>3.74</v>
-      </c>
-      <c r="V143">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U143" t="s">
+        <v>31</v>
+      </c>
+      <c r="V143" t="s">
+        <v>31</v>
       </c>
       <c r="W143">
         <v>0</v>
       </c>
-      <c r="X143" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y143">
-        <v>3</v>
+      <c r="X143">
+        <v>0.5</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -12068,40 +12068,40 @@
         <v>-2.5</v>
       </c>
       <c r="N144">
-        <v>3.74</v>
-      </c>
-      <c r="O144" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O144">
+        <v>3.74</v>
       </c>
       <c r="P144" t="s">
         <v>31</v>
       </c>
-      <c r="Q144" t="s">
-        <v>31</v>
+      <c r="Q144">
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S144">
         <v>3.74</v>
       </c>
       <c r="T144">
-        <v>10</v>
-      </c>
-      <c r="U144">
-        <v>3.74</v>
-      </c>
-      <c r="V144">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U144" t="s">
+        <v>31</v>
+      </c>
+      <c r="V144" t="s">
+        <v>31</v>
       </c>
       <c r="W144">
         <v>0</v>
       </c>
-      <c r="X144" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y144">
-        <v>3</v>
+      <c r="X144">
+        <v>0.5</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12145,40 +12145,40 @@
         <v>-2.5</v>
       </c>
       <c r="N145">
-        <v>3.74</v>
-      </c>
-      <c r="O145" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="O145">
+        <v>3.74</v>
       </c>
       <c r="P145" t="s">
         <v>31</v>
       </c>
-      <c r="Q145" t="s">
-        <v>31</v>
+      <c r="Q145">
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S145">
         <v>3.74</v>
       </c>
       <c r="T145">
-        <v>10</v>
-      </c>
-      <c r="U145">
-        <v>3.74</v>
-      </c>
-      <c r="V145">
-        <v>0</v>
+        <v>3.74</v>
+      </c>
+      <c r="U145" t="s">
+        <v>31</v>
+      </c>
+      <c r="V145" t="s">
+        <v>31</v>
       </c>
       <c r="W145">
         <v>0</v>
       </c>
-      <c r="X145" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y145">
-        <v>3</v>
+      <c r="X145">
+        <v>0.5</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
